--- a/BackTest/2019-10-27 BackTest ETC.xlsx
+++ b/BackTest/2019-10-27 BackTest ETC.xlsx
@@ -451,17 +451,13 @@
         <v>5331.666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>5330</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5330</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -496,14 +492,8 @@
         <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -537,14 +527,8 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -578,14 +562,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,14 +597,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -660,14 +632,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -742,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -824,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -865,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -906,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -947,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -988,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1029,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1070,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1111,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1152,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1193,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1234,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1269,22 +1151,14 @@
         <v>5286.666666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>5295</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,22 +1186,14 @@
         <v>5290</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>5300</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1355,22 +1221,14 @@
         <v>5296.666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>5300</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1398,22 +1256,14 @@
         <v>5296.666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>5300</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1441,22 +1291,14 @@
         <v>5300</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>5300</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1484,22 +1326,14 @@
         <v>5298.333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>5295</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1527,22 +1361,14 @@
         <v>5298.333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>5300</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1570,22 +1396,14 @@
         <v>5305</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1613,22 +1431,14 @@
         <v>5315</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1656,22 +1466,14 @@
         <v>5321.666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>5320</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1699,22 +1501,14 @@
         <v>5321.666666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>5320</v>
-      </c>
-      <c r="K32" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1748,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1789,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1830,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1871,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1912,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1953,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1994,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2035,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2076,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2117,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2158,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2199,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2240,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2281,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2322,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2363,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2404,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2445,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2486,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2527,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2568,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2609,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2650,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2691,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2732,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2773,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2814,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2855,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2896,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2937,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2978,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3019,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3060,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3101,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3142,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3183,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3224,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3259,22 +2831,14 @@
         <v>5283.333333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K70" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3302,22 +2866,14 @@
         <v>5285</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K71" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3345,22 +2901,14 @@
         <v>5281.666666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>5275</v>
-      </c>
-      <c r="K72" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3388,22 +2936,14 @@
         <v>5276.666666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>5275</v>
-      </c>
-      <c r="K73" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3431,22 +2971,14 @@
         <v>5266.666666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K74" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3474,22 +3006,14 @@
         <v>5263.333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>5265</v>
-      </c>
-      <c r="K75" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3517,22 +3041,14 @@
         <v>5263.333333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>5270</v>
-      </c>
-      <c r="K76" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3560,22 +3076,14 @@
         <v>5276.666666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K77" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3609,16 +3117,12 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>5280</v>
+        <v>5295</v>
       </c>
       <c r="K78" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5295</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3652,14 +3156,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
+        <v>5280</v>
+      </c>
+      <c r="K79" t="n">
         <v>5295</v>
-      </c>
-      <c r="K79" t="n">
-        <v>5330</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -3698,11 +3202,11 @@
         <v>5295</v>
       </c>
       <c r="K80" t="n">
-        <v>5330</v>
+        <v>5295</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -3741,13 +3245,9 @@
         <v>5295</v>
       </c>
       <c r="K81" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5295</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3781,14 +3281,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="K82" t="n">
-        <v>5330</v>
+        <v>5295</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M82" t="n">
@@ -3827,11 +3327,11 @@
         <v>5300</v>
       </c>
       <c r="K83" t="n">
-        <v>5330</v>
+        <v>5295</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M83" t="n">
@@ -3870,13 +3370,9 @@
         <v>5300</v>
       </c>
       <c r="K84" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5300</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3910,14 +3406,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>5310</v>
+        <v>5300</v>
       </c>
       <c r="K85" t="n">
-        <v>5330</v>
+        <v>5300</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3947,20 +3443,18 @@
         <v>5306.666666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>5310</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>5330</v>
+        <v>5300</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -3990,22 +3484,14 @@
         <v>5313.333333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>5320</v>
-      </c>
-      <c r="K87" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4033,22 +3519,14 @@
         <v>5320</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>5330</v>
-      </c>
-      <c r="K88" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4076,22 +3554,14 @@
         <v>5330</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>5340</v>
-      </c>
-      <c r="K89" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4125,14 +3595,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4166,14 +3630,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4207,14 +3665,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4248,14 +3700,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4289,14 +3735,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4330,14 +3770,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4371,14 +3805,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4412,14 +3840,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4453,14 +3875,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4494,14 +3910,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4535,14 +3945,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4576,14 +3980,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4617,14 +4015,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4658,14 +4050,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4699,14 +4085,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4740,14 +4120,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4781,14 +4155,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4822,14 +4190,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4863,14 +4225,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4904,14 +4260,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4945,14 +4295,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4986,14 +4330,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5027,14 +4365,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5068,14 +4400,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5109,14 +4435,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5150,14 +4470,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5191,14 +4505,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5232,14 +4540,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5273,14 +4575,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5314,14 +4610,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5355,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5396,14 +4680,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5437,14 +4715,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5478,14 +4750,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5519,14 +4785,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5560,14 +4820,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5601,14 +4855,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5642,14 +4890,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5683,14 +4925,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5724,14 +4960,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5765,14 +4995,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5806,14 +5030,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5847,14 +5065,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5888,14 +5100,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5929,14 +5135,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5970,14 +5170,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6011,14 +5205,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6052,14 +5240,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6093,14 +5275,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6134,14 +5310,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6175,14 +5345,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6216,14 +5380,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6257,14 +5415,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6298,14 +5450,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6339,14 +5485,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6380,14 +5520,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6421,14 +5555,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6462,14 +5590,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6503,14 +5625,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6544,14 +5660,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6585,14 +5695,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6626,14 +5730,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6667,14 +5765,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6708,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6749,14 +5835,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6790,14 +5870,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6831,14 +5905,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6872,14 +5940,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6913,14 +5975,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6954,14 +6010,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6992,17 +6042,11 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -7036,16 +6080,10 @@
         <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>5330</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>1.014699812382739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -7144,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -7179,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -8544,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
@@ -8614,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
@@ -9209,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest ETC.xlsx
+++ b/BackTest/2019-10-27 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M254"/>
+  <dimension ref="A1:M255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5330</v>
+        <v>5335</v>
       </c>
       <c r="C2" t="n">
-        <v>5330</v>
+        <v>5335</v>
       </c>
       <c r="D2" t="n">
-        <v>5330</v>
+        <v>5335</v>
       </c>
       <c r="E2" t="n">
-        <v>5330</v>
+        <v>5335</v>
       </c>
       <c r="F2" t="n">
-        <v>11.1575</v>
+        <v>11.2946</v>
       </c>
       <c r="G2" t="n">
-        <v>5331.666666666667</v>
+        <v>5286.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5315</v>
+        <v>5330</v>
       </c>
       <c r="C3" t="n">
         <v>5330</v>
@@ -477,13 +477,13 @@
         <v>5330</v>
       </c>
       <c r="E3" t="n">
-        <v>5315</v>
+        <v>5330</v>
       </c>
       <c r="F3" t="n">
-        <v>624.5051</v>
+        <v>11.1575</v>
       </c>
       <c r="G3" t="n">
-        <v>5331.666666666667</v>
+        <v>5286.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5335</v>
+        <v>5315</v>
       </c>
       <c r="C4" t="n">
-        <v>5335</v>
+        <v>5330</v>
       </c>
       <c r="D4" t="n">
-        <v>5335</v>
+        <v>5330</v>
       </c>
       <c r="E4" t="n">
-        <v>5335</v>
+        <v>5315</v>
       </c>
       <c r="F4" t="n">
-        <v>15.5308</v>
+        <v>624.5051</v>
       </c>
       <c r="G4" t="n">
-        <v>5331.666666666667</v>
+        <v>5286.666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>5335</v>
       </c>
       <c r="C5" t="n">
-        <v>5325</v>
+        <v>5335</v>
       </c>
       <c r="D5" t="n">
-        <v>5360</v>
+        <v>5335</v>
       </c>
       <c r="E5" t="n">
-        <v>5325</v>
+        <v>5335</v>
       </c>
       <c r="F5" t="n">
-        <v>970.9079</v>
+        <v>15.5308</v>
       </c>
       <c r="G5" t="n">
-        <v>5330</v>
+        <v>5286.666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5345</v>
+        <v>5335</v>
       </c>
       <c r="C6" t="n">
-        <v>5345</v>
+        <v>5325</v>
       </c>
       <c r="D6" t="n">
-        <v>5345</v>
+        <v>5360</v>
       </c>
       <c r="E6" t="n">
-        <v>5345</v>
+        <v>5325</v>
       </c>
       <c r="F6" t="n">
-        <v>154.03</v>
+        <v>970.9079</v>
       </c>
       <c r="G6" t="n">
-        <v>5335</v>
+        <v>5286.416666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5330</v>
+        <v>5345</v>
       </c>
       <c r="C7" t="n">
-        <v>5330</v>
+        <v>5345</v>
       </c>
       <c r="D7" t="n">
-        <v>5330</v>
+        <v>5345</v>
       </c>
       <c r="E7" t="n">
-        <v>5330</v>
+        <v>5345</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>154.03</v>
       </c>
       <c r="G7" t="n">
-        <v>5333.333333333333</v>
+        <v>5286.583333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5350</v>
+        <v>5330</v>
       </c>
       <c r="C8" t="n">
-        <v>5355</v>
+        <v>5330</v>
       </c>
       <c r="D8" t="n">
-        <v>5355</v>
+        <v>5330</v>
       </c>
       <c r="E8" t="n">
-        <v>5350</v>
+        <v>5330</v>
       </c>
       <c r="F8" t="n">
-        <v>70.6609</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>5343.333333333333</v>
+        <v>5287</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5355</v>
+        <v>5350</v>
       </c>
       <c r="C9" t="n">
         <v>5355</v>
@@ -687,13 +687,13 @@
         <v>5355</v>
       </c>
       <c r="E9" t="n">
-        <v>5355</v>
+        <v>5350</v>
       </c>
       <c r="F9" t="n">
-        <v>1.3517</v>
+        <v>70.6609</v>
       </c>
       <c r="G9" t="n">
-        <v>5346.666666666667</v>
+        <v>5288</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5365</v>
+        <v>5355</v>
       </c>
       <c r="C10" t="n">
-        <v>5370</v>
+        <v>5355</v>
       </c>
       <c r="D10" t="n">
-        <v>5370</v>
+        <v>5355</v>
       </c>
       <c r="E10" t="n">
-        <v>5365</v>
+        <v>5355</v>
       </c>
       <c r="F10" t="n">
-        <v>350.1963</v>
+        <v>1.3517</v>
       </c>
       <c r="G10" t="n">
-        <v>5360</v>
+        <v>5288.833333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5360</v>
+        <v>5365</v>
       </c>
       <c r="C11" t="n">
+        <v>5370</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5370</v>
+      </c>
+      <c r="E11" t="n">
         <v>5365</v>
       </c>
-      <c r="D11" t="n">
-        <v>5365</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5360</v>
-      </c>
       <c r="F11" t="n">
-        <v>153.997</v>
+        <v>350.1963</v>
       </c>
       <c r="G11" t="n">
-        <v>5363.333333333333</v>
+        <v>5290.25</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5355</v>
+        <v>5360</v>
       </c>
       <c r="C12" t="n">
-        <v>5355</v>
+        <v>5365</v>
       </c>
       <c r="D12" t="n">
-        <v>5355</v>
+        <v>5365</v>
       </c>
       <c r="E12" t="n">
-        <v>5355</v>
+        <v>5360</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>153.997</v>
       </c>
       <c r="G12" t="n">
-        <v>5363.333333333333</v>
+        <v>5292</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5330</v>
+        <v>5355</v>
       </c>
       <c r="C13" t="n">
-        <v>5330</v>
+        <v>5355</v>
       </c>
       <c r="D13" t="n">
-        <v>5330</v>
+        <v>5355</v>
       </c>
       <c r="E13" t="n">
-        <v>5330</v>
+        <v>5355</v>
       </c>
       <c r="F13" t="n">
-        <v>12.9775</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>5350</v>
+        <v>5293.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5315</v>
+        <v>5330</v>
       </c>
       <c r="C14" t="n">
-        <v>5315</v>
+        <v>5330</v>
       </c>
       <c r="D14" t="n">
-        <v>5315</v>
+        <v>5330</v>
       </c>
       <c r="E14" t="n">
-        <v>5315</v>
+        <v>5330</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>12.9775</v>
       </c>
       <c r="G14" t="n">
-        <v>5333.333333333333</v>
+        <v>5295</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="C15" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="D15" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="E15" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="F15" t="n">
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>5318.333333333333</v>
+        <v>5295.916666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="C16" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="D16" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="E16" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="F16" t="n">
-        <v>40.0156</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>5308.333333333333</v>
+        <v>5297.166666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="C17" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="D17" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="E17" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>40.0156</v>
       </c>
       <c r="G17" t="n">
-        <v>5300</v>
+        <v>5298.083333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5305</v>
+        <v>5290</v>
       </c>
       <c r="C18" t="n">
-        <v>5305</v>
+        <v>5290</v>
       </c>
       <c r="D18" t="n">
-        <v>5305</v>
+        <v>5290</v>
       </c>
       <c r="E18" t="n">
-        <v>5305</v>
+        <v>5290</v>
       </c>
       <c r="F18" t="n">
-        <v>159.6704</v>
+        <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>5298.333333333333</v>
+        <v>5298.416666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C19" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D19" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E19" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="F19" t="n">
-        <v>19.0843</v>
+        <v>159.6704</v>
       </c>
       <c r="G19" t="n">
-        <v>5298.333333333333</v>
+        <v>5298.75</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="C20" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="D20" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="E20" t="n">
-        <v>5280</v>
+        <v>5300</v>
       </c>
       <c r="F20" t="n">
-        <v>1.9955</v>
+        <v>19.0843</v>
       </c>
       <c r="G20" t="n">
-        <v>5295</v>
+        <v>5298.333333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>5280</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>1.9955</v>
       </c>
       <c r="G21" t="n">
-        <v>5286.666666666667</v>
+        <v>5297.583333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5295</v>
+        <v>5280</v>
       </c>
       <c r="C22" t="n">
-        <v>5300</v>
+        <v>5280</v>
       </c>
       <c r="D22" t="n">
-        <v>5300</v>
+        <v>5280</v>
       </c>
       <c r="E22" t="n">
-        <v>5295</v>
+        <v>5280</v>
       </c>
       <c r="F22" t="n">
-        <v>94.6713</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>5286.666666666667</v>
+        <v>5297.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C23" t="n">
         <v>5300</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5290</v>
       </c>
       <c r="D23" t="n">
         <v>5300</v>
       </c>
       <c r="E23" t="n">
-        <v>5290</v>
+        <v>5295</v>
       </c>
       <c r="F23" t="n">
-        <v>76.75234905660378</v>
+        <v>94.6713</v>
       </c>
       <c r="G23" t="n">
-        <v>5290</v>
+        <v>5297.666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>5300</v>
       </c>
       <c r="C24" t="n">
-        <v>5300</v>
+        <v>5290</v>
       </c>
       <c r="D24" t="n">
         <v>5300</v>
       </c>
       <c r="E24" t="n">
-        <v>5300</v>
+        <v>5290</v>
       </c>
       <c r="F24" t="n">
-        <v>31.2833</v>
+        <v>76.75234905660378</v>
       </c>
       <c r="G24" t="n">
-        <v>5296.666666666667</v>
+        <v>5297.75</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>5300</v>
       </c>
       <c r="F25" t="n">
-        <v>165.0746</v>
+        <v>31.2833</v>
       </c>
       <c r="G25" t="n">
-        <v>5296.666666666667</v>
+        <v>5298.333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>5300</v>
       </c>
       <c r="F26" t="n">
-        <v>51.1711</v>
+        <v>165.0746</v>
       </c>
       <c r="G26" t="n">
-        <v>5300</v>
+        <v>5299</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="C27" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="D27" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="E27" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="F27" t="n">
-        <v>13.4036</v>
+        <v>51.1711</v>
       </c>
       <c r="G27" t="n">
-        <v>5298.333333333333</v>
+        <v>5299.916666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="C28" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="D28" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="E28" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="F28" t="n">
-        <v>2.769350943396226</v>
+        <v>13.4036</v>
       </c>
       <c r="G28" t="n">
-        <v>5298.333333333333</v>
+        <v>5300.333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5315</v>
+        <v>5300</v>
       </c>
       <c r="C29" t="n">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="D29" t="n">
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="E29" t="n">
-        <v>5315</v>
+        <v>5300</v>
       </c>
       <c r="F29" t="n">
-        <v>8.9352</v>
+        <v>2.769350943396226</v>
       </c>
       <c r="G29" t="n">
-        <v>5305</v>
+        <v>5300.75</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>5315</v>
       </c>
       <c r="C30" t="n">
-        <v>5325</v>
+        <v>5320</v>
       </c>
       <c r="D30" t="n">
-        <v>5325</v>
+        <v>5320</v>
       </c>
       <c r="E30" t="n">
         <v>5315</v>
       </c>
       <c r="F30" t="n">
-        <v>275.8638</v>
+        <v>8.9352</v>
       </c>
       <c r="G30" t="n">
-        <v>5315</v>
+        <v>5301.75</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5320</v>
+        <v>5315</v>
       </c>
       <c r="C31" t="n">
-        <v>5320</v>
+        <v>5325</v>
       </c>
       <c r="D31" t="n">
-        <v>5320</v>
+        <v>5325</v>
       </c>
       <c r="E31" t="n">
-        <v>5320</v>
+        <v>5315</v>
       </c>
       <c r="F31" t="n">
-        <v>189.4997</v>
+        <v>275.8638</v>
       </c>
       <c r="G31" t="n">
-        <v>5321.666666666667</v>
+        <v>5302.583333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>5320</v>
       </c>
       <c r="F32" t="n">
-        <v>0.679</v>
+        <v>189.4997</v>
       </c>
       <c r="G32" t="n">
-        <v>5321.666666666667</v>
+        <v>5303</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5330</v>
+        <v>5320</v>
       </c>
       <c r="C33" t="n">
-        <v>5330</v>
+        <v>5320</v>
       </c>
       <c r="D33" t="n">
-        <v>5330</v>
+        <v>5320</v>
       </c>
       <c r="E33" t="n">
-        <v>5330</v>
+        <v>5320</v>
       </c>
       <c r="F33" t="n">
-        <v>17.7447</v>
+        <v>0.679</v>
       </c>
       <c r="G33" t="n">
-        <v>5323.333333333333</v>
+        <v>5303.666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5320</v>
+        <v>5330</v>
       </c>
       <c r="C34" t="n">
-        <v>5315</v>
+        <v>5330</v>
       </c>
       <c r="D34" t="n">
-        <v>5320</v>
+        <v>5330</v>
       </c>
       <c r="E34" t="n">
-        <v>5315</v>
+        <v>5330</v>
       </c>
       <c r="F34" t="n">
-        <v>107.7159</v>
+        <v>17.7447</v>
       </c>
       <c r="G34" t="n">
-        <v>5321.666666666667</v>
+        <v>5304.583333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5335</v>
+        <v>5320</v>
       </c>
       <c r="C35" t="n">
-        <v>5335</v>
+        <v>5315</v>
       </c>
       <c r="D35" t="n">
-        <v>5335</v>
+        <v>5320</v>
       </c>
       <c r="E35" t="n">
-        <v>5330</v>
+        <v>5315</v>
       </c>
       <c r="F35" t="n">
-        <v>199.2137</v>
+        <v>107.7159</v>
       </c>
       <c r="G35" t="n">
-        <v>5326.666666666667</v>
+        <v>5305</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5330</v>
+        <v>5335</v>
       </c>
       <c r="C36" t="n">
         <v>5335</v>
@@ -1635,10 +1635,10 @@
         <v>5330</v>
       </c>
       <c r="F36" t="n">
-        <v>495.9719</v>
+        <v>199.2137</v>
       </c>
       <c r="G36" t="n">
-        <v>5328.333333333333</v>
+        <v>5306.083333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5335</v>
+        <v>5330</v>
       </c>
       <c r="C37" t="n">
         <v>5335</v>
@@ -1667,13 +1667,13 @@
         <v>5335</v>
       </c>
       <c r="E37" t="n">
-        <v>5335</v>
+        <v>5330</v>
       </c>
       <c r="F37" t="n">
-        <v>55.6975</v>
+        <v>495.9719</v>
       </c>
       <c r="G37" t="n">
-        <v>5335</v>
+        <v>5307.166666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5325</v>
+        <v>5335</v>
       </c>
       <c r="C38" t="n">
-        <v>5325</v>
+        <v>5335</v>
       </c>
       <c r="D38" t="n">
-        <v>5325</v>
+        <v>5335</v>
       </c>
       <c r="E38" t="n">
-        <v>5325</v>
+        <v>5335</v>
       </c>
       <c r="F38" t="n">
-        <v>20</v>
+        <v>55.6975</v>
       </c>
       <c r="G38" t="n">
-        <v>5331.666666666667</v>
+        <v>5308.25</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5315</v>
+        <v>5325</v>
       </c>
       <c r="C39" t="n">
-        <v>5315</v>
+        <v>5325</v>
       </c>
       <c r="D39" t="n">
-        <v>5315</v>
+        <v>5325</v>
       </c>
       <c r="E39" t="n">
-        <v>5315</v>
+        <v>5325</v>
       </c>
       <c r="F39" t="n">
-        <v>11.6928</v>
+        <v>20</v>
       </c>
       <c r="G39" t="n">
-        <v>5325</v>
+        <v>5309.333333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>5315</v>
       </c>
       <c r="F40" t="n">
-        <v>2.0775</v>
+        <v>11.6928</v>
       </c>
       <c r="G40" t="n">
-        <v>5318.333333333333</v>
+        <v>5310.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>5315</v>
       </c>
       <c r="C41" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="D41" t="n">
         <v>5315</v>
       </c>
       <c r="E41" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="F41" t="n">
-        <v>342.3492</v>
+        <v>2.0775</v>
       </c>
       <c r="G41" t="n">
-        <v>5313.333333333333</v>
+        <v>5312.083333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5330</v>
+        <v>5315</v>
       </c>
       <c r="C42" t="n">
-        <v>5330</v>
+        <v>5310</v>
       </c>
       <c r="D42" t="n">
-        <v>5330</v>
+        <v>5315</v>
       </c>
       <c r="E42" t="n">
-        <v>5330</v>
+        <v>5310</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5</v>
+        <v>342.3492</v>
       </c>
       <c r="G42" t="n">
-        <v>5318.333333333333</v>
+        <v>5313.166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>5330</v>
       </c>
       <c r="F43" t="n">
-        <v>43.3528</v>
+        <v>0.5</v>
       </c>
       <c r="G43" t="n">
-        <v>5323.333333333333</v>
+        <v>5313.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1909,16 +1909,16 @@
         <v>5330</v>
       </c>
       <c r="D44" t="n">
-        <v>5335</v>
+        <v>5330</v>
       </c>
       <c r="E44" t="n">
         <v>5330</v>
       </c>
       <c r="F44" t="n">
-        <v>429.7544</v>
+        <v>43.3528</v>
       </c>
       <c r="G44" t="n">
-        <v>5330</v>
+        <v>5314</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5345</v>
+        <v>5330</v>
       </c>
       <c r="C45" t="n">
-        <v>5345</v>
+        <v>5330</v>
       </c>
       <c r="D45" t="n">
-        <v>5345</v>
+        <v>5335</v>
       </c>
       <c r="E45" t="n">
-        <v>5345</v>
+        <v>5330</v>
       </c>
       <c r="F45" t="n">
-        <v>38.8667</v>
+        <v>429.7544</v>
       </c>
       <c r="G45" t="n">
-        <v>5335</v>
+        <v>5314.333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5355</v>
+        <v>5345</v>
       </c>
       <c r="C46" t="n">
-        <v>5355</v>
+        <v>5345</v>
       </c>
       <c r="D46" t="n">
-        <v>5355</v>
+        <v>5345</v>
       </c>
       <c r="E46" t="n">
-        <v>5355</v>
+        <v>5345</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>38.8667</v>
       </c>
       <c r="G46" t="n">
-        <v>5343.333333333333</v>
+        <v>5314.833333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="C47" t="n">
-        <v>5360</v>
+        <v>5355</v>
       </c>
       <c r="D47" t="n">
-        <v>5360</v>
+        <v>5355</v>
       </c>
       <c r="E47" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="F47" t="n">
-        <v>157.8253</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>5353.333333333333</v>
+        <v>5315.75</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5355</v>
+        <v>5340</v>
       </c>
       <c r="C48" t="n">
-        <v>5355</v>
+        <v>5360</v>
       </c>
       <c r="D48" t="n">
-        <v>5355</v>
+        <v>5360</v>
       </c>
       <c r="E48" t="n">
-        <v>5355</v>
+        <v>5340</v>
       </c>
       <c r="F48" t="n">
-        <v>35.3446</v>
+        <v>157.8253</v>
       </c>
       <c r="G48" t="n">
-        <v>5356.666666666667</v>
+        <v>5316.916666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>5355</v>
       </c>
       <c r="F49" t="n">
-        <v>178.1657</v>
+        <v>35.3446</v>
       </c>
       <c r="G49" t="n">
-        <v>5356.666666666667</v>
+        <v>5318</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5350</v>
+        <v>5355</v>
       </c>
       <c r="C50" t="n">
-        <v>5370</v>
+        <v>5355</v>
       </c>
       <c r="D50" t="n">
-        <v>5370</v>
+        <v>5355</v>
       </c>
       <c r="E50" t="n">
-        <v>5350</v>
+        <v>5355</v>
       </c>
       <c r="F50" t="n">
-        <v>107</v>
+        <v>178.1657</v>
       </c>
       <c r="G50" t="n">
-        <v>5360</v>
+        <v>5318.833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5370</v>
+        <v>5350</v>
       </c>
       <c r="C51" t="n">
         <v>5370</v>
@@ -2157,13 +2157,13 @@
         <v>5370</v>
       </c>
       <c r="E51" t="n">
-        <v>5370</v>
+        <v>5350</v>
       </c>
       <c r="F51" t="n">
-        <v>29.535</v>
+        <v>107</v>
       </c>
       <c r="G51" t="n">
-        <v>5365</v>
+        <v>5320.083333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5355</v>
+        <v>5370</v>
       </c>
       <c r="C52" t="n">
-        <v>5355</v>
+        <v>5370</v>
       </c>
       <c r="D52" t="n">
-        <v>5355</v>
+        <v>5370</v>
       </c>
       <c r="E52" t="n">
-        <v>5355</v>
+        <v>5370</v>
       </c>
       <c r="F52" t="n">
-        <v>1.24</v>
+        <v>29.535</v>
       </c>
       <c r="G52" t="n">
-        <v>5365</v>
+        <v>5321.333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5375</v>
+        <v>5355</v>
       </c>
       <c r="C53" t="n">
-        <v>5375</v>
+        <v>5355</v>
       </c>
       <c r="D53" t="n">
-        <v>5375</v>
+        <v>5355</v>
       </c>
       <c r="E53" t="n">
-        <v>5375</v>
+        <v>5355</v>
       </c>
       <c r="F53" t="n">
-        <v>31.0939</v>
+        <v>1.24</v>
       </c>
       <c r="G53" t="n">
-        <v>5366.666666666667</v>
+        <v>5322.333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5350</v>
+        <v>5375</v>
       </c>
       <c r="C54" t="n">
-        <v>5345</v>
+        <v>5375</v>
       </c>
       <c r="D54" t="n">
-        <v>5350</v>
+        <v>5375</v>
       </c>
       <c r="E54" t="n">
-        <v>5345</v>
+        <v>5375</v>
       </c>
       <c r="F54" t="n">
-        <v>25.5756</v>
+        <v>31.0939</v>
       </c>
       <c r="G54" t="n">
-        <v>5358.333333333333</v>
+        <v>5323.916666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5335</v>
+        <v>5350</v>
       </c>
       <c r="C55" t="n">
-        <v>5340</v>
+        <v>5345</v>
       </c>
       <c r="D55" t="n">
-        <v>5340</v>
+        <v>5350</v>
       </c>
       <c r="E55" t="n">
-        <v>5330</v>
+        <v>5345</v>
       </c>
       <c r="F55" t="n">
-        <v>249.4247</v>
+        <v>25.5756</v>
       </c>
       <c r="G55" t="n">
-        <v>5353.333333333333</v>
+        <v>5324.916666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5325</v>
+        <v>5335</v>
       </c>
       <c r="C56" t="n">
-        <v>5335</v>
+        <v>5340</v>
       </c>
       <c r="D56" t="n">
-        <v>5335</v>
+        <v>5340</v>
       </c>
       <c r="E56" t="n">
-        <v>5325</v>
+        <v>5330</v>
       </c>
       <c r="F56" t="n">
-        <v>59.724</v>
+        <v>249.4247</v>
       </c>
       <c r="G56" t="n">
-        <v>5340</v>
+        <v>5326</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5335</v>
+        <v>5325</v>
       </c>
       <c r="C57" t="n">
         <v>5335</v>
@@ -2367,13 +2367,13 @@
         <v>5335</v>
       </c>
       <c r="E57" t="n">
-        <v>5335</v>
+        <v>5325</v>
       </c>
       <c r="F57" t="n">
-        <v>10.9944</v>
+        <v>59.724</v>
       </c>
       <c r="G57" t="n">
-        <v>5336.666666666667</v>
+        <v>5326.833333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>5335</v>
       </c>
       <c r="F58" t="n">
-        <v>19.3076</v>
+        <v>10.9944</v>
       </c>
       <c r="G58" t="n">
-        <v>5335</v>
+        <v>5327.75</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5310</v>
+        <v>5335</v>
       </c>
       <c r="C59" t="n">
-        <v>5310</v>
+        <v>5335</v>
       </c>
       <c r="D59" t="n">
-        <v>5310</v>
+        <v>5335</v>
       </c>
       <c r="E59" t="n">
-        <v>5310</v>
+        <v>5335</v>
       </c>
       <c r="F59" t="n">
-        <v>14.3365</v>
+        <v>19.3076</v>
       </c>
       <c r="G59" t="n">
-        <v>5326.666666666667</v>
+        <v>5328.25</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>5310</v>
       </c>
       <c r="F60" t="n">
-        <v>8.102</v>
+        <v>14.3365</v>
       </c>
       <c r="G60" t="n">
-        <v>5318.333333333333</v>
+        <v>5328.083333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5320</v>
+        <v>5310</v>
       </c>
       <c r="C61" t="n">
-        <v>5320</v>
+        <v>5310</v>
       </c>
       <c r="D61" t="n">
-        <v>5320</v>
+        <v>5310</v>
       </c>
       <c r="E61" t="n">
-        <v>5320</v>
+        <v>5310</v>
       </c>
       <c r="F61" t="n">
-        <v>12.1132</v>
+        <v>8.102</v>
       </c>
       <c r="G61" t="n">
-        <v>5313.333333333333</v>
+        <v>5327.75</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5310</v>
+        <v>5320</v>
       </c>
       <c r="C62" t="n">
-        <v>5310</v>
+        <v>5320</v>
       </c>
       <c r="D62" t="n">
-        <v>5310</v>
+        <v>5320</v>
       </c>
       <c r="E62" t="n">
-        <v>5310</v>
+        <v>5320</v>
       </c>
       <c r="F62" t="n">
-        <v>137.4471</v>
+        <v>12.1132</v>
       </c>
       <c r="G62" t="n">
-        <v>5313.333333333333</v>
+        <v>5327.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="C63" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="D63" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="E63" t="n">
-        <v>5305</v>
+        <v>5310</v>
       </c>
       <c r="F63" t="n">
-        <v>99.75</v>
+        <v>137.4471</v>
       </c>
       <c r="G63" t="n">
-        <v>5311.666666666667</v>
+        <v>5327.166666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C64" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D64" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E64" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="F64" t="n">
-        <v>137.4471</v>
+        <v>99.75</v>
       </c>
       <c r="G64" t="n">
-        <v>5305</v>
+        <v>5326.75</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,19 +2641,19 @@
         <v>5300</v>
       </c>
       <c r="C65" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="D65" t="n">
         <v>5300</v>
       </c>
       <c r="E65" t="n">
-        <v>5290</v>
+        <v>5300</v>
       </c>
       <c r="F65" t="n">
-        <v>240.0392</v>
+        <v>137.4471</v>
       </c>
       <c r="G65" t="n">
-        <v>5298.333333333333</v>
+        <v>5326.166666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="C66" t="n">
         <v>5290</v>
       </c>
       <c r="D66" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="E66" t="n">
         <v>5290</v>
       </c>
       <c r="F66" t="n">
-        <v>23.2694</v>
+        <v>240.0392</v>
       </c>
       <c r="G66" t="n">
-        <v>5293.333333333333</v>
+        <v>5325.583333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5305</v>
+        <v>5295</v>
       </c>
       <c r="C67" t="n">
-        <v>5305</v>
+        <v>5290</v>
       </c>
       <c r="D67" t="n">
-        <v>5305</v>
+        <v>5295</v>
       </c>
       <c r="E67" t="n">
-        <v>5305</v>
+        <v>5290</v>
       </c>
       <c r="F67" t="n">
-        <v>6.3521</v>
+        <v>23.2694</v>
       </c>
       <c r="G67" t="n">
-        <v>5295</v>
+        <v>5324.666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="C68" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="D68" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="E68" t="n">
-        <v>5280</v>
+        <v>5305</v>
       </c>
       <c r="F68" t="n">
-        <v>23.2694</v>
+        <v>6.3521</v>
       </c>
       <c r="G68" t="n">
-        <v>5291.666666666667</v>
+        <v>5324.25</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5285</v>
+        <v>5280</v>
       </c>
       <c r="C69" t="n">
-        <v>5285</v>
+        <v>5280</v>
       </c>
       <c r="D69" t="n">
-        <v>5285</v>
+        <v>5280</v>
       </c>
       <c r="E69" t="n">
-        <v>5285</v>
+        <v>5280</v>
       </c>
       <c r="F69" t="n">
-        <v>14.4922</v>
+        <v>23.2694</v>
       </c>
       <c r="G69" t="n">
-        <v>5290</v>
+        <v>5323</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>5285</v>
       </c>
       <c r="F70" t="n">
-        <v>14.9504</v>
+        <v>14.4922</v>
       </c>
       <c r="G70" t="n">
-        <v>5283.333333333333</v>
+        <v>5321.833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>5285</v>
       </c>
       <c r="F71" t="n">
-        <v>9.6518</v>
+        <v>14.9504</v>
       </c>
       <c r="G71" t="n">
-        <v>5285</v>
+        <v>5320.416666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5275</v>
+        <v>5285</v>
       </c>
       <c r="C72" t="n">
-        <v>5275</v>
+        <v>5285</v>
       </c>
       <c r="D72" t="n">
-        <v>5275</v>
+        <v>5285</v>
       </c>
       <c r="E72" t="n">
-        <v>5275</v>
+        <v>5285</v>
       </c>
       <c r="F72" t="n">
-        <v>7</v>
+        <v>9.6518</v>
       </c>
       <c r="G72" t="n">
-        <v>5281.666666666667</v>
+        <v>5319.083333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>5275</v>
       </c>
       <c r="C73" t="n">
-        <v>5270</v>
+        <v>5275</v>
       </c>
       <c r="D73" t="n">
         <v>5275</v>
       </c>
       <c r="E73" t="n">
-        <v>5270</v>
+        <v>5275</v>
       </c>
       <c r="F73" t="n">
-        <v>54.1393</v>
+        <v>7</v>
       </c>
       <c r="G73" t="n">
-        <v>5276.666666666667</v>
+        <v>5317.75</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5255</v>
+        <v>5275</v>
       </c>
       <c r="C74" t="n">
-        <v>5255</v>
+        <v>5270</v>
       </c>
       <c r="D74" t="n">
-        <v>5255</v>
+        <v>5275</v>
       </c>
       <c r="E74" t="n">
-        <v>5255</v>
+        <v>5270</v>
       </c>
       <c r="F74" t="n">
-        <v>17</v>
+        <v>54.1393</v>
       </c>
       <c r="G74" t="n">
-        <v>5266.666666666667</v>
+        <v>5316.75</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="C75" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="D75" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="E75" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="F75" t="n">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="G75" t="n">
-        <v>5263.333333333333</v>
+        <v>5315.75</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,31 +3023,35 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5270</v>
+        <v>5265</v>
       </c>
       <c r="C76" t="n">
-        <v>5270</v>
+        <v>5265</v>
       </c>
       <c r="D76" t="n">
-        <v>5270</v>
+        <v>5265</v>
       </c>
       <c r="E76" t="n">
-        <v>5270</v>
+        <v>5265</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5003</v>
+        <v>196</v>
       </c>
       <c r="G76" t="n">
-        <v>5263.333333333333</v>
+        <v>5315</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5255</v>
+      </c>
+      <c r="K76" t="n">
+        <v>5255</v>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
@@ -3058,32 +3062,40 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5285</v>
+        <v>5270</v>
       </c>
       <c r="C77" t="n">
-        <v>5295</v>
+        <v>5270</v>
       </c>
       <c r="D77" t="n">
-        <v>5295</v>
+        <v>5270</v>
       </c>
       <c r="E77" t="n">
-        <v>5285</v>
+        <v>5270</v>
       </c>
       <c r="F77" t="n">
-        <v>240.503</v>
+        <v>0.5003</v>
       </c>
       <c r="G77" t="n">
-        <v>5276.666666666667</v>
+        <v>5314.5</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5265</v>
+      </c>
+      <c r="K77" t="n">
+        <v>5255</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3105,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="C78" t="n">
-        <v>5280</v>
+        <v>5295</v>
       </c>
       <c r="D78" t="n">
-        <v>5280</v>
+        <v>5295</v>
       </c>
       <c r="E78" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="F78" t="n">
-        <v>44.885</v>
+        <v>240.503</v>
       </c>
       <c r="G78" t="n">
-        <v>5281.666666666667</v>
+        <v>5314.583333333333</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
@@ -3117,12 +3129,16 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>5295</v>
+        <v>5270</v>
       </c>
       <c r="K78" t="n">
-        <v>5295</v>
-      </c>
-      <c r="L78" t="inlineStr"/>
+        <v>5255</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3132,40 +3148,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>5280</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5280</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5280</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5280</v>
+      </c>
+      <c r="F79" t="n">
+        <v>44.885</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5314.166666666667</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>5295</v>
-      </c>
-      <c r="C79" t="n">
-        <v>5295</v>
-      </c>
-      <c r="D79" t="n">
-        <v>5295</v>
-      </c>
-      <c r="E79" t="n">
-        <v>5295</v>
-      </c>
-      <c r="F79" t="n">
-        <v>51.142</v>
-      </c>
-      <c r="G79" t="n">
-        <v>5290</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>5280</v>
       </c>
       <c r="K79" t="n">
         <v>5295</v>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3187,10 +3199,10 @@
         <v>5295</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1888</v>
+        <v>51.142</v>
       </c>
       <c r="G80" t="n">
-        <v>5290</v>
+        <v>5314.083333333333</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
@@ -3199,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>5295</v>
+        <v>5280</v>
       </c>
       <c r="K80" t="n">
         <v>5295</v>
@@ -3230,10 +3242,10 @@
         <v>5295</v>
       </c>
       <c r="F81" t="n">
-        <v>13.15</v>
+        <v>0.1888</v>
       </c>
       <c r="G81" t="n">
-        <v>5295</v>
+        <v>5314.333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -3247,7 +3259,11 @@
       <c r="K81" t="n">
         <v>5295</v>
       </c>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3257,40 +3273,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="C82" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="D82" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="E82" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="F82" t="n">
-        <v>7.27</v>
+        <v>13.15</v>
       </c>
       <c r="G82" t="n">
-        <v>5296.666666666667</v>
+        <v>5314.583333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>5295</v>
-      </c>
-      <c r="K82" t="n">
-        <v>5295</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3312,28 +3320,20 @@
         <v>5300</v>
       </c>
       <c r="F83" t="n">
-        <v>8.7387</v>
+        <v>7.27</v>
       </c>
       <c r="G83" t="n">
-        <v>5298.333333333333</v>
+        <v>5314.583333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>5300</v>
-      </c>
-      <c r="K83" t="n">
-        <v>5295</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3355,23 +3355,19 @@
         <v>5300</v>
       </c>
       <c r="F84" t="n">
-        <v>6.7261</v>
+        <v>8.7387</v>
       </c>
       <c r="G84" t="n">
-        <v>5300</v>
+        <v>5314.75</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>5300</v>
-      </c>
-      <c r="K84" t="n">
-        <v>5300</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
@@ -3382,40 +3378,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5310</v>
+        <v>5300</v>
       </c>
       <c r="C85" t="n">
-        <v>5310</v>
+        <v>5300</v>
       </c>
       <c r="D85" t="n">
-        <v>5310</v>
+        <v>5300</v>
       </c>
       <c r="E85" t="n">
-        <v>5310</v>
+        <v>5300</v>
       </c>
       <c r="F85" t="n">
-        <v>201</v>
+        <v>6.7261</v>
       </c>
       <c r="G85" t="n">
-        <v>5303.333333333333</v>
+        <v>5314.75</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>5300</v>
-      </c>
-      <c r="K85" t="n">
-        <v>5300</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3437,10 +3425,10 @@
         <v>5310</v>
       </c>
       <c r="F86" t="n">
-        <v>10.0572</v>
+        <v>201</v>
       </c>
       <c r="G86" t="n">
-        <v>5306.666666666667</v>
+        <v>5314.916666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3449,14 +3437,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>5300</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3466,22 +3448,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5320</v>
+        <v>5310</v>
       </c>
       <c r="C87" t="n">
-        <v>5320</v>
+        <v>5310</v>
       </c>
       <c r="D87" t="n">
-        <v>5320</v>
+        <v>5310</v>
       </c>
       <c r="E87" t="n">
-        <v>5320</v>
+        <v>5310</v>
       </c>
       <c r="F87" t="n">
-        <v>62.5451</v>
+        <v>10.0572</v>
       </c>
       <c r="G87" t="n">
-        <v>5313.333333333333</v>
+        <v>5315.083333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3501,22 +3483,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5330</v>
+        <v>5320</v>
       </c>
       <c r="C88" t="n">
-        <v>5330</v>
+        <v>5320</v>
       </c>
       <c r="D88" t="n">
-        <v>5330</v>
+        <v>5320</v>
       </c>
       <c r="E88" t="n">
-        <v>5330</v>
+        <v>5320</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>62.5451</v>
       </c>
       <c r="G88" t="n">
-        <v>5320</v>
+        <v>5315.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3536,22 +3518,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="C89" t="n">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="D89" t="n">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="E89" t="n">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="F89" t="n">
-        <v>56.32</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>5330</v>
+        <v>5316</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3571,22 +3553,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="C90" t="n">
-        <v>5320</v>
+        <v>5340</v>
       </c>
       <c r="D90" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="E90" t="n">
-        <v>5320</v>
+        <v>5340</v>
       </c>
       <c r="F90" t="n">
-        <v>140.5945</v>
+        <v>56.32</v>
       </c>
       <c r="G90" t="n">
-        <v>5330</v>
+        <v>5316.333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3606,22 +3588,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5315</v>
+        <v>5330</v>
       </c>
       <c r="C91" t="n">
-        <v>5315</v>
+        <v>5320</v>
       </c>
       <c r="D91" t="n">
-        <v>5315</v>
+        <v>5330</v>
       </c>
       <c r="E91" t="n">
-        <v>5315</v>
+        <v>5320</v>
       </c>
       <c r="F91" t="n">
-        <v>93.843</v>
+        <v>140.5945</v>
       </c>
       <c r="G91" t="n">
-        <v>5325</v>
+        <v>5316.25</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3653,10 +3635,10 @@
         <v>5315</v>
       </c>
       <c r="F92" t="n">
-        <v>14.74</v>
+        <v>93.843</v>
       </c>
       <c r="G92" t="n">
-        <v>5316.666666666667</v>
+        <v>5316.166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3679,19 +3661,19 @@
         <v>5315</v>
       </c>
       <c r="C93" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="D93" t="n">
         <v>5315</v>
       </c>
       <c r="E93" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="F93" t="n">
-        <v>287.4284</v>
+        <v>14.74</v>
       </c>
       <c r="G93" t="n">
-        <v>5313.333333333333</v>
+        <v>5316.083333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3711,22 +3693,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="C94" t="n">
         <v>5310</v>
       </c>
       <c r="D94" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="E94" t="n">
         <v>5310</v>
       </c>
       <c r="F94" t="n">
-        <v>35.1539</v>
+        <v>287.4284</v>
       </c>
       <c r="G94" t="n">
-        <v>5311.666666666667</v>
+        <v>5315.75</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3758,10 +3740,10 @@
         <v>5310</v>
       </c>
       <c r="F95" t="n">
-        <v>54.1932</v>
+        <v>35.1539</v>
       </c>
       <c r="G95" t="n">
-        <v>5310</v>
+        <v>5315.666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3793,10 +3775,10 @@
         <v>5310</v>
       </c>
       <c r="F96" t="n">
-        <v>4.4615</v>
+        <v>54.1932</v>
       </c>
       <c r="G96" t="n">
-        <v>5310</v>
+        <v>5315.25</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3816,22 +3798,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="C97" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="D97" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="E97" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="F97" t="n">
-        <v>4.4857</v>
+        <v>4.4615</v>
       </c>
       <c r="G97" t="n">
-        <v>5306.666666666667</v>
+        <v>5314.833333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3851,22 +3833,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5315</v>
+        <v>5300</v>
       </c>
       <c r="C98" t="n">
-        <v>5315</v>
+        <v>5300</v>
       </c>
       <c r="D98" t="n">
-        <v>5315</v>
+        <v>5300</v>
       </c>
       <c r="E98" t="n">
-        <v>5315</v>
+        <v>5300</v>
       </c>
       <c r="F98" t="n">
-        <v>206.6687</v>
+        <v>4.4857</v>
       </c>
       <c r="G98" t="n">
-        <v>5308.333333333333</v>
+        <v>5314.25</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3886,22 +3868,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5335</v>
+        <v>5315</v>
       </c>
       <c r="C99" t="n">
-        <v>5335</v>
+        <v>5315</v>
       </c>
       <c r="D99" t="n">
-        <v>5335</v>
+        <v>5315</v>
       </c>
       <c r="E99" t="n">
-        <v>5335</v>
+        <v>5315</v>
       </c>
       <c r="F99" t="n">
-        <v>113.9</v>
+        <v>206.6687</v>
       </c>
       <c r="G99" t="n">
-        <v>5316.666666666667</v>
+        <v>5314.083333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3921,22 +3903,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5315</v>
+        <v>5335</v>
       </c>
       <c r="C100" t="n">
-        <v>5315</v>
+        <v>5335</v>
       </c>
       <c r="D100" t="n">
-        <v>5315</v>
+        <v>5335</v>
       </c>
       <c r="E100" t="n">
-        <v>5315</v>
+        <v>5335</v>
       </c>
       <c r="F100" t="n">
-        <v>25.3043</v>
+        <v>113.9</v>
       </c>
       <c r="G100" t="n">
-        <v>5321.666666666667</v>
+        <v>5314.416666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3968,10 +3950,10 @@
         <v>5315</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5991</v>
+        <v>25.3043</v>
       </c>
       <c r="G101" t="n">
-        <v>5321.666666666667</v>
+        <v>5314.416666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3991,22 +3973,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5355</v>
+        <v>5315</v>
       </c>
       <c r="C102" t="n">
-        <v>5365</v>
+        <v>5315</v>
       </c>
       <c r="D102" t="n">
-        <v>5365</v>
+        <v>5315</v>
       </c>
       <c r="E102" t="n">
-        <v>5355</v>
+        <v>5315</v>
       </c>
       <c r="F102" t="n">
-        <v>640.1438000000001</v>
+        <v>0.5991</v>
       </c>
       <c r="G102" t="n">
-        <v>5331.666666666667</v>
+        <v>5314.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4026,7 +4008,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5365</v>
+        <v>5355</v>
       </c>
       <c r="C103" t="n">
         <v>5365</v>
@@ -4035,13 +4017,13 @@
         <v>5365</v>
       </c>
       <c r="E103" t="n">
-        <v>5365</v>
+        <v>5355</v>
       </c>
       <c r="F103" t="n">
-        <v>100</v>
+        <v>640.1438000000001</v>
       </c>
       <c r="G103" t="n">
-        <v>5348.333333333333</v>
+        <v>5315.083333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4061,22 +4043,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5370</v>
+        <v>5365</v>
       </c>
       <c r="C104" t="n">
-        <v>5370</v>
+        <v>5365</v>
       </c>
       <c r="D104" t="n">
-        <v>5370</v>
+        <v>5365</v>
       </c>
       <c r="E104" t="n">
-        <v>5370</v>
+        <v>5365</v>
       </c>
       <c r="F104" t="n">
-        <v>1.4419</v>
+        <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>5366.666666666667</v>
+        <v>5315.666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4108,10 +4090,10 @@
         <v>5370</v>
       </c>
       <c r="F105" t="n">
-        <v>68.9696</v>
+        <v>1.4419</v>
       </c>
       <c r="G105" t="n">
-        <v>5368.333333333333</v>
+        <v>5316.333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4131,22 +4113,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5380</v>
+        <v>5370</v>
       </c>
       <c r="C106" t="n">
-        <v>5380</v>
+        <v>5370</v>
       </c>
       <c r="D106" t="n">
-        <v>5380</v>
+        <v>5370</v>
       </c>
       <c r="E106" t="n">
-        <v>5380</v>
+        <v>5370</v>
       </c>
       <c r="F106" t="n">
-        <v>124.6898</v>
+        <v>68.9696</v>
       </c>
       <c r="G106" t="n">
-        <v>5373.333333333333</v>
+        <v>5316.75</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4166,22 +4148,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5400</v>
+        <v>5380</v>
       </c>
       <c r="C107" t="n">
-        <v>5400</v>
+        <v>5380</v>
       </c>
       <c r="D107" t="n">
-        <v>5400</v>
+        <v>5380</v>
       </c>
       <c r="E107" t="n">
-        <v>5400</v>
+        <v>5380</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1851851851851852</v>
+        <v>124.6898</v>
       </c>
       <c r="G107" t="n">
-        <v>5383.333333333333</v>
+        <v>5317.166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4201,22 +4183,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5395</v>
+        <v>5400</v>
       </c>
       <c r="C108" t="n">
-        <v>5395</v>
+        <v>5400</v>
       </c>
       <c r="D108" t="n">
-        <v>5395</v>
+        <v>5400</v>
       </c>
       <c r="E108" t="n">
-        <v>5395</v>
+        <v>5400</v>
       </c>
       <c r="F108" t="n">
-        <v>16.1493</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="G108" t="n">
-        <v>5391.666666666667</v>
+        <v>5317.833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4248,10 +4230,10 @@
         <v>5395</v>
       </c>
       <c r="F109" t="n">
-        <v>21.8251</v>
+        <v>16.1493</v>
       </c>
       <c r="G109" t="n">
-        <v>5396.666666666667</v>
+        <v>5318.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4283,16 +4265,16 @@
         <v>5395</v>
       </c>
       <c r="F110" t="n">
-        <v>2.8665</v>
+        <v>21.8251</v>
       </c>
       <c r="G110" t="n">
-        <v>5395</v>
+        <v>5319.166666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4318,16 +4300,16 @@
         <v>5395</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6748</v>
+        <v>2.8665</v>
       </c>
       <c r="G111" t="n">
-        <v>5395</v>
+        <v>5319.583333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4353,16 +4335,16 @@
         <v>5395</v>
       </c>
       <c r="F112" t="n">
-        <v>27.0905</v>
+        <v>0.6748</v>
       </c>
       <c r="G112" t="n">
-        <v>5395</v>
+        <v>5320</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4376,22 +4358,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5400</v>
+        <v>5395</v>
       </c>
       <c r="C113" t="n">
-        <v>5400</v>
+        <v>5395</v>
       </c>
       <c r="D113" t="n">
-        <v>5400</v>
+        <v>5395</v>
       </c>
       <c r="E113" t="n">
-        <v>5400</v>
+        <v>5395</v>
       </c>
       <c r="F113" t="n">
-        <v>4.7887</v>
+        <v>27.0905</v>
       </c>
       <c r="G113" t="n">
-        <v>5396.666666666667</v>
+        <v>5320.666666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4423,10 +4405,10 @@
         <v>5400</v>
       </c>
       <c r="F114" t="n">
-        <v>1.2261</v>
+        <v>4.7887</v>
       </c>
       <c r="G114" t="n">
-        <v>5398.333333333333</v>
+        <v>5321.083333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4446,22 +4428,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5350</v>
+        <v>5400</v>
       </c>
       <c r="C115" t="n">
-        <v>5350</v>
+        <v>5400</v>
       </c>
       <c r="D115" t="n">
-        <v>5350</v>
+        <v>5400</v>
       </c>
       <c r="E115" t="n">
-        <v>5350</v>
+        <v>5400</v>
       </c>
       <c r="F115" t="n">
-        <v>101.2438</v>
+        <v>1.2261</v>
       </c>
       <c r="G115" t="n">
-        <v>5383.333333333333</v>
+        <v>5322</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4493,10 +4475,10 @@
         <v>5350</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1656</v>
+        <v>101.2438</v>
       </c>
       <c r="G116" t="n">
-        <v>5366.666666666667</v>
+        <v>5322.166666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4516,22 +4498,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5365</v>
+        <v>5350</v>
       </c>
       <c r="C117" t="n">
-        <v>5365</v>
+        <v>5350</v>
       </c>
       <c r="D117" t="n">
-        <v>5365</v>
+        <v>5350</v>
       </c>
       <c r="E117" t="n">
-        <v>5365</v>
+        <v>5350</v>
       </c>
       <c r="F117" t="n">
-        <v>3.604659832246039</v>
+        <v>0.1656</v>
       </c>
       <c r="G117" t="n">
-        <v>5355</v>
+        <v>5322.416666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4563,10 +4545,10 @@
         <v>5365</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1726</v>
+        <v>3.604659832246039</v>
       </c>
       <c r="G118" t="n">
-        <v>5360</v>
+        <v>5322.916666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4586,22 +4568,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5345</v>
+        <v>5365</v>
       </c>
       <c r="C119" t="n">
-        <v>5360</v>
+        <v>5365</v>
       </c>
       <c r="D119" t="n">
-        <v>5360</v>
+        <v>5365</v>
       </c>
       <c r="E119" t="n">
-        <v>5340</v>
+        <v>5365</v>
       </c>
       <c r="F119" t="n">
-        <v>542.2033</v>
+        <v>0.1726</v>
       </c>
       <c r="G119" t="n">
-        <v>5363.333333333333</v>
+        <v>5323.416666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4624,19 +4606,19 @@
         <v>5345</v>
       </c>
       <c r="C120" t="n">
-        <v>5330</v>
+        <v>5360</v>
       </c>
       <c r="D120" t="n">
-        <v>5345</v>
+        <v>5360</v>
       </c>
       <c r="E120" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="F120" t="n">
-        <v>338.4602</v>
+        <v>542.2033</v>
       </c>
       <c r="G120" t="n">
-        <v>5351.666666666667</v>
+        <v>5324.25</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4656,22 +4638,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5350</v>
+        <v>5345</v>
       </c>
       <c r="C121" t="n">
-        <v>5350</v>
+        <v>5330</v>
       </c>
       <c r="D121" t="n">
-        <v>5350</v>
+        <v>5345</v>
       </c>
       <c r="E121" t="n">
-        <v>5350</v>
+        <v>5330</v>
       </c>
       <c r="F121" t="n">
-        <v>20.2699</v>
+        <v>338.4602</v>
       </c>
       <c r="G121" t="n">
-        <v>5346.666666666667</v>
+        <v>5324.583333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4691,22 +4673,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5370</v>
+        <v>5350</v>
       </c>
       <c r="C122" t="n">
-        <v>5370</v>
+        <v>5350</v>
       </c>
       <c r="D122" t="n">
-        <v>5370</v>
+        <v>5350</v>
       </c>
       <c r="E122" t="n">
-        <v>5370</v>
+        <v>5350</v>
       </c>
       <c r="F122" t="n">
-        <v>98.9329</v>
+        <v>20.2699</v>
       </c>
       <c r="G122" t="n">
-        <v>5350</v>
+        <v>5325.083333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4726,22 +4708,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5345</v>
+        <v>5370</v>
       </c>
       <c r="C123" t="n">
-        <v>5345</v>
+        <v>5370</v>
       </c>
       <c r="D123" t="n">
-        <v>5345</v>
+        <v>5370</v>
       </c>
       <c r="E123" t="n">
-        <v>5345</v>
+        <v>5370</v>
       </c>
       <c r="F123" t="n">
-        <v>25.4822</v>
+        <v>98.9329</v>
       </c>
       <c r="G123" t="n">
-        <v>5355</v>
+        <v>5326.083333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4761,22 +4743,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5340</v>
+        <v>5345</v>
       </c>
       <c r="C124" t="n">
-        <v>5340</v>
+        <v>5345</v>
       </c>
       <c r="D124" t="n">
-        <v>5340</v>
+        <v>5345</v>
       </c>
       <c r="E124" t="n">
-        <v>5340</v>
+        <v>5345</v>
       </c>
       <c r="F124" t="n">
-        <v>3.0824</v>
+        <v>25.4822</v>
       </c>
       <c r="G124" t="n">
-        <v>5351.666666666667</v>
+        <v>5326.75</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4796,22 +4778,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="C125" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="D125" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="E125" t="n">
-        <v>5330</v>
+        <v>5340</v>
       </c>
       <c r="F125" t="n">
-        <v>5.1014</v>
+        <v>3.0824</v>
       </c>
       <c r="G125" t="n">
-        <v>5338.333333333333</v>
+        <v>5327.416666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4831,22 +4813,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="C126" t="n">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="D126" t="n">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="E126" t="n">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="F126" t="n">
-        <v>8.407299999999999</v>
+        <v>5.1014</v>
       </c>
       <c r="G126" t="n">
-        <v>5336.666666666667</v>
+        <v>5328.083333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4869,19 +4851,19 @@
         <v>5340</v>
       </c>
       <c r="C127" t="n">
-        <v>5335</v>
+        <v>5340</v>
       </c>
       <c r="D127" t="n">
         <v>5340</v>
       </c>
       <c r="E127" t="n">
-        <v>5335</v>
+        <v>5340</v>
       </c>
       <c r="F127" t="n">
-        <v>1.7424</v>
+        <v>8.407299999999999</v>
       </c>
       <c r="G127" t="n">
-        <v>5335</v>
+        <v>5328.916666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4901,22 +4883,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5335</v>
+        <v>5340</v>
       </c>
       <c r="C128" t="n">
         <v>5335</v>
       </c>
       <c r="D128" t="n">
-        <v>5335</v>
+        <v>5340</v>
       </c>
       <c r="E128" t="n">
         <v>5335</v>
       </c>
       <c r="F128" t="n">
-        <v>59.0328</v>
+        <v>1.7424</v>
       </c>
       <c r="G128" t="n">
-        <v>5336.666666666667</v>
+        <v>5329.416666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4948,10 +4930,10 @@
         <v>5335</v>
       </c>
       <c r="F129" t="n">
-        <v>15</v>
+        <v>59.0328</v>
       </c>
       <c r="G129" t="n">
-        <v>5335</v>
+        <v>5330.333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4974,19 +4956,19 @@
         <v>5335</v>
       </c>
       <c r="C130" t="n">
-        <v>5330</v>
+        <v>5335</v>
       </c>
       <c r="D130" t="n">
         <v>5335</v>
       </c>
       <c r="E130" t="n">
-        <v>5330</v>
+        <v>5335</v>
       </c>
       <c r="F130" t="n">
-        <v>260.0219</v>
+        <v>15</v>
       </c>
       <c r="G130" t="n">
-        <v>5333.333333333333</v>
+        <v>5331.166666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5006,22 +4988,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5325</v>
+        <v>5335</v>
       </c>
       <c r="C131" t="n">
-        <v>5325</v>
+        <v>5330</v>
       </c>
       <c r="D131" t="n">
-        <v>5325</v>
+        <v>5335</v>
       </c>
       <c r="E131" t="n">
-        <v>5325</v>
+        <v>5330</v>
       </c>
       <c r="F131" t="n">
-        <v>5</v>
+        <v>260.0219</v>
       </c>
       <c r="G131" t="n">
-        <v>5330</v>
+        <v>5331.916666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5053,10 +5035,10 @@
         <v>5325</v>
       </c>
       <c r="F132" t="n">
-        <v>98.6855</v>
+        <v>5</v>
       </c>
       <c r="G132" t="n">
-        <v>5326.666666666667</v>
+        <v>5332.583333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5079,19 +5061,19 @@
         <v>5325</v>
       </c>
       <c r="C133" t="n">
-        <v>5320</v>
+        <v>5325</v>
       </c>
       <c r="D133" t="n">
         <v>5325</v>
       </c>
       <c r="E133" t="n">
-        <v>5320</v>
+        <v>5325</v>
       </c>
       <c r="F133" t="n">
-        <v>17</v>
+        <v>98.6855</v>
       </c>
       <c r="G133" t="n">
-        <v>5323.333333333333</v>
+        <v>5333.416666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5111,22 +5093,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5315</v>
+        <v>5325</v>
       </c>
       <c r="C134" t="n">
-        <v>5315</v>
+        <v>5320</v>
       </c>
       <c r="D134" t="n">
-        <v>5315</v>
+        <v>5325</v>
       </c>
       <c r="E134" t="n">
-        <v>5315</v>
+        <v>5320</v>
       </c>
       <c r="F134" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G134" t="n">
-        <v>5320</v>
+        <v>5334.25</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5146,22 +5128,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5345</v>
+        <v>5315</v>
       </c>
       <c r="C135" t="n">
-        <v>5345</v>
+        <v>5315</v>
       </c>
       <c r="D135" t="n">
-        <v>5345</v>
+        <v>5315</v>
       </c>
       <c r="E135" t="n">
-        <v>5345</v>
+        <v>5315</v>
       </c>
       <c r="F135" t="n">
-        <v>12.2688</v>
+        <v>9</v>
       </c>
       <c r="G135" t="n">
-        <v>5326.666666666667</v>
+        <v>5335.25</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5181,22 +5163,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5330</v>
+        <v>5345</v>
       </c>
       <c r="C136" t="n">
-        <v>5330</v>
+        <v>5345</v>
       </c>
       <c r="D136" t="n">
-        <v>5330</v>
+        <v>5345</v>
       </c>
       <c r="E136" t="n">
-        <v>5330</v>
+        <v>5345</v>
       </c>
       <c r="F136" t="n">
-        <v>56.0861</v>
+        <v>12.2688</v>
       </c>
       <c r="G136" t="n">
-        <v>5330</v>
+        <v>5336.583333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5216,22 +5198,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5345</v>
+        <v>5330</v>
       </c>
       <c r="C137" t="n">
-        <v>5345</v>
+        <v>5330</v>
       </c>
       <c r="D137" t="n">
-        <v>5345</v>
+        <v>5330</v>
       </c>
       <c r="E137" t="n">
-        <v>5345</v>
+        <v>5330</v>
       </c>
       <c r="F137" t="n">
-        <v>71.23220000000001</v>
+        <v>56.0861</v>
       </c>
       <c r="G137" t="n">
-        <v>5340</v>
+        <v>5337.583333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5263,10 +5245,10 @@
         <v>5345</v>
       </c>
       <c r="F138" t="n">
-        <v>1.5864</v>
+        <v>71.23220000000001</v>
       </c>
       <c r="G138" t="n">
-        <v>5340</v>
+        <v>5338.416666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5286,22 +5268,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5350</v>
+        <v>5345</v>
       </c>
       <c r="C139" t="n">
-        <v>5350</v>
+        <v>5345</v>
       </c>
       <c r="D139" t="n">
-        <v>5350</v>
+        <v>5345</v>
       </c>
       <c r="E139" t="n">
-        <v>5350</v>
+        <v>5345</v>
       </c>
       <c r="F139" t="n">
-        <v>365.8113</v>
+        <v>1.5864</v>
       </c>
       <c r="G139" t="n">
-        <v>5346.666666666667</v>
+        <v>5339.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5324,19 +5306,19 @@
         <v>5350</v>
       </c>
       <c r="C140" t="n">
-        <v>5360</v>
+        <v>5350</v>
       </c>
       <c r="D140" t="n">
-        <v>5360</v>
+        <v>5350</v>
       </c>
       <c r="E140" t="n">
         <v>5350</v>
       </c>
       <c r="F140" t="n">
-        <v>443.6184</v>
+        <v>365.8113</v>
       </c>
       <c r="G140" t="n">
-        <v>5351.666666666667</v>
+        <v>5340.416666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5356,7 +5338,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5360</v>
+        <v>5350</v>
       </c>
       <c r="C141" t="n">
         <v>5360</v>
@@ -5365,13 +5347,13 @@
         <v>5360</v>
       </c>
       <c r="E141" t="n">
-        <v>5360</v>
+        <v>5350</v>
       </c>
       <c r="F141" t="n">
-        <v>3</v>
+        <v>443.6184</v>
       </c>
       <c r="G141" t="n">
-        <v>5356.666666666667</v>
+        <v>5341.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5391,22 +5373,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5350</v>
+        <v>5360</v>
       </c>
       <c r="C142" t="n">
-        <v>5350</v>
+        <v>5360</v>
       </c>
       <c r="D142" t="n">
-        <v>5350</v>
+        <v>5360</v>
       </c>
       <c r="E142" t="n">
-        <v>5350</v>
+        <v>5360</v>
       </c>
       <c r="F142" t="n">
-        <v>254.7482</v>
+        <v>3</v>
       </c>
       <c r="G142" t="n">
-        <v>5356.666666666667</v>
+        <v>5342.583333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5438,10 +5420,10 @@
         <v>5350</v>
       </c>
       <c r="F143" t="n">
-        <v>91.8155</v>
+        <v>254.7482</v>
       </c>
       <c r="G143" t="n">
-        <v>5353.333333333333</v>
+        <v>5343.416666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5461,22 +5443,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5360</v>
+        <v>5350</v>
       </c>
       <c r="C144" t="n">
-        <v>5360</v>
+        <v>5350</v>
       </c>
       <c r="D144" t="n">
-        <v>5360</v>
+        <v>5350</v>
       </c>
       <c r="E144" t="n">
-        <v>5360</v>
+        <v>5350</v>
       </c>
       <c r="F144" t="n">
-        <v>4</v>
+        <v>91.8155</v>
       </c>
       <c r="G144" t="n">
-        <v>5353.333333333333</v>
+        <v>5344.25</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5496,22 +5478,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5375</v>
+        <v>5360</v>
       </c>
       <c r="C145" t="n">
-        <v>5380</v>
+        <v>5360</v>
       </c>
       <c r="D145" t="n">
-        <v>5380</v>
+        <v>5360</v>
       </c>
       <c r="E145" t="n">
-        <v>5375</v>
+        <v>5360</v>
       </c>
       <c r="F145" t="n">
-        <v>57.2589</v>
+        <v>4</v>
       </c>
       <c r="G145" t="n">
-        <v>5363.333333333333</v>
+        <v>5345.25</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5531,22 +5513,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5395</v>
+        <v>5375</v>
       </c>
       <c r="C146" t="n">
-        <v>5395</v>
+        <v>5380</v>
       </c>
       <c r="D146" t="n">
-        <v>5395</v>
+        <v>5380</v>
       </c>
       <c r="E146" t="n">
-        <v>5395</v>
+        <v>5375</v>
       </c>
       <c r="F146" t="n">
-        <v>1.0568</v>
+        <v>57.2589</v>
       </c>
       <c r="G146" t="n">
-        <v>5378.333333333333</v>
+        <v>5346.416666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5566,22 +5548,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5400</v>
+        <v>5395</v>
       </c>
       <c r="C147" t="n">
-        <v>5400</v>
+        <v>5395</v>
       </c>
       <c r="D147" t="n">
-        <v>5400</v>
+        <v>5395</v>
       </c>
       <c r="E147" t="n">
-        <v>5400</v>
+        <v>5395</v>
       </c>
       <c r="F147" t="n">
-        <v>14.5481</v>
+        <v>1.0568</v>
       </c>
       <c r="G147" t="n">
-        <v>5391.666666666667</v>
+        <v>5347.833333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5613,10 +5595,10 @@
         <v>5400</v>
       </c>
       <c r="F148" t="n">
-        <v>20.2157</v>
+        <v>14.5481</v>
       </c>
       <c r="G148" t="n">
-        <v>5398.333333333333</v>
+        <v>5349.166666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5636,22 +5618,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5380</v>
+        <v>5400</v>
       </c>
       <c r="C149" t="n">
-        <v>5380</v>
+        <v>5400</v>
       </c>
       <c r="D149" t="n">
-        <v>5380</v>
+        <v>5400</v>
       </c>
       <c r="E149" t="n">
-        <v>5380</v>
+        <v>5400</v>
       </c>
       <c r="F149" t="n">
-        <v>13.5222</v>
+        <v>20.2157</v>
       </c>
       <c r="G149" t="n">
-        <v>5393.333333333333</v>
+        <v>5350.333333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5671,22 +5653,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5390</v>
+        <v>5380</v>
       </c>
       <c r="C150" t="n">
-        <v>5390</v>
+        <v>5380</v>
       </c>
       <c r="D150" t="n">
-        <v>5390</v>
+        <v>5380</v>
       </c>
       <c r="E150" t="n">
-        <v>5390</v>
+        <v>5380</v>
       </c>
       <c r="F150" t="n">
-        <v>13.3766</v>
+        <v>13.5222</v>
       </c>
       <c r="G150" t="n">
-        <v>5390</v>
+        <v>5351</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5706,22 +5688,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5400</v>
+        <v>5390</v>
       </c>
       <c r="C151" t="n">
-        <v>5415</v>
+        <v>5390</v>
       </c>
       <c r="D151" t="n">
-        <v>5415</v>
+        <v>5390</v>
       </c>
       <c r="E151" t="n">
-        <v>5400</v>
+        <v>5390</v>
       </c>
       <c r="F151" t="n">
-        <v>639.1130000000001</v>
+        <v>13.3766</v>
       </c>
       <c r="G151" t="n">
-        <v>5395</v>
+        <v>5352.166666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5741,22 +5723,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5410</v>
+        <v>5400</v>
       </c>
       <c r="C152" t="n">
-        <v>5410</v>
+        <v>5415</v>
       </c>
       <c r="D152" t="n">
-        <v>5410</v>
+        <v>5415</v>
       </c>
       <c r="E152" t="n">
-        <v>5410</v>
+        <v>5400</v>
       </c>
       <c r="F152" t="n">
-        <v>22.1592</v>
+        <v>639.1130000000001</v>
       </c>
       <c r="G152" t="n">
-        <v>5405</v>
+        <v>5353.833333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5779,19 +5761,19 @@
         <v>5410</v>
       </c>
       <c r="C153" t="n">
-        <v>5420</v>
+        <v>5410</v>
       </c>
       <c r="D153" t="n">
-        <v>5420</v>
+        <v>5410</v>
       </c>
       <c r="E153" t="n">
         <v>5410</v>
       </c>
       <c r="F153" t="n">
-        <v>270.905</v>
+        <v>22.1592</v>
       </c>
       <c r="G153" t="n">
-        <v>5415</v>
+        <v>5355.416666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5811,22 +5793,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5405</v>
+        <v>5410</v>
       </c>
       <c r="C154" t="n">
-        <v>5405</v>
+        <v>5420</v>
       </c>
       <c r="D154" t="n">
-        <v>5405</v>
+        <v>5420</v>
       </c>
       <c r="E154" t="n">
-        <v>5405</v>
+        <v>5410</v>
       </c>
       <c r="F154" t="n">
-        <v>22.8504</v>
+        <v>270.905</v>
       </c>
       <c r="G154" t="n">
-        <v>5411.666666666667</v>
+        <v>5357.25</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5846,22 +5828,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5420</v>
+        <v>5405</v>
       </c>
       <c r="C155" t="n">
-        <v>5420</v>
+        <v>5405</v>
       </c>
       <c r="D155" t="n">
-        <v>5420</v>
+        <v>5405</v>
       </c>
       <c r="E155" t="n">
-        <v>5420</v>
+        <v>5405</v>
       </c>
       <c r="F155" t="n">
-        <v>111.9234</v>
+        <v>22.8504</v>
       </c>
       <c r="G155" t="n">
-        <v>5415</v>
+        <v>5358.833333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5893,10 +5875,10 @@
         <v>5420</v>
       </c>
       <c r="F156" t="n">
-        <v>54.1266</v>
+        <v>111.9234</v>
       </c>
       <c r="G156" t="n">
-        <v>5415</v>
+        <v>5360.666666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5916,22 +5898,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5430</v>
+        <v>5420</v>
       </c>
       <c r="C157" t="n">
-        <v>5430</v>
+        <v>5420</v>
       </c>
       <c r="D157" t="n">
-        <v>5430</v>
+        <v>5420</v>
       </c>
       <c r="E157" t="n">
-        <v>5430</v>
+        <v>5420</v>
       </c>
       <c r="F157" t="n">
-        <v>20.2443</v>
+        <v>54.1266</v>
       </c>
       <c r="G157" t="n">
-        <v>5423.333333333333</v>
+        <v>5362.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5963,10 +5945,10 @@
         <v>5430</v>
       </c>
       <c r="F158" t="n">
-        <v>3.24</v>
+        <v>20.2443</v>
       </c>
       <c r="G158" t="n">
-        <v>5426.666666666667</v>
+        <v>5364.666666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5986,22 +5968,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5435</v>
+        <v>5430</v>
       </c>
       <c r="C159" t="n">
-        <v>5435</v>
+        <v>5430</v>
       </c>
       <c r="D159" t="n">
-        <v>5435</v>
+        <v>5430</v>
       </c>
       <c r="E159" t="n">
-        <v>5435</v>
+        <v>5430</v>
       </c>
       <c r="F159" t="n">
-        <v>0.772</v>
+        <v>3.24</v>
       </c>
       <c r="G159" t="n">
-        <v>5431.666666666667</v>
+        <v>5366.583333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6021,28 +6003,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5420</v>
+        <v>5435</v>
       </c>
       <c r="C160" t="n">
-        <v>5420</v>
+        <v>5435</v>
       </c>
       <c r="D160" t="n">
-        <v>5420</v>
+        <v>5435</v>
       </c>
       <c r="E160" t="n">
-        <v>5420</v>
+        <v>5435</v>
       </c>
       <c r="F160" t="n">
-        <v>67.3857</v>
+        <v>0.772</v>
       </c>
       <c r="G160" t="n">
-        <v>5428.333333333333</v>
+        <v>5368.25</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6056,28 +6038,28 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5435</v>
+        <v>5420</v>
       </c>
       <c r="C161" t="n">
-        <v>5435</v>
+        <v>5420</v>
       </c>
       <c r="D161" t="n">
-        <v>5435</v>
+        <v>5420</v>
       </c>
       <c r="E161" t="n">
-        <v>5435</v>
+        <v>5420</v>
       </c>
       <c r="F161" t="n">
-        <v>18.5211</v>
+        <v>67.3857</v>
       </c>
       <c r="G161" t="n">
-        <v>5430</v>
+        <v>5370</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6091,28 +6073,28 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5415</v>
+        <v>5435</v>
       </c>
       <c r="C162" t="n">
-        <v>5415</v>
+        <v>5435</v>
       </c>
       <c r="D162" t="n">
-        <v>5415</v>
+        <v>5435</v>
       </c>
       <c r="E162" t="n">
-        <v>5415</v>
+        <v>5435</v>
       </c>
       <c r="F162" t="n">
-        <v>2</v>
+        <v>18.5211</v>
       </c>
       <c r="G162" t="n">
-        <v>5423.333333333333</v>
+        <v>5372</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6126,28 +6108,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5425</v>
+        <v>5415</v>
       </c>
       <c r="C163" t="n">
-        <v>5425</v>
+        <v>5415</v>
       </c>
       <c r="D163" t="n">
-        <v>5425</v>
+        <v>5415</v>
       </c>
       <c r="E163" t="n">
-        <v>5425</v>
+        <v>5415</v>
       </c>
       <c r="F163" t="n">
-        <v>2.1911</v>
+        <v>2</v>
       </c>
       <c r="G163" t="n">
-        <v>5425</v>
+        <v>5372.833333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6161,28 +6143,28 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5415</v>
+        <v>5425</v>
       </c>
       <c r="C164" t="n">
-        <v>5415</v>
+        <v>5425</v>
       </c>
       <c r="D164" t="n">
-        <v>5415</v>
+        <v>5425</v>
       </c>
       <c r="E164" t="n">
-        <v>5415</v>
+        <v>5425</v>
       </c>
       <c r="F164" t="n">
-        <v>8.082700000000001</v>
+        <v>2.1911</v>
       </c>
       <c r="G164" t="n">
-        <v>5418.333333333333</v>
+        <v>5373.833333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6196,7 +6178,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5405</v>
+        <v>5415</v>
       </c>
       <c r="C165" t="n">
         <v>5415</v>
@@ -6205,13 +6187,13 @@
         <v>5415</v>
       </c>
       <c r="E165" t="n">
-        <v>5405</v>
+        <v>5415</v>
       </c>
       <c r="F165" t="n">
-        <v>25.7</v>
+        <v>8.082700000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>5418.333333333333</v>
+        <v>5374.583333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6231,22 +6213,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5390</v>
+        <v>5405</v>
       </c>
       <c r="C166" t="n">
-        <v>5390</v>
+        <v>5415</v>
       </c>
       <c r="D166" t="n">
-        <v>5390</v>
+        <v>5415</v>
       </c>
       <c r="E166" t="n">
-        <v>5390</v>
+        <v>5405</v>
       </c>
       <c r="F166" t="n">
-        <v>69.937</v>
+        <v>25.7</v>
       </c>
       <c r="G166" t="n">
-        <v>5406.666666666667</v>
+        <v>5375.333333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6266,22 +6248,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5400</v>
+        <v>5390</v>
       </c>
       <c r="C167" t="n">
-        <v>5385</v>
+        <v>5390</v>
       </c>
       <c r="D167" t="n">
-        <v>5400</v>
+        <v>5390</v>
       </c>
       <c r="E167" t="n">
-        <v>5385</v>
+        <v>5390</v>
       </c>
       <c r="F167" t="n">
-        <v>42.2542</v>
+        <v>69.937</v>
       </c>
       <c r="G167" t="n">
-        <v>5396.666666666667</v>
+        <v>5375.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6301,22 +6283,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5380</v>
+        <v>5400</v>
       </c>
       <c r="C168" t="n">
-        <v>5380</v>
+        <v>5385</v>
       </c>
       <c r="D168" t="n">
-        <v>5380</v>
+        <v>5400</v>
       </c>
       <c r="E168" t="n">
-        <v>5380</v>
+        <v>5385</v>
       </c>
       <c r="F168" t="n">
-        <v>3</v>
+        <v>42.2542</v>
       </c>
       <c r="G168" t="n">
-        <v>5385</v>
+        <v>5375.25</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6336,22 +6318,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5390</v>
+        <v>5380</v>
       </c>
       <c r="C169" t="n">
-        <v>5390</v>
+        <v>5380</v>
       </c>
       <c r="D169" t="n">
-        <v>5390</v>
+        <v>5380</v>
       </c>
       <c r="E169" t="n">
-        <v>5390</v>
+        <v>5380</v>
       </c>
       <c r="F169" t="n">
-        <v>65.68000000000001</v>
+        <v>3</v>
       </c>
       <c r="G169" t="n">
-        <v>5385</v>
+        <v>5375</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6383,10 +6365,10 @@
         <v>5390</v>
       </c>
       <c r="F170" t="n">
-        <v>16.2187</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="G170" t="n">
-        <v>5386.666666666667</v>
+        <v>5374.916666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6406,22 +6388,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5385</v>
+        <v>5390</v>
       </c>
       <c r="C171" t="n">
-        <v>5385</v>
+        <v>5390</v>
       </c>
       <c r="D171" t="n">
-        <v>5385</v>
+        <v>5390</v>
       </c>
       <c r="E171" t="n">
-        <v>5385</v>
+        <v>5390</v>
       </c>
       <c r="F171" t="n">
-        <v>6.2167</v>
+        <v>16.2187</v>
       </c>
       <c r="G171" t="n">
-        <v>5388.333333333333</v>
+        <v>5374.833333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6453,10 +6435,10 @@
         <v>5385</v>
       </c>
       <c r="F172" t="n">
-        <v>87.2607</v>
+        <v>6.2167</v>
       </c>
       <c r="G172" t="n">
-        <v>5386.666666666667</v>
+        <v>5374.666666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6476,22 +6458,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5400</v>
+        <v>5385</v>
       </c>
       <c r="C173" t="n">
-        <v>5400</v>
+        <v>5385</v>
       </c>
       <c r="D173" t="n">
-        <v>5400</v>
+        <v>5385</v>
       </c>
       <c r="E173" t="n">
-        <v>5400</v>
+        <v>5385</v>
       </c>
       <c r="F173" t="n">
-        <v>69.8032</v>
+        <v>87.2607</v>
       </c>
       <c r="G173" t="n">
-        <v>5390</v>
+        <v>5374.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6511,22 +6493,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5405</v>
+        <v>5400</v>
       </c>
       <c r="C174" t="n">
         <v>5400</v>
       </c>
       <c r="D174" t="n">
-        <v>5405</v>
+        <v>5400</v>
       </c>
       <c r="E174" t="n">
         <v>5400</v>
       </c>
       <c r="F174" t="n">
-        <v>176.6046</v>
+        <v>69.8032</v>
       </c>
       <c r="G174" t="n">
-        <v>5395</v>
+        <v>5374.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6546,22 +6528,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5420</v>
+        <v>5405</v>
       </c>
       <c r="C175" t="n">
-        <v>5415</v>
+        <v>5400</v>
       </c>
       <c r="D175" t="n">
-        <v>5420</v>
+        <v>5405</v>
       </c>
       <c r="E175" t="n">
-        <v>5415</v>
+        <v>5400</v>
       </c>
       <c r="F175" t="n">
-        <v>212.6352</v>
+        <v>176.6046</v>
       </c>
       <c r="G175" t="n">
-        <v>5405</v>
+        <v>5374.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6581,22 +6563,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5425</v>
+        <v>5420</v>
       </c>
       <c r="C176" t="n">
-        <v>5425</v>
+        <v>5415</v>
       </c>
       <c r="D176" t="n">
-        <v>5425</v>
+        <v>5420</v>
       </c>
       <c r="E176" t="n">
-        <v>5425</v>
+        <v>5415</v>
       </c>
       <c r="F176" t="n">
-        <v>54.7139</v>
+        <v>212.6352</v>
       </c>
       <c r="G176" t="n">
-        <v>5413.333333333333</v>
+        <v>5375.583333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6619,19 +6601,19 @@
         <v>5425</v>
       </c>
       <c r="C177" t="n">
-        <v>5420</v>
+        <v>5425</v>
       </c>
       <c r="D177" t="n">
         <v>5425</v>
       </c>
       <c r="E177" t="n">
-        <v>5420</v>
+        <v>5425</v>
       </c>
       <c r="F177" t="n">
-        <v>31.8844</v>
+        <v>54.7139</v>
       </c>
       <c r="G177" t="n">
-        <v>5420</v>
+        <v>5376.833333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6651,22 +6633,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5420</v>
+        <v>5425</v>
       </c>
       <c r="C178" t="n">
         <v>5420</v>
       </c>
       <c r="D178" t="n">
-        <v>5420</v>
+        <v>5425</v>
       </c>
       <c r="E178" t="n">
         <v>5420</v>
       </c>
       <c r="F178" t="n">
-        <v>521.0212</v>
+        <v>31.8844</v>
       </c>
       <c r="G178" t="n">
-        <v>5421.666666666667</v>
+        <v>5377.75</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6686,22 +6668,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5425</v>
+        <v>5420</v>
       </c>
       <c r="C179" t="n">
-        <v>5425</v>
+        <v>5420</v>
       </c>
       <c r="D179" t="n">
-        <v>5425</v>
+        <v>5420</v>
       </c>
       <c r="E179" t="n">
-        <v>5425</v>
+        <v>5420</v>
       </c>
       <c r="F179" t="n">
-        <v>101</v>
+        <v>521.0212</v>
       </c>
       <c r="G179" t="n">
-        <v>5421.666666666667</v>
+        <v>5378.666666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6721,22 +6703,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5420</v>
+        <v>5425</v>
       </c>
       <c r="C180" t="n">
-        <v>5420</v>
+        <v>5425</v>
       </c>
       <c r="D180" t="n">
-        <v>5420</v>
+        <v>5425</v>
       </c>
       <c r="E180" t="n">
-        <v>5420</v>
+        <v>5425</v>
       </c>
       <c r="F180" t="n">
-        <v>401.261</v>
+        <v>101</v>
       </c>
       <c r="G180" t="n">
-        <v>5421.666666666667</v>
+        <v>5379.75</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6756,22 +6738,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5415</v>
+        <v>5420</v>
       </c>
       <c r="C181" t="n">
-        <v>5425</v>
+        <v>5420</v>
       </c>
       <c r="D181" t="n">
-        <v>5425</v>
+        <v>5420</v>
       </c>
       <c r="E181" t="n">
-        <v>5415</v>
+        <v>5420</v>
       </c>
       <c r="F181" t="n">
-        <v>65.8404</v>
+        <v>401.261</v>
       </c>
       <c r="G181" t="n">
-        <v>5423.333333333333</v>
+        <v>5381.25</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6791,7 +6773,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5425</v>
+        <v>5415</v>
       </c>
       <c r="C182" t="n">
         <v>5425</v>
@@ -6800,13 +6782,13 @@
         <v>5425</v>
       </c>
       <c r="E182" t="n">
-        <v>5425</v>
+        <v>5415</v>
       </c>
       <c r="F182" t="n">
-        <v>0.1396</v>
+        <v>65.8404</v>
       </c>
       <c r="G182" t="n">
-        <v>5423.333333333333</v>
+        <v>5382.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6829,19 +6811,19 @@
         <v>5425</v>
       </c>
       <c r="C183" t="n">
-        <v>5430</v>
+        <v>5425</v>
       </c>
       <c r="D183" t="n">
-        <v>5430</v>
+        <v>5425</v>
       </c>
       <c r="E183" t="n">
         <v>5425</v>
       </c>
       <c r="F183" t="n">
-        <v>103.1599</v>
+        <v>0.1396</v>
       </c>
       <c r="G183" t="n">
-        <v>5426.666666666667</v>
+        <v>5383.416666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6861,22 +6843,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5415</v>
+        <v>5425</v>
       </c>
       <c r="C184" t="n">
-        <v>5410</v>
+        <v>5430</v>
       </c>
       <c r="D184" t="n">
-        <v>5415</v>
+        <v>5430</v>
       </c>
       <c r="E184" t="n">
-        <v>5410</v>
+        <v>5425</v>
       </c>
       <c r="F184" t="n">
-        <v>160</v>
+        <v>103.1599</v>
       </c>
       <c r="G184" t="n">
-        <v>5421.666666666667</v>
+        <v>5384.833333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6896,22 +6878,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5425</v>
+        <v>5415</v>
       </c>
       <c r="C185" t="n">
-        <v>5425</v>
+        <v>5410</v>
       </c>
       <c r="D185" t="n">
-        <v>5425</v>
+        <v>5415</v>
       </c>
       <c r="E185" t="n">
-        <v>5425</v>
+        <v>5410</v>
       </c>
       <c r="F185" t="n">
-        <v>83.6371</v>
+        <v>160</v>
       </c>
       <c r="G185" t="n">
-        <v>5421.666666666667</v>
+        <v>5386</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6934,19 +6916,19 @@
         <v>5425</v>
       </c>
       <c r="C186" t="n">
-        <v>5430</v>
+        <v>5425</v>
       </c>
       <c r="D186" t="n">
-        <v>5430</v>
+        <v>5425</v>
       </c>
       <c r="E186" t="n">
         <v>5425</v>
       </c>
       <c r="F186" t="n">
-        <v>1206.8309</v>
+        <v>83.6371</v>
       </c>
       <c r="G186" t="n">
-        <v>5421.666666666667</v>
+        <v>5387.583333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6966,22 +6948,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5420</v>
+        <v>5425</v>
       </c>
       <c r="C187" t="n">
-        <v>5420</v>
+        <v>5430</v>
       </c>
       <c r="D187" t="n">
-        <v>5435</v>
+        <v>5430</v>
       </c>
       <c r="E187" t="n">
-        <v>5420</v>
+        <v>5425</v>
       </c>
       <c r="F187" t="n">
-        <v>303.9124</v>
+        <v>1206.8309</v>
       </c>
       <c r="G187" t="n">
-        <v>5425</v>
+        <v>5389.083333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7013,10 +6995,10 @@
         <v>5420</v>
       </c>
       <c r="F188" t="n">
-        <v>224.7949</v>
+        <v>303.9124</v>
       </c>
       <c r="G188" t="n">
-        <v>5423.333333333333</v>
+        <v>5390.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7036,22 +7018,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>5420</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5420</v>
+      </c>
+      <c r="D189" t="n">
         <v>5435</v>
-      </c>
-      <c r="C189" t="n">
-        <v>5425</v>
-      </c>
-      <c r="D189" t="n">
-        <v>5440</v>
       </c>
       <c r="E189" t="n">
         <v>5420</v>
       </c>
       <c r="F189" t="n">
-        <v>1826.5839</v>
+        <v>224.7949</v>
       </c>
       <c r="G189" t="n">
-        <v>5421.666666666667</v>
+        <v>5391.916666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7071,22 +7053,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5430</v>
+        <v>5435</v>
       </c>
       <c r="C190" t="n">
-        <v>5435</v>
+        <v>5425</v>
       </c>
       <c r="D190" t="n">
         <v>5440</v>
       </c>
       <c r="E190" t="n">
-        <v>5430</v>
+        <v>5420</v>
       </c>
       <c r="F190" t="n">
-        <v>365.5412</v>
+        <v>1826.5839</v>
       </c>
       <c r="G190" t="n">
-        <v>5426.666666666667</v>
+        <v>5393.416666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7112,16 +7094,16 @@
         <v>5435</v>
       </c>
       <c r="D191" t="n">
-        <v>5450</v>
+        <v>5440</v>
       </c>
       <c r="E191" t="n">
         <v>5430</v>
       </c>
       <c r="F191" t="n">
-        <v>249.2146</v>
+        <v>365.5412</v>
       </c>
       <c r="G191" t="n">
-        <v>5431.666666666667</v>
+        <v>5395.166666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7141,22 +7123,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5445</v>
+        <v>5430</v>
       </c>
       <c r="C192" t="n">
-        <v>5460</v>
+        <v>5435</v>
       </c>
       <c r="D192" t="n">
-        <v>5460</v>
+        <v>5450</v>
       </c>
       <c r="E192" t="n">
-        <v>5435</v>
+        <v>5430</v>
       </c>
       <c r="F192" t="n">
-        <v>1861.7689</v>
+        <v>249.2146</v>
       </c>
       <c r="G192" t="n">
-        <v>5443.333333333333</v>
+        <v>5397</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7176,22 +7158,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>5445</v>
+      </c>
+      <c r="C193" t="n">
         <v>5460</v>
       </c>
-      <c r="C193" t="n">
-        <v>5445</v>
-      </c>
       <c r="D193" t="n">
-        <v>5465</v>
+        <v>5460</v>
       </c>
       <c r="E193" t="n">
-        <v>5445</v>
+        <v>5435</v>
       </c>
       <c r="F193" t="n">
-        <v>711.072</v>
+        <v>1861.7689</v>
       </c>
       <c r="G193" t="n">
-        <v>5446.666666666667</v>
+        <v>5399.25</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7211,22 +7193,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5450</v>
+        <v>5460</v>
       </c>
       <c r="C194" t="n">
-        <v>5455</v>
+        <v>5445</v>
       </c>
       <c r="D194" t="n">
-        <v>5460</v>
+        <v>5465</v>
       </c>
       <c r="E194" t="n">
-        <v>5440</v>
+        <v>5445</v>
       </c>
       <c r="F194" t="n">
-        <v>1148.3505</v>
+        <v>711.072</v>
       </c>
       <c r="G194" t="n">
-        <v>5453.333333333333</v>
+        <v>5401.333333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7246,22 +7228,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>5450</v>
+      </c>
+      <c r="C195" t="n">
         <v>5455</v>
       </c>
-      <c r="C195" t="n">
-        <v>5440</v>
-      </c>
       <c r="D195" t="n">
-        <v>5455</v>
+        <v>5460</v>
       </c>
       <c r="E195" t="n">
         <v>5440</v>
       </c>
       <c r="F195" t="n">
-        <v>716.0921</v>
+        <v>1148.3505</v>
       </c>
       <c r="G195" t="n">
-        <v>5446.666666666667</v>
+        <v>5403.666666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7281,22 +7263,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5445</v>
+        <v>5455</v>
       </c>
       <c r="C196" t="n">
         <v>5440</v>
       </c>
       <c r="D196" t="n">
-        <v>5460</v>
+        <v>5455</v>
       </c>
       <c r="E196" t="n">
         <v>5440</v>
       </c>
       <c r="F196" t="n">
-        <v>1089.7531</v>
+        <v>716.0921</v>
       </c>
       <c r="G196" t="n">
-        <v>5445</v>
+        <v>5405.25</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7316,22 +7298,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>5455</v>
+        <v>5445</v>
       </c>
       <c r="C197" t="n">
-        <v>5445</v>
+        <v>5440</v>
       </c>
       <c r="D197" t="n">
-        <v>5455</v>
+        <v>5460</v>
       </c>
       <c r="E197" t="n">
-        <v>5445</v>
+        <v>5440</v>
       </c>
       <c r="F197" t="n">
-        <v>235.9151</v>
+        <v>1089.7531</v>
       </c>
       <c r="G197" t="n">
-        <v>5441.666666666667</v>
+        <v>5407.083333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7351,22 +7333,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>5455</v>
+      </c>
+      <c r="C198" t="n">
         <v>5445</v>
-      </c>
-      <c r="C198" t="n">
-        <v>5455</v>
       </c>
       <c r="D198" t="n">
         <v>5455</v>
       </c>
       <c r="E198" t="n">
-        <v>5440</v>
+        <v>5445</v>
       </c>
       <c r="F198" t="n">
-        <v>1554.8743</v>
+        <v>235.9151</v>
       </c>
       <c r="G198" t="n">
-        <v>5446.666666666667</v>
+        <v>5408.75</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7386,22 +7368,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>5460</v>
+        <v>5445</v>
       </c>
       <c r="C199" t="n">
-        <v>5460</v>
+        <v>5455</v>
       </c>
       <c r="D199" t="n">
-        <v>5460</v>
+        <v>5455</v>
       </c>
       <c r="E199" t="n">
-        <v>5460</v>
+        <v>5440</v>
       </c>
       <c r="F199" t="n">
-        <v>202.9</v>
+        <v>1554.8743</v>
       </c>
       <c r="G199" t="n">
-        <v>5453.333333333333</v>
+        <v>5410.583333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7424,19 +7406,19 @@
         <v>5460</v>
       </c>
       <c r="C200" t="n">
-        <v>5465</v>
+        <v>5460</v>
       </c>
       <c r="D200" t="n">
-        <v>5465</v>
+        <v>5460</v>
       </c>
       <c r="E200" t="n">
         <v>5460</v>
       </c>
       <c r="F200" t="n">
-        <v>1309.4463</v>
+        <v>202.9</v>
       </c>
       <c r="G200" t="n">
-        <v>5460</v>
+        <v>5412.416666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7468,10 +7450,10 @@
         <v>5460</v>
       </c>
       <c r="F201" t="n">
-        <v>1506.8958</v>
+        <v>1309.4463</v>
       </c>
       <c r="G201" t="n">
-        <v>5463.333333333333</v>
+        <v>5414.166666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7491,22 +7473,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5450</v>
+        <v>5460</v>
       </c>
       <c r="C202" t="n">
+        <v>5465</v>
+      </c>
+      <c r="D202" t="n">
+        <v>5465</v>
+      </c>
+      <c r="E202" t="n">
         <v>5460</v>
       </c>
-      <c r="D202" t="n">
-        <v>5475</v>
-      </c>
-      <c r="E202" t="n">
-        <v>5450</v>
-      </c>
       <c r="F202" t="n">
-        <v>2988.7337</v>
+        <v>1506.8958</v>
       </c>
       <c r="G202" t="n">
-        <v>5463.333333333333</v>
+        <v>5415.916666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7526,22 +7508,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
+        <v>5450</v>
+      </c>
+      <c r="C203" t="n">
         <v>5460</v>
       </c>
-      <c r="C203" t="n">
-        <v>5470</v>
-      </c>
       <c r="D203" t="n">
-        <v>5470</v>
+        <v>5475</v>
       </c>
       <c r="E203" t="n">
-        <v>5460</v>
+        <v>5450</v>
       </c>
       <c r="F203" t="n">
-        <v>344.9489</v>
+        <v>2988.7337</v>
       </c>
       <c r="G203" t="n">
-        <v>5465</v>
+        <v>5417.75</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7564,25 +7546,25 @@
         <v>5460</v>
       </c>
       <c r="C204" t="n">
-        <v>5480</v>
+        <v>5470</v>
       </c>
       <c r="D204" t="n">
-        <v>5480</v>
+        <v>5470</v>
       </c>
       <c r="E204" t="n">
         <v>5460</v>
       </c>
       <c r="F204" t="n">
-        <v>4012.6606</v>
+        <v>344.9489</v>
       </c>
       <c r="G204" t="n">
-        <v>5470</v>
+        <v>5419.75</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
@@ -7596,22 +7578,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5470</v>
+        <v>5460</v>
       </c>
       <c r="C205" t="n">
-        <v>5470</v>
+        <v>5480</v>
       </c>
       <c r="D205" t="n">
         <v>5480</v>
       </c>
       <c r="E205" t="n">
-        <v>5470</v>
+        <v>5460</v>
       </c>
       <c r="F205" t="n">
-        <v>1421.3506</v>
+        <v>4012.6606</v>
       </c>
       <c r="G205" t="n">
-        <v>5473.333333333333</v>
+        <v>5421.75</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7631,28 +7613,28 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>5485</v>
+        <v>5470</v>
       </c>
       <c r="C206" t="n">
-        <v>5495</v>
+        <v>5470</v>
       </c>
       <c r="D206" t="n">
-        <v>5495</v>
+        <v>5480</v>
       </c>
       <c r="E206" t="n">
         <v>5470</v>
       </c>
       <c r="F206" t="n">
-        <v>893.7166</v>
+        <v>1421.3506</v>
       </c>
       <c r="G206" t="n">
-        <v>5481.666666666667</v>
+        <v>5423.25</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
@@ -7666,22 +7648,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
+        <v>5485</v>
+      </c>
+      <c r="C207" t="n">
         <v>5495</v>
       </c>
-      <c r="C207" t="n">
-        <v>5480</v>
-      </c>
       <c r="D207" t="n">
-        <v>5510</v>
+        <v>5495</v>
       </c>
       <c r="E207" t="n">
-        <v>5480</v>
+        <v>5470</v>
       </c>
       <c r="F207" t="n">
-        <v>2646.163</v>
+        <v>893.7166</v>
       </c>
       <c r="G207" t="n">
-        <v>5481.666666666667</v>
+        <v>5424.916666666667</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7701,22 +7683,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
+        <v>5495</v>
+      </c>
+      <c r="C208" t="n">
         <v>5480</v>
       </c>
-      <c r="C208" t="n">
-        <v>5490</v>
-      </c>
       <c r="D208" t="n">
-        <v>5495</v>
+        <v>5510</v>
       </c>
       <c r="E208" t="n">
-        <v>5475</v>
+        <v>5480</v>
       </c>
       <c r="F208" t="n">
-        <v>964.1518</v>
+        <v>2646.163</v>
       </c>
       <c r="G208" t="n">
-        <v>5488.333333333333</v>
+        <v>5426.25</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7739,19 +7721,19 @@
         <v>5480</v>
       </c>
       <c r="C209" t="n">
-        <v>5475</v>
+        <v>5490</v>
       </c>
       <c r="D209" t="n">
-        <v>5480</v>
+        <v>5495</v>
       </c>
       <c r="E209" t="n">
         <v>5475</v>
       </c>
       <c r="F209" t="n">
-        <v>1319.8465</v>
+        <v>964.1518</v>
       </c>
       <c r="G209" t="n">
-        <v>5481.666666666667</v>
+        <v>5427.75</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7771,22 +7753,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>5485</v>
+        <v>5480</v>
       </c>
       <c r="C210" t="n">
+        <v>5475</v>
+      </c>
+      <c r="D210" t="n">
         <v>5480</v>
       </c>
-      <c r="D210" t="n">
-        <v>5495</v>
-      </c>
       <c r="E210" t="n">
-        <v>5480</v>
+        <v>5475</v>
       </c>
       <c r="F210" t="n">
-        <v>165.3344</v>
+        <v>1319.8465</v>
       </c>
       <c r="G210" t="n">
-        <v>5481.666666666667</v>
+        <v>5429.333333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7806,7 +7788,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>5495</v>
+        <v>5485</v>
       </c>
       <c r="C211" t="n">
         <v>5480</v>
@@ -7818,10 +7800,10 @@
         <v>5480</v>
       </c>
       <c r="F211" t="n">
-        <v>4.7446</v>
+        <v>165.3344</v>
       </c>
       <c r="G211" t="n">
-        <v>5478.333333333333</v>
+        <v>5430.833333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7841,22 +7823,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>5495</v>
+      </c>
+      <c r="C212" t="n">
         <v>5480</v>
       </c>
-      <c r="C212" t="n">
-        <v>5485</v>
-      </c>
       <c r="D212" t="n">
-        <v>5485</v>
+        <v>5495</v>
       </c>
       <c r="E212" t="n">
         <v>5480</v>
       </c>
       <c r="F212" t="n">
-        <v>301.8251</v>
+        <v>4.7446</v>
       </c>
       <c r="G212" t="n">
-        <v>5481.666666666667</v>
+        <v>5431.916666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7876,7 +7858,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>5485</v>
+        <v>5480</v>
       </c>
       <c r="C213" t="n">
         <v>5485</v>
@@ -7885,13 +7867,13 @@
         <v>5485</v>
       </c>
       <c r="E213" t="n">
-        <v>5485</v>
+        <v>5480</v>
       </c>
       <c r="F213" t="n">
-        <v>7.3384</v>
+        <v>301.8251</v>
       </c>
       <c r="G213" t="n">
-        <v>5483.333333333333</v>
+        <v>5433.166666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7911,22 +7893,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>5495</v>
+        <v>5485</v>
       </c>
       <c r="C214" t="n">
-        <v>5495</v>
+        <v>5485</v>
       </c>
       <c r="D214" t="n">
-        <v>5495</v>
+        <v>5485</v>
       </c>
       <c r="E214" t="n">
-        <v>5495</v>
+        <v>5485</v>
       </c>
       <c r="F214" t="n">
-        <v>421.7991</v>
+        <v>7.3384</v>
       </c>
       <c r="G214" t="n">
-        <v>5488.333333333333</v>
+        <v>5434.25</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7946,22 +7928,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5500</v>
+        <v>5495</v>
       </c>
       <c r="C215" t="n">
-        <v>5500</v>
+        <v>5495</v>
       </c>
       <c r="D215" t="n">
-        <v>5500</v>
+        <v>5495</v>
       </c>
       <c r="E215" t="n">
-        <v>5500</v>
+        <v>5495</v>
       </c>
       <c r="F215" t="n">
-        <v>600.5982</v>
+        <v>421.7991</v>
       </c>
       <c r="G215" t="n">
-        <v>5493.333333333333</v>
+        <v>5435.75</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7990,13 +7972,13 @@
         <v>5500</v>
       </c>
       <c r="E216" t="n">
-        <v>5490</v>
+        <v>5500</v>
       </c>
       <c r="F216" t="n">
-        <v>1162.6211</v>
+        <v>600.5982</v>
       </c>
       <c r="G216" t="n">
-        <v>5498.333333333333</v>
+        <v>5437.083333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8019,19 +8001,19 @@
         <v>5500</v>
       </c>
       <c r="C217" t="n">
-        <v>5505</v>
+        <v>5500</v>
       </c>
       <c r="D217" t="n">
-        <v>5505</v>
+        <v>5500</v>
       </c>
       <c r="E217" t="n">
-        <v>5495</v>
+        <v>5490</v>
       </c>
       <c r="F217" t="n">
-        <v>1201.8507</v>
+        <v>1162.6211</v>
       </c>
       <c r="G217" t="n">
-        <v>5501.666666666667</v>
+        <v>5438.416666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8051,22 +8033,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
+        <v>5500</v>
+      </c>
+      <c r="C218" t="n">
         <v>5505</v>
       </c>
-      <c r="C218" t="n">
-        <v>5515</v>
-      </c>
       <c r="D218" t="n">
-        <v>5515</v>
+        <v>5505</v>
       </c>
       <c r="E218" t="n">
-        <v>5505</v>
+        <v>5495</v>
       </c>
       <c r="F218" t="n">
-        <v>869.1518</v>
+        <v>1201.8507</v>
       </c>
       <c r="G218" t="n">
-        <v>5506.666666666667</v>
+        <v>5439.666666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8086,7 +8068,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>5515</v>
+        <v>5505</v>
       </c>
       <c r="C219" t="n">
         <v>5515</v>
@@ -8095,13 +8077,13 @@
         <v>5515</v>
       </c>
       <c r="E219" t="n">
-        <v>5515</v>
+        <v>5505</v>
       </c>
       <c r="F219" t="n">
-        <v>12.8056</v>
+        <v>869.1518</v>
       </c>
       <c r="G219" t="n">
-        <v>5511.666666666667</v>
+        <v>5441.083333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8124,19 +8106,19 @@
         <v>5515</v>
       </c>
       <c r="C220" t="n">
-        <v>5520</v>
+        <v>5515</v>
       </c>
       <c r="D220" t="n">
-        <v>5520</v>
+        <v>5515</v>
       </c>
       <c r="E220" t="n">
         <v>5515</v>
       </c>
       <c r="F220" t="n">
-        <v>333.239</v>
+        <v>12.8056</v>
       </c>
       <c r="G220" t="n">
-        <v>5516.666666666667</v>
+        <v>5442.416666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8156,22 +8138,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
+        <v>5515</v>
+      </c>
+      <c r="C221" t="n">
         <v>5520</v>
       </c>
-      <c r="C221" t="n">
-        <v>5535</v>
-      </c>
       <c r="D221" t="n">
-        <v>5535</v>
+        <v>5520</v>
       </c>
       <c r="E221" t="n">
         <v>5515</v>
       </c>
       <c r="F221" t="n">
-        <v>1438.6647</v>
+        <v>333.239</v>
       </c>
       <c r="G221" t="n">
-        <v>5523.333333333333</v>
+        <v>5444.083333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8191,22 +8173,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>5530</v>
+        <v>5520</v>
       </c>
       <c r="C222" t="n">
-        <v>5530</v>
+        <v>5535</v>
       </c>
       <c r="D222" t="n">
-        <v>5530</v>
+        <v>5535</v>
       </c>
       <c r="E222" t="n">
-        <v>5530</v>
+        <v>5515</v>
       </c>
       <c r="F222" t="n">
-        <v>7.6304</v>
+        <v>1438.6647</v>
       </c>
       <c r="G222" t="n">
-        <v>5528.333333333333</v>
+        <v>5445.75</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8226,28 +8208,28 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>5515</v>
+        <v>5530</v>
       </c>
       <c r="C223" t="n">
-        <v>5500</v>
+        <v>5530</v>
       </c>
       <c r="D223" t="n">
-        <v>5515</v>
+        <v>5530</v>
       </c>
       <c r="E223" t="n">
-        <v>5500</v>
+        <v>5530</v>
       </c>
       <c r="F223" t="n">
-        <v>674.4228000000001</v>
+        <v>7.6304</v>
       </c>
       <c r="G223" t="n">
-        <v>5521.666666666667</v>
+        <v>5447.666666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
@@ -8261,22 +8243,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>5500</v>
+        <v>5515</v>
       </c>
       <c r="C224" t="n">
         <v>5500</v>
       </c>
       <c r="D224" t="n">
-        <v>5505</v>
+        <v>5515</v>
       </c>
       <c r="E224" t="n">
         <v>5500</v>
       </c>
       <c r="F224" t="n">
-        <v>459.9784</v>
+        <v>674.4228000000001</v>
       </c>
       <c r="G224" t="n">
-        <v>5510</v>
+        <v>5448.916666666667</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8302,16 +8284,16 @@
         <v>5500</v>
       </c>
       <c r="D225" t="n">
-        <v>5500</v>
+        <v>5505</v>
       </c>
       <c r="E225" t="n">
         <v>5500</v>
       </c>
       <c r="F225" t="n">
-        <v>359.465</v>
+        <v>459.9784</v>
       </c>
       <c r="G225" t="n">
-        <v>5500</v>
+        <v>5450.333333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8331,22 +8313,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>5490</v>
+        <v>5500</v>
       </c>
       <c r="C226" t="n">
-        <v>5505</v>
+        <v>5500</v>
       </c>
       <c r="D226" t="n">
-        <v>5505</v>
+        <v>5500</v>
       </c>
       <c r="E226" t="n">
-        <v>5490</v>
+        <v>5500</v>
       </c>
       <c r="F226" t="n">
-        <v>6.7027</v>
+        <v>359.465</v>
       </c>
       <c r="G226" t="n">
-        <v>5501.666666666667</v>
+        <v>5451.75</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8366,7 +8348,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>5505</v>
+        <v>5490</v>
       </c>
       <c r="C227" t="n">
         <v>5505</v>
@@ -8375,13 +8357,13 @@
         <v>5505</v>
       </c>
       <c r="E227" t="n">
-        <v>5505</v>
+        <v>5490</v>
       </c>
       <c r="F227" t="n">
-        <v>27.7116</v>
+        <v>6.7027</v>
       </c>
       <c r="G227" t="n">
-        <v>5503.333333333333</v>
+        <v>5453.666666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8401,22 +8383,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>5510</v>
+        <v>5505</v>
       </c>
       <c r="C228" t="n">
-        <v>5520</v>
+        <v>5505</v>
       </c>
       <c r="D228" t="n">
-        <v>5520</v>
+        <v>5505</v>
       </c>
       <c r="E228" t="n">
-        <v>5510</v>
+        <v>5505</v>
       </c>
       <c r="F228" t="n">
-        <v>130.4592</v>
+        <v>27.7116</v>
       </c>
       <c r="G228" t="n">
-        <v>5510</v>
+        <v>5455.666666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8436,7 +8418,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>5520</v>
+        <v>5510</v>
       </c>
       <c r="C229" t="n">
         <v>5520</v>
@@ -8445,13 +8427,13 @@
         <v>5520</v>
       </c>
       <c r="E229" t="n">
-        <v>5520</v>
+        <v>5510</v>
       </c>
       <c r="F229" t="n">
-        <v>20.4146</v>
+        <v>130.4592</v>
       </c>
       <c r="G229" t="n">
-        <v>5515</v>
+        <v>5458</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8483,10 +8465,10 @@
         <v>5520</v>
       </c>
       <c r="F230" t="n">
-        <v>100.5314</v>
+        <v>20.4146</v>
       </c>
       <c r="G230" t="n">
-        <v>5520</v>
+        <v>5460.166666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8509,19 +8491,19 @@
         <v>5520</v>
       </c>
       <c r="C231" t="n">
-        <v>5530</v>
+        <v>5520</v>
       </c>
       <c r="D231" t="n">
-        <v>5530</v>
+        <v>5520</v>
       </c>
       <c r="E231" t="n">
         <v>5520</v>
       </c>
       <c r="F231" t="n">
-        <v>426.332</v>
+        <v>100.5314</v>
       </c>
       <c r="G231" t="n">
-        <v>5523.333333333333</v>
+        <v>5462.333333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8541,22 +8523,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
+        <v>5520</v>
+      </c>
+      <c r="C232" t="n">
         <v>5530</v>
       </c>
-      <c r="C232" t="n">
-        <v>5540</v>
-      </c>
       <c r="D232" t="n">
-        <v>5540</v>
+        <v>5530</v>
       </c>
       <c r="E232" t="n">
-        <v>5530</v>
+        <v>5520</v>
       </c>
       <c r="F232" t="n">
-        <v>186.1809</v>
+        <v>426.332</v>
       </c>
       <c r="G232" t="n">
-        <v>5530</v>
+        <v>5464.75</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8576,22 +8558,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
+        <v>5530</v>
+      </c>
+      <c r="C233" t="n">
         <v>5540</v>
       </c>
-      <c r="C233" t="n">
-        <v>5545</v>
-      </c>
       <c r="D233" t="n">
-        <v>5545</v>
+        <v>5540</v>
       </c>
       <c r="E233" t="n">
-        <v>5540</v>
+        <v>5530</v>
       </c>
       <c r="F233" t="n">
-        <v>153.8908</v>
+        <v>186.1809</v>
       </c>
       <c r="G233" t="n">
-        <v>5538.333333333333</v>
+        <v>5467.333333333333</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8611,22 +8593,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
+        <v>5540</v>
+      </c>
+      <c r="C234" t="n">
         <v>5545</v>
       </c>
-      <c r="C234" t="n">
-        <v>5550</v>
-      </c>
       <c r="D234" t="n">
-        <v>5550</v>
+        <v>5545</v>
       </c>
       <c r="E234" t="n">
-        <v>5545</v>
+        <v>5540</v>
       </c>
       <c r="F234" t="n">
-        <v>119.498</v>
+        <v>153.8908</v>
       </c>
       <c r="G234" t="n">
-        <v>5545</v>
+        <v>5469.75</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8646,22 +8628,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>5530</v>
+        <v>5545</v>
       </c>
       <c r="C235" t="n">
+        <v>5550</v>
+      </c>
+      <c r="D235" t="n">
+        <v>5550</v>
+      </c>
+      <c r="E235" t="n">
         <v>5545</v>
       </c>
-      <c r="D235" t="n">
-        <v>5545</v>
-      </c>
-      <c r="E235" t="n">
-        <v>5530</v>
-      </c>
       <c r="F235" t="n">
-        <v>621.2634789900811</v>
+        <v>119.498</v>
       </c>
       <c r="G235" t="n">
-        <v>5546.666666666667</v>
+        <v>5472.25</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8681,22 +8663,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>5520</v>
+        <v>5530</v>
       </c>
       <c r="C236" t="n">
-        <v>5535</v>
+        <v>5545</v>
       </c>
       <c r="D236" t="n">
-        <v>5535</v>
+        <v>5545</v>
       </c>
       <c r="E236" t="n">
-        <v>5515</v>
+        <v>5530</v>
       </c>
       <c r="F236" t="n">
-        <v>700.1618999999999</v>
+        <v>621.2634789900811</v>
       </c>
       <c r="G236" t="n">
-        <v>5543.333333333333</v>
+        <v>5474.416666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8719,19 +8701,19 @@
         <v>5520</v>
       </c>
       <c r="C237" t="n">
-        <v>5510</v>
+        <v>5535</v>
       </c>
       <c r="D237" t="n">
-        <v>5520</v>
+        <v>5535</v>
       </c>
       <c r="E237" t="n">
-        <v>5510</v>
+        <v>5515</v>
       </c>
       <c r="F237" t="n">
-        <v>105.2705</v>
+        <v>700.1618999999999</v>
       </c>
       <c r="G237" t="n">
-        <v>5530</v>
+        <v>5476.25</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8751,22 +8733,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
+        <v>5520</v>
+      </c>
+      <c r="C238" t="n">
         <v>5510</v>
       </c>
-      <c r="C238" t="n">
-        <v>5525</v>
-      </c>
       <c r="D238" t="n">
-        <v>5525</v>
+        <v>5520</v>
       </c>
       <c r="E238" t="n">
         <v>5510</v>
       </c>
       <c r="F238" t="n">
-        <v>171.5233</v>
+        <v>105.2705</v>
       </c>
       <c r="G238" t="n">
-        <v>5523.333333333333</v>
+        <v>5477.75</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8786,7 +8768,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>5525</v>
+        <v>5510</v>
       </c>
       <c r="C239" t="n">
         <v>5525</v>
@@ -8795,13 +8777,13 @@
         <v>5525</v>
       </c>
       <c r="E239" t="n">
-        <v>5525</v>
+        <v>5510</v>
       </c>
       <c r="F239" t="n">
-        <v>26.8427</v>
+        <v>171.5233</v>
       </c>
       <c r="G239" t="n">
-        <v>5520</v>
+        <v>5479.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8821,22 +8803,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>5515</v>
+        <v>5525</v>
       </c>
       <c r="C240" t="n">
-        <v>5515</v>
+        <v>5525</v>
       </c>
       <c r="D240" t="n">
-        <v>5515</v>
+        <v>5525</v>
       </c>
       <c r="E240" t="n">
-        <v>5515</v>
+        <v>5525</v>
       </c>
       <c r="F240" t="n">
-        <v>1.6608</v>
+        <v>26.8427</v>
       </c>
       <c r="G240" t="n">
-        <v>5521.666666666667</v>
+        <v>5481.166666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8856,22 +8838,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>5520</v>
+        <v>5515</v>
       </c>
       <c r="C241" t="n">
-        <v>5520</v>
+        <v>5515</v>
       </c>
       <c r="D241" t="n">
-        <v>5520</v>
+        <v>5515</v>
       </c>
       <c r="E241" t="n">
-        <v>5520</v>
+        <v>5515</v>
       </c>
       <c r="F241" t="n">
-        <v>97.7</v>
+        <v>1.6608</v>
       </c>
       <c r="G241" t="n">
-        <v>5520</v>
+        <v>5482.75</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8891,22 +8873,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>5530</v>
+        <v>5520</v>
       </c>
       <c r="C242" t="n">
-        <v>5540</v>
+        <v>5520</v>
       </c>
       <c r="D242" t="n">
-        <v>5545</v>
+        <v>5520</v>
       </c>
       <c r="E242" t="n">
-        <v>5530</v>
+        <v>5520</v>
       </c>
       <c r="F242" t="n">
-        <v>328.7821</v>
+        <v>97.7</v>
       </c>
       <c r="G242" t="n">
-        <v>5525</v>
+        <v>5484.333333333333</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8926,22 +8908,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>5530</v>
+      </c>
+      <c r="C243" t="n">
+        <v>5540</v>
+      </c>
+      <c r="D243" t="n">
         <v>5545</v>
       </c>
-      <c r="C243" t="n">
-        <v>5545</v>
-      </c>
-      <c r="D243" t="n">
-        <v>5550</v>
-      </c>
       <c r="E243" t="n">
-        <v>5545</v>
+        <v>5530</v>
       </c>
       <c r="F243" t="n">
-        <v>452.9083</v>
+        <v>328.7821</v>
       </c>
       <c r="G243" t="n">
-        <v>5535</v>
+        <v>5486.25</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8964,19 +8946,19 @@
         <v>5545</v>
       </c>
       <c r="C244" t="n">
-        <v>5535</v>
+        <v>5545</v>
       </c>
       <c r="D244" t="n">
+        <v>5550</v>
+      </c>
+      <c r="E244" t="n">
         <v>5545</v>
       </c>
-      <c r="E244" t="n">
-        <v>5535</v>
-      </c>
       <c r="F244" t="n">
-        <v>549.7942</v>
+        <v>452.9083</v>
       </c>
       <c r="G244" t="n">
-        <v>5540</v>
+        <v>5488.166666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8996,10 +8978,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
+        <v>5545</v>
+      </c>
+      <c r="C245" t="n">
         <v>5535</v>
-      </c>
-      <c r="C245" t="n">
-        <v>5545</v>
       </c>
       <c r="D245" t="n">
         <v>5545</v>
@@ -9008,10 +8990,10 @@
         <v>5535</v>
       </c>
       <c r="F245" t="n">
-        <v>223.3347</v>
+        <v>549.7942</v>
       </c>
       <c r="G245" t="n">
-        <v>5541.666666666667</v>
+        <v>5490.25</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9031,7 +9013,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>5545</v>
+        <v>5535</v>
       </c>
       <c r="C246" t="n">
         <v>5545</v>
@@ -9040,13 +9022,13 @@
         <v>5545</v>
       </c>
       <c r="E246" t="n">
-        <v>5545</v>
+        <v>5535</v>
       </c>
       <c r="F246" t="n">
-        <v>9.746600000000001</v>
+        <v>223.3347</v>
       </c>
       <c r="G246" t="n">
-        <v>5541.666666666667</v>
+        <v>5492.25</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9066,22 +9048,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>5535</v>
+        <v>5545</v>
       </c>
       <c r="C247" t="n">
-        <v>5535</v>
+        <v>5545</v>
       </c>
       <c r="D247" t="n">
-        <v>5535</v>
+        <v>5545</v>
       </c>
       <c r="E247" t="n">
-        <v>5535</v>
+        <v>5545</v>
       </c>
       <c r="F247" t="n">
-        <v>2</v>
+        <v>9.746600000000001</v>
       </c>
       <c r="G247" t="n">
-        <v>5541.666666666667</v>
+        <v>5494.166666666667</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9101,22 +9083,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>5515</v>
+        <v>5535</v>
       </c>
       <c r="C248" t="n">
-        <v>5515</v>
+        <v>5535</v>
       </c>
       <c r="D248" t="n">
-        <v>5515</v>
+        <v>5535</v>
       </c>
       <c r="E248" t="n">
-        <v>5515</v>
+        <v>5535</v>
       </c>
       <c r="F248" t="n">
-        <v>1.5557</v>
+        <v>2</v>
       </c>
       <c r="G248" t="n">
-        <v>5531.666666666667</v>
+        <v>5496.083333333333</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9139,19 +9121,19 @@
         <v>5515</v>
       </c>
       <c r="C249" t="n">
-        <v>5520</v>
+        <v>5515</v>
       </c>
       <c r="D249" t="n">
-        <v>5520</v>
+        <v>5515</v>
       </c>
       <c r="E249" t="n">
         <v>5515</v>
       </c>
       <c r="F249" t="n">
-        <v>247.4061</v>
+        <v>1.5557</v>
       </c>
       <c r="G249" t="n">
-        <v>5523.333333333333</v>
+        <v>5497.666666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9171,22 +9153,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
+        <v>5515</v>
+      </c>
+      <c r="C250" t="n">
         <v>5520</v>
       </c>
-      <c r="C250" t="n">
-        <v>5535</v>
-      </c>
       <c r="D250" t="n">
-        <v>5535</v>
+        <v>5520</v>
       </c>
       <c r="E250" t="n">
-        <v>5520</v>
+        <v>5515</v>
       </c>
       <c r="F250" t="n">
-        <v>143.3725</v>
+        <v>247.4061</v>
       </c>
       <c r="G250" t="n">
-        <v>5523.333333333333</v>
+        <v>5499.25</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9209,19 +9191,19 @@
         <v>5520</v>
       </c>
       <c r="C251" t="n">
-        <v>5520</v>
+        <v>5535</v>
       </c>
       <c r="D251" t="n">
-        <v>5520</v>
+        <v>5535</v>
       </c>
       <c r="E251" t="n">
         <v>5520</v>
       </c>
       <c r="F251" t="n">
-        <v>11.892</v>
+        <v>143.3725</v>
       </c>
       <c r="G251" t="n">
-        <v>5525</v>
+        <v>5500.916666666667</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9244,19 +9226,19 @@
         <v>5520</v>
       </c>
       <c r="C252" t="n">
-        <v>5510</v>
+        <v>5520</v>
       </c>
       <c r="D252" t="n">
         <v>5520</v>
       </c>
       <c r="E252" t="n">
-        <v>5500</v>
+        <v>5520</v>
       </c>
       <c r="F252" t="n">
-        <v>1437.9101</v>
+        <v>11.892</v>
       </c>
       <c r="G252" t="n">
-        <v>5521.666666666667</v>
+        <v>5502.333333333333</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9276,22 +9258,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>5515</v>
+        <v>5520</v>
       </c>
       <c r="C253" t="n">
-        <v>5515</v>
+        <v>5510</v>
       </c>
       <c r="D253" t="n">
-        <v>5515</v>
+        <v>5520</v>
       </c>
       <c r="E253" t="n">
-        <v>5515</v>
+        <v>5500</v>
       </c>
       <c r="F253" t="n">
-        <v>116.7875</v>
+        <v>1437.9101</v>
       </c>
       <c r="G253" t="n">
-        <v>5515</v>
+        <v>5503.166666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9323,10 +9305,10 @@
         <v>5515</v>
       </c>
       <c r="F254" t="n">
-        <v>122.1293</v>
+        <v>116.7875</v>
       </c>
       <c r="G254" t="n">
-        <v>5513.333333333333</v>
+        <v>5504.333333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9341,6 +9323,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>5515</v>
+      </c>
+      <c r="C255" t="n">
+        <v>5515</v>
+      </c>
+      <c r="D255" t="n">
+        <v>5515</v>
+      </c>
+      <c r="E255" t="n">
+        <v>5515</v>
+      </c>
+      <c r="F255" t="n">
+        <v>122.1293</v>
+      </c>
+      <c r="G255" t="n">
+        <v>5505.333333333333</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest ETC.xlsx
+++ b/BackTest/2019-10-27 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:N265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>11.2946</v>
       </c>
       <c r="G2" t="n">
+        <v>5297.666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>5286.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>11.1575</v>
       </c>
       <c r="G3" t="n">
+        <v>5300.333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>5286.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>624.5051</v>
       </c>
       <c r="G4" t="n">
+        <v>5303</v>
+      </c>
+      <c r="H4" t="n">
         <v>5286.666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>15.5308</v>
       </c>
       <c r="G5" t="n">
+        <v>5305</v>
+      </c>
+      <c r="H5" t="n">
         <v>5286.666666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>970.9079</v>
       </c>
       <c r="G6" t="n">
+        <v>5307</v>
+      </c>
+      <c r="H6" t="n">
         <v>5286.416666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,25 @@
         <v>154.03</v>
       </c>
       <c r="G7" t="n">
+        <v>5310.333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>5286.583333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5325</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5325</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +685,27 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
+        <v>5312.666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>5287</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>5325</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +729,27 @@
         <v>70.6609</v>
       </c>
       <c r="G9" t="n">
+        <v>5317.666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>5288</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>5325</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +773,21 @@
         <v>1.3517</v>
       </c>
       <c r="G10" t="n">
+        <v>5322.333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>5288.833333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +811,21 @@
         <v>350.1963</v>
       </c>
       <c r="G11" t="n">
+        <v>5328.666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>5290.25</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +849,21 @@
         <v>153.997</v>
       </c>
       <c r="G12" t="n">
+        <v>5334</v>
+      </c>
+      <c r="H12" t="n">
         <v>5292</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +887,21 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
+        <v>5339</v>
+      </c>
+      <c r="H13" t="n">
         <v>5293.5</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +925,21 @@
         <v>12.9775</v>
       </c>
       <c r="G14" t="n">
+        <v>5340.666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>5295</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +963,21 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
+        <v>5340.333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>5295.916666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1001,21 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
+        <v>5339</v>
+      </c>
+      <c r="H16" t="n">
         <v>5297.166666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1039,21 @@
         <v>40.0156</v>
       </c>
       <c r="G17" t="n">
+        <v>5336.666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>5298.083333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1077,25 @@
         <v>50</v>
       </c>
       <c r="G18" t="n">
+        <v>5334</v>
+      </c>
+      <c r="H18" t="n">
         <v>5298.416666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1119,29 @@
         <v>159.6704</v>
       </c>
       <c r="G19" t="n">
+        <v>5332.333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>5298.75</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5290</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1165,29 @@
         <v>19.0843</v>
       </c>
       <c r="G20" t="n">
+        <v>5330</v>
+      </c>
+      <c r="H20" t="n">
         <v>5298.333333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5305</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1211,25 @@
         <v>1.9955</v>
       </c>
       <c r="G21" t="n">
+        <v>5327</v>
+      </c>
+      <c r="H21" t="n">
         <v>5297.583333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1253,29 @@
         <v>100</v>
       </c>
       <c r="G22" t="n">
+        <v>5322.666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>5297.5</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5280</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1299,29 @@
         <v>94.6713</v>
       </c>
       <c r="G23" t="n">
+        <v>5320.666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>5297.666666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5280</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1345,29 @@
         <v>76.75234905660378</v>
       </c>
       <c r="G24" t="n">
+        <v>5316.333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>5297.75</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1391,29 @@
         <v>31.2833</v>
       </c>
       <c r="G25" t="n">
+        <v>5312.666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>5298.333333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5290</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1437,29 @@
         <v>165.0746</v>
       </c>
       <c r="G26" t="n">
+        <v>5308</v>
+      </c>
+      <c r="H26" t="n">
         <v>5299</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1483,29 @@
         <v>51.1711</v>
       </c>
       <c r="G27" t="n">
+        <v>5303.666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>5299.916666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1529,29 @@
         <v>13.4036</v>
       </c>
       <c r="G28" t="n">
+        <v>5299.666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>5300.333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1575,29 @@
         <v>2.769350943396226</v>
       </c>
       <c r="G29" t="n">
+        <v>5297.666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>5300.75</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5295</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1621,27 @@
         <v>8.9352</v>
       </c>
       <c r="G30" t="n">
+        <v>5298</v>
+      </c>
+      <c r="H30" t="n">
         <v>5301.75</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1665,27 @@
         <v>275.8638</v>
       </c>
       <c r="G31" t="n">
+        <v>5299</v>
+      </c>
+      <c r="H31" t="n">
         <v>5302.583333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1709,27 @@
         <v>189.4997</v>
       </c>
       <c r="G32" t="n">
+        <v>5300.333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>5303</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1753,27 @@
         <v>0.679</v>
       </c>
       <c r="G33" t="n">
+        <v>5302.333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>5303.666666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1797,27 @@
         <v>17.7447</v>
       </c>
       <c r="G34" t="n">
+        <v>5304</v>
+      </c>
+      <c r="H34" t="n">
         <v>5304.583333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1606,15 +1844,24 @@
         <v>5305</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5305</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1885,27 @@
         <v>199.2137</v>
       </c>
       <c r="G36" t="n">
+        <v>5308.666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>5306.083333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1929,27 @@
         <v>495.9719</v>
       </c>
       <c r="G37" t="n">
+        <v>5312.333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>5307.166666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1973,27 @@
         <v>55.6975</v>
       </c>
       <c r="G38" t="n">
+        <v>5314.666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>5308.25</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2017,27 @@
         <v>20</v>
       </c>
       <c r="G39" t="n">
+        <v>5317</v>
+      </c>
+      <c r="H39" t="n">
         <v>5309.333333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2061,27 @@
         <v>11.6928</v>
       </c>
       <c r="G40" t="n">
+        <v>5318</v>
+      </c>
+      <c r="H40" t="n">
         <v>5310.5</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2105,27 @@
         <v>2.0775</v>
       </c>
       <c r="G41" t="n">
+        <v>5319</v>
+      </c>
+      <c r="H41" t="n">
         <v>5312.083333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2149,27 @@
         <v>342.3492</v>
       </c>
       <c r="G42" t="n">
+        <v>5319.666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>5313.166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2193,27 @@
         <v>0.5</v>
       </c>
       <c r="G43" t="n">
+        <v>5322</v>
+      </c>
+      <c r="H43" t="n">
         <v>5313.5</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2237,27 @@
         <v>43.3528</v>
       </c>
       <c r="G44" t="n">
+        <v>5324</v>
+      </c>
+      <c r="H44" t="n">
         <v>5314</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2281,27 @@
         <v>429.7544</v>
       </c>
       <c r="G45" t="n">
+        <v>5324.666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>5314.333333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2325,27 @@
         <v>38.8667</v>
       </c>
       <c r="G46" t="n">
+        <v>5326</v>
+      </c>
+      <c r="H46" t="n">
         <v>5314.833333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2369,27 @@
         <v>10</v>
       </c>
       <c r="G47" t="n">
+        <v>5328.333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>5315.75</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2413,27 @@
         <v>157.8253</v>
       </c>
       <c r="G48" t="n">
+        <v>5331</v>
+      </c>
+      <c r="H48" t="n">
         <v>5316.916666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2457,27 @@
         <v>35.3446</v>
       </c>
       <c r="G49" t="n">
+        <v>5332.666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>5318</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2501,27 @@
         <v>178.1657</v>
       </c>
       <c r="G50" t="n">
+        <v>5335.333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>5318.833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2545,27 @@
         <v>107</v>
       </c>
       <c r="G51" t="n">
+        <v>5337.666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>5320.083333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2589,27 @@
         <v>29.535</v>
       </c>
       <c r="G52" t="n">
+        <v>5340</v>
+      </c>
+      <c r="H52" t="n">
         <v>5321.333333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2633,27 @@
         <v>1.24</v>
       </c>
       <c r="G53" t="n">
+        <v>5341.333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>5322.333333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2677,27 @@
         <v>31.0939</v>
       </c>
       <c r="G54" t="n">
+        <v>5344.666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>5323.916666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2721,27 @@
         <v>25.5756</v>
       </c>
       <c r="G55" t="n">
+        <v>5346.666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>5324.916666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2765,27 @@
         <v>249.4247</v>
       </c>
       <c r="G56" t="n">
+        <v>5348.333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>5326</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2809,27 @@
         <v>59.724</v>
       </c>
       <c r="G57" t="n">
+        <v>5350</v>
+      </c>
+      <c r="H57" t="n">
         <v>5326.833333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2853,27 @@
         <v>10.9944</v>
       </c>
       <c r="G58" t="n">
+        <v>5350.333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>5327.75</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2897,27 @@
         <v>19.3076</v>
       </c>
       <c r="G59" t="n">
+        <v>5350.666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>5328.25</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2941,27 @@
         <v>14.3365</v>
       </c>
       <c r="G60" t="n">
+        <v>5349.333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>5328.083333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2985,27 @@
         <v>8.102</v>
       </c>
       <c r="G61" t="n">
+        <v>5347</v>
+      </c>
+      <c r="H61" t="n">
         <v>5327.75</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3029,27 @@
         <v>12.1132</v>
       </c>
       <c r="G62" t="n">
+        <v>5344.666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>5327.5</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3073,27 @@
         <v>137.4471</v>
       </c>
       <c r="G63" t="n">
+        <v>5341.333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>5327.166666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3117,27 @@
         <v>99.75</v>
       </c>
       <c r="G64" t="n">
+        <v>5338</v>
+      </c>
+      <c r="H64" t="n">
         <v>5326.75</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3161,27 @@
         <v>137.4471</v>
       </c>
       <c r="G65" t="n">
+        <v>5334.333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>5326.166666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3205,27 @@
         <v>240.0392</v>
       </c>
       <c r="G66" t="n">
+        <v>5329</v>
+      </c>
+      <c r="H66" t="n">
         <v>5325.583333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3249,27 @@
         <v>23.2694</v>
       </c>
       <c r="G67" t="n">
+        <v>5323.666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>5324.666666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3293,27 @@
         <v>6.3521</v>
       </c>
       <c r="G68" t="n">
+        <v>5320.333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>5324.25</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3337,27 @@
         <v>23.2694</v>
       </c>
       <c r="G69" t="n">
+        <v>5314</v>
+      </c>
+      <c r="H69" t="n">
         <v>5323</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3381,27 @@
         <v>14.4922</v>
       </c>
       <c r="G70" t="n">
+        <v>5310</v>
+      </c>
+      <c r="H70" t="n">
         <v>5321.833333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3425,27 @@
         <v>14.9504</v>
       </c>
       <c r="G71" t="n">
+        <v>5306.333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>5320.416666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3469,27 @@
         <v>9.6518</v>
       </c>
       <c r="G72" t="n">
+        <v>5303</v>
+      </c>
+      <c r="H72" t="n">
         <v>5319.083333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3513,27 @@
         <v>7</v>
       </c>
       <c r="G73" t="n">
+        <v>5299</v>
+      </c>
+      <c r="H73" t="n">
         <v>5317.75</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3557,27 @@
         <v>54.1393</v>
       </c>
       <c r="G74" t="n">
+        <v>5294.666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>5316.75</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3601,27 @@
         <v>17</v>
       </c>
       <c r="G75" t="n">
+        <v>5291</v>
+      </c>
+      <c r="H75" t="n">
         <v>5315.75</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,22 +3645,27 @@
         <v>196</v>
       </c>
       <c r="G76" t="n">
+        <v>5288</v>
+      </c>
+      <c r="H76" t="n">
         <v>5315</v>
       </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K76" t="n">
-        <v>5255</v>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3077,26 +3689,27 @@
         <v>0.5003</v>
       </c>
       <c r="G77" t="n">
+        <v>5284.666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>5314.5</v>
       </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>5265</v>
-      </c>
-      <c r="K77" t="n">
-        <v>5255</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3120,26 +3733,27 @@
         <v>240.503</v>
       </c>
       <c r="G78" t="n">
+        <v>5283.666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>5314.583333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>5270</v>
-      </c>
-      <c r="K78" t="n">
-        <v>5255</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,22 +3777,27 @@
         <v>44.885</v>
       </c>
       <c r="G79" t="n">
+        <v>5282</v>
+      </c>
+      <c r="H79" t="n">
         <v>5314.166666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>5295</v>
-      </c>
-      <c r="K79" t="n">
-        <v>5295</v>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,26 +3821,27 @@
         <v>51.142</v>
       </c>
       <c r="G80" t="n">
+        <v>5281.666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>5314.083333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>5280</v>
-      </c>
-      <c r="K80" t="n">
-        <v>5295</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3245,26 +3865,27 @@
         <v>0.1888</v>
       </c>
       <c r="G81" t="n">
+        <v>5282</v>
+      </c>
+      <c r="H81" t="n">
         <v>5314.333333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>5295</v>
-      </c>
-      <c r="K81" t="n">
-        <v>5295</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,18 +3909,27 @@
         <v>13.15</v>
       </c>
       <c r="G82" t="n">
+        <v>5282.333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>5314.583333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3323,18 +3953,27 @@
         <v>7.27</v>
       </c>
       <c r="G83" t="n">
+        <v>5282</v>
+      </c>
+      <c r="H83" t="n">
         <v>5314.583333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3358,18 +3997,27 @@
         <v>8.7387</v>
       </c>
       <c r="G84" t="n">
+        <v>5283.333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>5314.75</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3393,18 +4041,27 @@
         <v>6.7261</v>
       </c>
       <c r="G85" t="n">
+        <v>5284.333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>5314.75</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3428,18 +4085,27 @@
         <v>201</v>
       </c>
       <c r="G86" t="n">
+        <v>5286</v>
+      </c>
+      <c r="H86" t="n">
         <v>5314.916666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3463,18 +4129,27 @@
         <v>10.0572</v>
       </c>
       <c r="G87" t="n">
+        <v>5287.666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>5315.083333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3498,18 +4173,27 @@
         <v>62.5451</v>
       </c>
       <c r="G88" t="n">
+        <v>5290.666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>5315.5</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3533,18 +4217,27 @@
         <v>3</v>
       </c>
       <c r="G89" t="n">
+        <v>5294.666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>5316</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3568,18 +4261,27 @@
         <v>56.32</v>
       </c>
       <c r="G90" t="n">
+        <v>5300.333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>5316.333333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3603,18 +4305,27 @@
         <v>140.5945</v>
       </c>
       <c r="G91" t="n">
+        <v>5304</v>
+      </c>
+      <c r="H91" t="n">
         <v>5316.25</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3638,18 +4349,27 @@
         <v>93.843</v>
       </c>
       <c r="G92" t="n">
+        <v>5307</v>
+      </c>
+      <c r="H92" t="n">
         <v>5316.166666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3673,18 +4393,27 @@
         <v>14.74</v>
       </c>
       <c r="G93" t="n">
+        <v>5308.333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>5316.083333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3708,18 +4437,27 @@
         <v>287.4284</v>
       </c>
       <c r="G94" t="n">
+        <v>5310.333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>5315.75</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3743,18 +4481,27 @@
         <v>35.1539</v>
       </c>
       <c r="G95" t="n">
+        <v>5311.333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>5315.666666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3778,18 +4525,27 @@
         <v>54.1932</v>
       </c>
       <c r="G96" t="n">
+        <v>5312.333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>5315.25</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3813,18 +4569,27 @@
         <v>4.4615</v>
       </c>
       <c r="G97" t="n">
+        <v>5313.333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>5314.833333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3848,18 +4613,27 @@
         <v>4.4857</v>
       </c>
       <c r="G98" t="n">
+        <v>5313.333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>5314.25</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3883,18 +4657,27 @@
         <v>206.6687</v>
       </c>
       <c r="G99" t="n">
+        <v>5314.333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>5314.083333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,18 +4701,27 @@
         <v>113.9</v>
       </c>
       <c r="G100" t="n">
+        <v>5316.666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>5314.416666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3953,18 +4745,27 @@
         <v>25.3043</v>
       </c>
       <c r="G101" t="n">
+        <v>5317</v>
+      </c>
+      <c r="H101" t="n">
         <v>5314.416666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,18 +4789,27 @@
         <v>0.5991</v>
       </c>
       <c r="G102" t="n">
+        <v>5317.333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>5314.5</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4023,18 +4833,27 @@
         <v>640.1438000000001</v>
       </c>
       <c r="G103" t="n">
+        <v>5320.333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>5315.083333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4058,18 +4877,27 @@
         <v>100</v>
       </c>
       <c r="G104" t="n">
+        <v>5322.666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>5315.666666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4093,18 +4921,27 @@
         <v>1.4419</v>
       </c>
       <c r="G105" t="n">
+        <v>5324.666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>5316.333333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,18 +4965,27 @@
         <v>68.9696</v>
       </c>
       <c r="G106" t="n">
+        <v>5328</v>
+      </c>
+      <c r="H106" t="n">
         <v>5316.75</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4163,18 +5009,27 @@
         <v>124.6898</v>
       </c>
       <c r="G107" t="n">
+        <v>5332.333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>5317.166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4198,18 +5053,27 @@
         <v>0.1851851851851852</v>
       </c>
       <c r="G108" t="n">
+        <v>5338</v>
+      </c>
+      <c r="H108" t="n">
         <v>5317.833333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4233,18 +5097,27 @@
         <v>16.1493</v>
       </c>
       <c r="G109" t="n">
+        <v>5343.666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>5318.5</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4268,18 +5141,27 @@
         <v>21.8251</v>
       </c>
       <c r="G110" t="n">
+        <v>5349.333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>5319.166666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,18 +5185,27 @@
         <v>2.8665</v>
       </c>
       <c r="G111" t="n">
+        <v>5355</v>
+      </c>
+      <c r="H111" t="n">
         <v>5319.583333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4338,18 +5229,27 @@
         <v>0.6748</v>
       </c>
       <c r="G112" t="n">
+        <v>5360.666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>5320</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4373,18 +5273,27 @@
         <v>27.0905</v>
       </c>
       <c r="G113" t="n">
+        <v>5367</v>
+      </c>
+      <c r="H113" t="n">
         <v>5320.666666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,18 +5317,27 @@
         <v>4.7887</v>
       </c>
       <c r="G114" t="n">
+        <v>5372.666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>5321.083333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4443,18 +5361,27 @@
         <v>1.2261</v>
       </c>
       <c r="G115" t="n">
+        <v>5377</v>
+      </c>
+      <c r="H115" t="n">
         <v>5322</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,18 +5405,27 @@
         <v>101.2438</v>
       </c>
       <c r="G116" t="n">
+        <v>5379.333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>5322.166666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4513,18 +5449,27 @@
         <v>0.1656</v>
       </c>
       <c r="G117" t="n">
+        <v>5381.666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>5322.416666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4548,18 +5493,27 @@
         <v>3.604659832246039</v>
       </c>
       <c r="G118" t="n">
+        <v>5381.666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>5322.916666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4583,18 +5537,27 @@
         <v>0.1726</v>
       </c>
       <c r="G119" t="n">
+        <v>5381.666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>5323.416666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,18 +5581,27 @@
         <v>542.2033</v>
       </c>
       <c r="G120" t="n">
+        <v>5381</v>
+      </c>
+      <c r="H120" t="n">
         <v>5324.25</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4653,18 +5625,27 @@
         <v>338.4602</v>
       </c>
       <c r="G121" t="n">
+        <v>5378.333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>5324.583333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4688,18 +5669,27 @@
         <v>20.2699</v>
       </c>
       <c r="G122" t="n">
+        <v>5376.333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>5325.083333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4723,18 +5713,27 @@
         <v>98.9329</v>
       </c>
       <c r="G123" t="n">
+        <v>5374.333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>5326.083333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4758,18 +5757,27 @@
         <v>25.4822</v>
       </c>
       <c r="G124" t="n">
+        <v>5371</v>
+      </c>
+      <c r="H124" t="n">
         <v>5326.75</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4793,18 +5801,27 @@
         <v>3.0824</v>
       </c>
       <c r="G125" t="n">
+        <v>5367.333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>5327.416666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4828,18 +5845,27 @@
         <v>5.1014</v>
       </c>
       <c r="G126" t="n">
+        <v>5363</v>
+      </c>
+      <c r="H126" t="n">
         <v>5328.083333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4863,18 +5889,27 @@
         <v>8.407299999999999</v>
       </c>
       <c r="G127" t="n">
+        <v>5359.333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>5328.916666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4898,18 +5933,29 @@
         <v>1.7424</v>
       </c>
       <c r="G128" t="n">
+        <v>5355.333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>5329.416666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>5340</v>
+      </c>
+      <c r="L128" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4933,18 +5979,27 @@
         <v>59.0328</v>
       </c>
       <c r="G129" t="n">
+        <v>5351</v>
+      </c>
+      <c r="H129" t="n">
         <v>5330.333333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4968,18 +6023,27 @@
         <v>15</v>
       </c>
       <c r="G130" t="n">
+        <v>5346.666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>5331.166666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5003,18 +6067,27 @@
         <v>260.0219</v>
       </c>
       <c r="G131" t="n">
+        <v>5345.333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>5331.916666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,18 +6111,27 @@
         <v>5</v>
       </c>
       <c r="G132" t="n">
+        <v>5343.666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>5332.583333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5073,18 +6155,27 @@
         <v>98.6855</v>
       </c>
       <c r="G133" t="n">
+        <v>5341</v>
+      </c>
+      <c r="H133" t="n">
         <v>5333.416666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5108,18 +6199,27 @@
         <v>17</v>
       </c>
       <c r="G134" t="n">
+        <v>5338</v>
+      </c>
+      <c r="H134" t="n">
         <v>5334.25</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5143,18 +6243,27 @@
         <v>9</v>
       </c>
       <c r="G135" t="n">
+        <v>5335</v>
+      </c>
+      <c r="H135" t="n">
         <v>5335.25</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5178,18 +6287,27 @@
         <v>12.2688</v>
       </c>
       <c r="G136" t="n">
+        <v>5336</v>
+      </c>
+      <c r="H136" t="n">
         <v>5336.583333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5213,18 +6331,27 @@
         <v>56.0861</v>
       </c>
       <c r="G137" t="n">
+        <v>5334.666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>5337.583333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5248,18 +6375,27 @@
         <v>71.23220000000001</v>
       </c>
       <c r="G138" t="n">
+        <v>5333</v>
+      </c>
+      <c r="H138" t="n">
         <v>5338.416666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5283,18 +6419,27 @@
         <v>1.5864</v>
       </c>
       <c r="G139" t="n">
+        <v>5333</v>
+      </c>
+      <c r="H139" t="n">
         <v>5339.5</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5318,18 +6463,27 @@
         <v>365.8113</v>
       </c>
       <c r="G140" t="n">
+        <v>5333.666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>5340.416666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5353,18 +6507,27 @@
         <v>443.6184</v>
       </c>
       <c r="G141" t="n">
+        <v>5335.666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>5341.5</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5388,18 +6551,27 @@
         <v>3</v>
       </c>
       <c r="G142" t="n">
+        <v>5337</v>
+      </c>
+      <c r="H142" t="n">
         <v>5342.583333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5423,18 +6595,27 @@
         <v>254.7482</v>
       </c>
       <c r="G143" t="n">
+        <v>5338</v>
+      </c>
+      <c r="H143" t="n">
         <v>5343.416666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5458,18 +6639,27 @@
         <v>91.8155</v>
       </c>
       <c r="G144" t="n">
+        <v>5339</v>
+      </c>
+      <c r="H144" t="n">
         <v>5344.25</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5493,18 +6683,27 @@
         <v>4</v>
       </c>
       <c r="G145" t="n">
+        <v>5340.666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>5345.25</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5528,18 +6727,27 @@
         <v>57.2589</v>
       </c>
       <c r="G146" t="n">
+        <v>5344</v>
+      </c>
+      <c r="H146" t="n">
         <v>5346.416666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5563,18 +6771,27 @@
         <v>1.0568</v>
       </c>
       <c r="G147" t="n">
+        <v>5348.666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>5347.833333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5598,18 +6815,27 @@
         <v>14.5481</v>
       </c>
       <c r="G148" t="n">
+        <v>5353.666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>5349.166666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5633,18 +6859,27 @@
         <v>20.2157</v>
       </c>
       <c r="G149" t="n">
+        <v>5359</v>
+      </c>
+      <c r="H149" t="n">
         <v>5350.333333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5668,18 +6903,27 @@
         <v>13.5222</v>
       </c>
       <c r="G150" t="n">
+        <v>5363.333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>5351</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5703,18 +6947,27 @@
         <v>13.3766</v>
       </c>
       <c r="G151" t="n">
+        <v>5366.333333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>5352.166666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5738,18 +6991,27 @@
         <v>639.1130000000001</v>
       </c>
       <c r="G152" t="n">
+        <v>5372</v>
+      </c>
+      <c r="H152" t="n">
         <v>5353.833333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5773,18 +7035,27 @@
         <v>22.1592</v>
       </c>
       <c r="G153" t="n">
+        <v>5376.333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>5355.416666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5808,18 +7079,27 @@
         <v>270.905</v>
       </c>
       <c r="G154" t="n">
+        <v>5381.333333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>5357.25</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5843,18 +7123,27 @@
         <v>22.8504</v>
       </c>
       <c r="G155" t="n">
+        <v>5385</v>
+      </c>
+      <c r="H155" t="n">
         <v>5358.833333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5878,18 +7167,27 @@
         <v>111.9234</v>
       </c>
       <c r="G156" t="n">
+        <v>5389</v>
+      </c>
+      <c r="H156" t="n">
         <v>5360.666666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5913,18 +7211,27 @@
         <v>54.1266</v>
       </c>
       <c r="G157" t="n">
+        <v>5393</v>
+      </c>
+      <c r="H157" t="n">
         <v>5362.5</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5948,18 +7255,27 @@
         <v>20.2443</v>
       </c>
       <c r="G158" t="n">
+        <v>5398.333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>5364.666666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5983,18 +7299,27 @@
         <v>3.24</v>
       </c>
       <c r="G159" t="n">
+        <v>5403.666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>5366.583333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6018,18 +7343,27 @@
         <v>0.772</v>
       </c>
       <c r="G160" t="n">
+        <v>5408.666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>5368.25</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6053,18 +7387,27 @@
         <v>67.3857</v>
       </c>
       <c r="G161" t="n">
+        <v>5411.333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>5370</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6088,18 +7431,27 @@
         <v>18.5211</v>
       </c>
       <c r="G162" t="n">
+        <v>5414</v>
+      </c>
+      <c r="H162" t="n">
         <v>5372</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6123,18 +7475,27 @@
         <v>2</v>
       </c>
       <c r="G163" t="n">
+        <v>5415</v>
+      </c>
+      <c r="H163" t="n">
         <v>5372.833333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6158,18 +7519,27 @@
         <v>2.1911</v>
       </c>
       <c r="G164" t="n">
+        <v>5416.666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>5373.833333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6193,18 +7563,27 @@
         <v>8.082700000000001</v>
       </c>
       <c r="G165" t="n">
+        <v>5419</v>
+      </c>
+      <c r="H165" t="n">
         <v>5374.583333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6228,18 +7607,27 @@
         <v>25.7</v>
       </c>
       <c r="G166" t="n">
+        <v>5420.666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>5375.333333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6263,18 +7651,27 @@
         <v>69.937</v>
       </c>
       <c r="G167" t="n">
+        <v>5419</v>
+      </c>
+      <c r="H167" t="n">
         <v>5375.5</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6298,18 +7695,27 @@
         <v>42.2542</v>
       </c>
       <c r="G168" t="n">
+        <v>5417.333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>5375.25</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6333,18 +7739,27 @@
         <v>3</v>
       </c>
       <c r="G169" t="n">
+        <v>5414.666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>5375</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6368,18 +7783,27 @@
         <v>65.68000000000001</v>
       </c>
       <c r="G170" t="n">
+        <v>5413.666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>5374.916666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6403,18 +7827,27 @@
         <v>16.2187</v>
       </c>
       <c r="G171" t="n">
+        <v>5411.666666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>5374.833333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6438,18 +7871,27 @@
         <v>6.2167</v>
       </c>
       <c r="G172" t="n">
+        <v>5409.333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>5374.666666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6473,18 +7915,27 @@
         <v>87.2607</v>
       </c>
       <c r="G173" t="n">
+        <v>5406.333333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>5374.5</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6508,18 +7959,27 @@
         <v>69.8032</v>
       </c>
       <c r="G174" t="n">
+        <v>5404.333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>5374.5</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6543,18 +8003,27 @@
         <v>176.6046</v>
       </c>
       <c r="G175" t="n">
+        <v>5402</v>
+      </c>
+      <c r="H175" t="n">
         <v>5374.5</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6578,18 +8047,27 @@
         <v>212.6352</v>
       </c>
       <c r="G176" t="n">
+        <v>5401.666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>5375.583333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6613,18 +8091,27 @@
         <v>54.7139</v>
       </c>
       <c r="G177" t="n">
+        <v>5401</v>
+      </c>
+      <c r="H177" t="n">
         <v>5376.833333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6648,18 +8135,27 @@
         <v>31.8844</v>
       </c>
       <c r="G178" t="n">
+        <v>5401.333333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>5377.75</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6683,18 +8179,27 @@
         <v>521.0212</v>
       </c>
       <c r="G179" t="n">
+        <v>5401</v>
+      </c>
+      <c r="H179" t="n">
         <v>5378.666666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6718,18 +8223,27 @@
         <v>101</v>
       </c>
       <c r="G180" t="n">
+        <v>5401.666666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>5379.75</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6753,18 +8267,27 @@
         <v>401.261</v>
       </c>
       <c r="G181" t="n">
+        <v>5402</v>
+      </c>
+      <c r="H181" t="n">
         <v>5381.25</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6788,18 +8311,27 @@
         <v>65.8404</v>
       </c>
       <c r="G182" t="n">
+        <v>5404.333333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>5382.5</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,18 +8355,27 @@
         <v>0.1396</v>
       </c>
       <c r="G183" t="n">
+        <v>5407</v>
+      </c>
+      <c r="H183" t="n">
         <v>5383.416666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6858,18 +8399,27 @@
         <v>103.1599</v>
       </c>
       <c r="G184" t="n">
+        <v>5410.333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>5384.833333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6893,18 +8443,27 @@
         <v>160</v>
       </c>
       <c r="G185" t="n">
+        <v>5411.666666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>5386</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6928,18 +8487,27 @@
         <v>83.6371</v>
       </c>
       <c r="G186" t="n">
+        <v>5414</v>
+      </c>
+      <c r="H186" t="n">
         <v>5387.583333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6963,18 +8531,27 @@
         <v>1206.8309</v>
       </c>
       <c r="G187" t="n">
+        <v>5417</v>
+      </c>
+      <c r="H187" t="n">
         <v>5389.083333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6998,18 +8575,27 @@
         <v>303.9124</v>
       </c>
       <c r="G188" t="n">
+        <v>5419.333333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>5390.5</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7033,18 +8619,27 @@
         <v>224.7949</v>
       </c>
       <c r="G189" t="n">
+        <v>5420.666666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>5391.916666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7068,18 +8663,27 @@
         <v>1826.5839</v>
       </c>
       <c r="G190" t="n">
+        <v>5422.333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>5393.416666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7103,18 +8707,27 @@
         <v>365.5412</v>
       </c>
       <c r="G191" t="n">
+        <v>5423.666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>5395.166666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7138,18 +8751,27 @@
         <v>249.2146</v>
       </c>
       <c r="G192" t="n">
+        <v>5424.333333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>5397</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7173,18 +8795,27 @@
         <v>1861.7689</v>
       </c>
       <c r="G193" t="n">
+        <v>5427</v>
+      </c>
+      <c r="H193" t="n">
         <v>5399.25</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7208,18 +8839,27 @@
         <v>711.072</v>
       </c>
       <c r="G194" t="n">
+        <v>5428.666666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>5401.333333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7243,18 +8883,27 @@
         <v>1148.3505</v>
       </c>
       <c r="G195" t="n">
+        <v>5430.666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>5403.666666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7278,18 +8927,27 @@
         <v>716.0921</v>
       </c>
       <c r="G196" t="n">
+        <v>5432</v>
+      </c>
+      <c r="H196" t="n">
         <v>5405.25</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7313,18 +8971,27 @@
         <v>1089.7531</v>
       </c>
       <c r="G197" t="n">
+        <v>5433</v>
+      </c>
+      <c r="H197" t="n">
         <v>5407.083333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7348,18 +9015,27 @@
         <v>235.9151</v>
       </c>
       <c r="G198" t="n">
+        <v>5434.333333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>5408.75</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7383,18 +9059,27 @@
         <v>1554.8743</v>
       </c>
       <c r="G199" t="n">
+        <v>5436</v>
+      </c>
+      <c r="H199" t="n">
         <v>5410.583333333333</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7418,18 +9103,27 @@
         <v>202.9</v>
       </c>
       <c r="G200" t="n">
+        <v>5439.333333333333</v>
+      </c>
+      <c r="H200" t="n">
         <v>5412.416666666667</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7453,18 +9147,27 @@
         <v>1309.4463</v>
       </c>
       <c r="G201" t="n">
+        <v>5442</v>
+      </c>
+      <c r="H201" t="n">
         <v>5414.166666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7488,18 +9191,27 @@
         <v>1506.8958</v>
       </c>
       <c r="G202" t="n">
+        <v>5444.333333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>5415.916666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7523,18 +9235,27 @@
         <v>2988.7337</v>
       </c>
       <c r="G203" t="n">
+        <v>5447</v>
+      </c>
+      <c r="H203" t="n">
         <v>5417.75</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7558,18 +9279,27 @@
         <v>344.9489</v>
       </c>
       <c r="G204" t="n">
+        <v>5450.333333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>5419.75</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7593,18 +9323,27 @@
         <v>4012.6606</v>
       </c>
       <c r="G205" t="n">
+        <v>5454</v>
+      </c>
+      <c r="H205" t="n">
         <v>5421.75</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7628,18 +9367,27 @@
         <v>1421.3506</v>
       </c>
       <c r="G206" t="n">
+        <v>5456.333333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>5423.25</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7663,18 +9411,27 @@
         <v>893.7166</v>
       </c>
       <c r="G207" t="n">
+        <v>5460.333333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>5424.916666666667</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7698,18 +9455,27 @@
         <v>2646.163</v>
       </c>
       <c r="G208" t="n">
+        <v>5461.666666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>5426.25</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7733,18 +9499,27 @@
         <v>964.1518</v>
       </c>
       <c r="G209" t="n">
+        <v>5464.666666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>5427.75</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7768,18 +9543,27 @@
         <v>1319.8465</v>
       </c>
       <c r="G210" t="n">
+        <v>5466</v>
+      </c>
+      <c r="H210" t="n">
         <v>5429.333333333333</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7803,18 +9587,27 @@
         <v>165.3344</v>
       </c>
       <c r="G211" t="n">
+        <v>5468.666666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>5430.833333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7838,18 +9631,27 @@
         <v>4.7446</v>
       </c>
       <c r="G212" t="n">
+        <v>5471.333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>5431.916666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7873,18 +9675,27 @@
         <v>301.8251</v>
       </c>
       <c r="G213" t="n">
+        <v>5474</v>
+      </c>
+      <c r="H213" t="n">
         <v>5433.166666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7908,18 +9719,27 @@
         <v>7.3384</v>
       </c>
       <c r="G214" t="n">
+        <v>5476</v>
+      </c>
+      <c r="H214" t="n">
         <v>5434.25</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7943,18 +9763,27 @@
         <v>421.7991</v>
       </c>
       <c r="G215" t="n">
+        <v>5478.333333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>5435.75</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7978,18 +9807,27 @@
         <v>600.5982</v>
       </c>
       <c r="G216" t="n">
+        <v>5480.666666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>5437.083333333333</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8013,18 +9851,27 @@
         <v>1162.6211</v>
       </c>
       <c r="G217" t="n">
+        <v>5483</v>
+      </c>
+      <c r="H217" t="n">
         <v>5438.416666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8048,18 +9895,27 @@
         <v>1201.8507</v>
       </c>
       <c r="G218" t="n">
+        <v>5486</v>
+      </c>
+      <c r="H218" t="n">
         <v>5439.666666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8083,18 +9939,27 @@
         <v>869.1518</v>
       </c>
       <c r="G219" t="n">
+        <v>5489</v>
+      </c>
+      <c r="H219" t="n">
         <v>5441.083333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8118,18 +9983,27 @@
         <v>12.8056</v>
       </c>
       <c r="G220" t="n">
+        <v>5491.333333333333</v>
+      </c>
+      <c r="H220" t="n">
         <v>5442.416666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8153,18 +10027,27 @@
         <v>333.239</v>
       </c>
       <c r="G221" t="n">
+        <v>5494.666666666667</v>
+      </c>
+      <c r="H221" t="n">
         <v>5444.083333333333</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="L221" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8188,18 +10071,27 @@
         <v>1438.6647</v>
       </c>
       <c r="G222" t="n">
+        <v>5497.333333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>5445.75</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="L222" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8223,18 +10115,27 @@
         <v>7.6304</v>
       </c>
       <c r="G223" t="n">
+        <v>5500.666666666667</v>
+      </c>
+      <c r="H223" t="n">
         <v>5447.666666666667</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="L223" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8258,19 +10159,28 @@
         <v>674.4228000000001</v>
       </c>
       <c r="G224" t="n">
+        <v>5501.333333333333</v>
+      </c>
+      <c r="H224" t="n">
         <v>5448.916666666667</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
+      <c r="L224" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>1.032735849056604</v>
       </c>
     </row>
     <row r="225">
@@ -8293,18 +10203,21 @@
         <v>459.9784</v>
       </c>
       <c r="G225" t="n">
+        <v>5503</v>
+      </c>
+      <c r="H225" t="n">
         <v>5450.333333333333</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8328,18 +10241,21 @@
         <v>359.465</v>
       </c>
       <c r="G226" t="n">
+        <v>5504.333333333333</v>
+      </c>
+      <c r="H226" t="n">
         <v>5451.75</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8363,18 +10279,21 @@
         <v>6.7027</v>
       </c>
       <c r="G227" t="n">
+        <v>5506</v>
+      </c>
+      <c r="H227" t="n">
         <v>5453.666666666667</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8398,18 +10317,21 @@
         <v>27.7116</v>
       </c>
       <c r="G228" t="n">
+        <v>5507.333333333333</v>
+      </c>
+      <c r="H228" t="n">
         <v>5455.666666666667</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8433,18 +10355,21 @@
         <v>130.4592</v>
       </c>
       <c r="G229" t="n">
+        <v>5509.666666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>5458</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8468,18 +10393,21 @@
         <v>20.4146</v>
       </c>
       <c r="G230" t="n">
+        <v>5511.333333333333</v>
+      </c>
+      <c r="H230" t="n">
         <v>5460.166666666667</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8503,18 +10431,21 @@
         <v>100.5314</v>
       </c>
       <c r="G231" t="n">
+        <v>5512.666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>5462.333333333333</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8538,18 +10469,21 @@
         <v>426.332</v>
       </c>
       <c r="G232" t="n">
+        <v>5514.666666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>5464.75</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8573,18 +10507,21 @@
         <v>186.1809</v>
       </c>
       <c r="G233" t="n">
+        <v>5517</v>
+      </c>
+      <c r="H233" t="n">
         <v>5467.333333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,18 +10545,21 @@
         <v>153.8908</v>
       </c>
       <c r="G234" t="n">
+        <v>5519</v>
+      </c>
+      <c r="H234" t="n">
         <v>5469.75</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8643,18 +10583,21 @@
         <v>119.498</v>
       </c>
       <c r="G235" t="n">
+        <v>5521.333333333333</v>
+      </c>
+      <c r="H235" t="n">
         <v>5472.25</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8678,18 +10621,21 @@
         <v>621.2634789900811</v>
       </c>
       <c r="G236" t="n">
+        <v>5523</v>
+      </c>
+      <c r="H236" t="n">
         <v>5474.416666666667</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8713,18 +10659,21 @@
         <v>700.1618999999999</v>
       </c>
       <c r="G237" t="n">
+        <v>5523</v>
+      </c>
+      <c r="H237" t="n">
         <v>5476.25</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8748,18 +10697,21 @@
         <v>105.2705</v>
       </c>
       <c r="G238" t="n">
+        <v>5521.666666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>5477.75</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8783,18 +10735,21 @@
         <v>171.5233</v>
       </c>
       <c r="G239" t="n">
+        <v>5523.333333333333</v>
+      </c>
+      <c r="H239" t="n">
         <v>5479.5</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8818,18 +10773,21 @@
         <v>26.8427</v>
       </c>
       <c r="G240" t="n">
+        <v>5525</v>
+      </c>
+      <c r="H240" t="n">
         <v>5481.166666666667</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8853,18 +10811,21 @@
         <v>1.6608</v>
       </c>
       <c r="G241" t="n">
+        <v>5526</v>
+      </c>
+      <c r="H241" t="n">
         <v>5482.75</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8888,18 +10849,21 @@
         <v>97.7</v>
       </c>
       <c r="G242" t="n">
+        <v>5527</v>
+      </c>
+      <c r="H242" t="n">
         <v>5484.333333333333</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8923,18 +10887,21 @@
         <v>328.7821</v>
       </c>
       <c r="G243" t="n">
+        <v>5529.333333333333</v>
+      </c>
+      <c r="H243" t="n">
         <v>5486.25</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8958,18 +10925,21 @@
         <v>452.9083</v>
       </c>
       <c r="G244" t="n">
+        <v>5531</v>
+      </c>
+      <c r="H244" t="n">
         <v>5488.166666666667</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8993,18 +10963,21 @@
         <v>549.7942</v>
       </c>
       <c r="G245" t="n">
+        <v>5532</v>
+      </c>
+      <c r="H245" t="n">
         <v>5490.25</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9028,18 +11001,21 @@
         <v>223.3347</v>
       </c>
       <c r="G246" t="n">
+        <v>5533.666666666667</v>
+      </c>
+      <c r="H246" t="n">
         <v>5492.25</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9063,18 +11039,21 @@
         <v>9.746600000000001</v>
       </c>
       <c r="G247" t="n">
+        <v>5534.666666666667</v>
+      </c>
+      <c r="H247" t="n">
         <v>5494.166666666667</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9098,18 +11077,21 @@
         <v>2</v>
       </c>
       <c r="G248" t="n">
+        <v>5534.333333333333</v>
+      </c>
+      <c r="H248" t="n">
         <v>5496.083333333333</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9133,18 +11115,21 @@
         <v>1.5557</v>
       </c>
       <c r="G249" t="n">
+        <v>5532.333333333333</v>
+      </c>
+      <c r="H249" t="n">
         <v>5497.666666666667</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9168,18 +11153,21 @@
         <v>247.4061</v>
       </c>
       <c r="G250" t="n">
+        <v>5530.333333333333</v>
+      </c>
+      <c r="H250" t="n">
         <v>5499.25</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9203,18 +11191,21 @@
         <v>143.3725</v>
       </c>
       <c r="G251" t="n">
+        <v>5529.666666666667</v>
+      </c>
+      <c r="H251" t="n">
         <v>5500.916666666667</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9238,18 +11229,21 @@
         <v>11.892</v>
       </c>
       <c r="G252" t="n">
+        <v>5528.666666666667</v>
+      </c>
+      <c r="H252" t="n">
         <v>5502.333333333333</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9273,18 +11267,21 @@
         <v>1437.9101</v>
       </c>
       <c r="G253" t="n">
+        <v>5528.666666666667</v>
+      </c>
+      <c r="H253" t="n">
         <v>5503.166666666667</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9308,18 +11305,21 @@
         <v>116.7875</v>
       </c>
       <c r="G254" t="n">
+        <v>5528</v>
+      </c>
+      <c r="H254" t="n">
         <v>5504.333333333333</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9343,18 +11343,401 @@
         <v>122.1293</v>
       </c>
       <c r="G255" t="n">
+        <v>5527.333333333333</v>
+      </c>
+      <c r="H255" t="n">
         <v>5505.333333333333</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>5525</v>
+      </c>
+      <c r="C256" t="n">
+        <v>5495</v>
+      </c>
+      <c r="D256" t="n">
+        <v>5525</v>
+      </c>
+      <c r="E256" t="n">
+        <v>5495</v>
+      </c>
+      <c r="F256" t="n">
+        <v>635.8471</v>
+      </c>
+      <c r="G256" t="n">
+        <v>5526</v>
+      </c>
+      <c r="H256" t="n">
+        <v>5506.25</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>1</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>5495</v>
+      </c>
+      <c r="C257" t="n">
+        <v>5495</v>
+      </c>
+      <c r="D257" t="n">
+        <v>5495</v>
+      </c>
+      <c r="E257" t="n">
+        <v>5485</v>
+      </c>
+      <c r="F257" t="n">
+        <v>706.1615</v>
+      </c>
+      <c r="G257" t="n">
+        <v>5524.333333333333</v>
+      </c>
+      <c r="H257" t="n">
+        <v>5507.166666666667</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>5495</v>
+      </c>
+      <c r="C258" t="n">
+        <v>5480</v>
+      </c>
+      <c r="D258" t="n">
+        <v>5495</v>
+      </c>
+      <c r="E258" t="n">
+        <v>5480</v>
+      </c>
+      <c r="F258" t="n">
+        <v>248.1205</v>
+      </c>
+      <c r="G258" t="n">
+        <v>5520.333333333333</v>
+      </c>
+      <c r="H258" t="n">
+        <v>5507.75</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>5480</v>
+      </c>
+      <c r="C259" t="n">
+        <v>5445</v>
+      </c>
+      <c r="D259" t="n">
+        <v>5480</v>
+      </c>
+      <c r="E259" t="n">
+        <v>5445</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1960.6337</v>
+      </c>
+      <c r="G259" t="n">
+        <v>5513.666666666667</v>
+      </c>
+      <c r="H259" t="n">
+        <v>5507.583333333333</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>5465</v>
+      </c>
+      <c r="C260" t="n">
+        <v>5465</v>
+      </c>
+      <c r="D260" t="n">
+        <v>5465</v>
+      </c>
+      <c r="E260" t="n">
+        <v>5465</v>
+      </c>
+      <c r="F260" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="G260" t="n">
+        <v>5509</v>
+      </c>
+      <c r="H260" t="n">
+        <v>5507.666666666667</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>5470</v>
+      </c>
+      <c r="C261" t="n">
+        <v>5470</v>
+      </c>
+      <c r="D261" t="n">
+        <v>5470</v>
+      </c>
+      <c r="E261" t="n">
+        <v>5470</v>
+      </c>
+      <c r="F261" t="n">
+        <v>10.0915</v>
+      </c>
+      <c r="G261" t="n">
+        <v>5504</v>
+      </c>
+      <c r="H261" t="n">
+        <v>5507.75</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>5445</v>
+      </c>
+      <c r="C262" t="n">
+        <v>5445</v>
+      </c>
+      <c r="D262" t="n">
+        <v>5445</v>
+      </c>
+      <c r="E262" t="n">
+        <v>5445</v>
+      </c>
+      <c r="F262" t="n">
+        <v>12.9439</v>
+      </c>
+      <c r="G262" t="n">
+        <v>5497.333333333333</v>
+      </c>
+      <c r="H262" t="n">
+        <v>5507.416666666667</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>5450</v>
+      </c>
+      <c r="C263" t="n">
+        <v>5435</v>
+      </c>
+      <c r="D263" t="n">
+        <v>5450</v>
+      </c>
+      <c r="E263" t="n">
+        <v>5435</v>
+      </c>
+      <c r="F263" t="n">
+        <v>193.4505</v>
+      </c>
+      <c r="G263" t="n">
+        <v>5490.666666666667</v>
+      </c>
+      <c r="H263" t="n">
+        <v>5507</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>5450</v>
+      </c>
+      <c r="C264" t="n">
+        <v>5450</v>
+      </c>
+      <c r="D264" t="n">
+        <v>5450</v>
+      </c>
+      <c r="E264" t="n">
+        <v>5450</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G264" t="n">
+        <v>5486.333333333333</v>
+      </c>
+      <c r="H264" t="n">
+        <v>5506.666666666667</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>5445</v>
+      </c>
+      <c r="C265" t="n">
+        <v>5435</v>
+      </c>
+      <c r="D265" t="n">
+        <v>5445</v>
+      </c>
+      <c r="E265" t="n">
+        <v>5435</v>
+      </c>
+      <c r="F265" t="n">
+        <v>14.7128</v>
+      </c>
+      <c r="G265" t="n">
+        <v>5480.666666666667</v>
+      </c>
+      <c r="H265" t="n">
+        <v>5505.916666666667</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest ETC.xlsx
+++ b/BackTest/2019-10-27 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,10 +913,14 @@
         <v>1688.822516443251</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5245</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5245</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
@@ -946,11 +950,19 @@
         <v>1701.576716443251</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5270</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5245</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +991,19 @@
         <v>1705.682616443251</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5285</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5245</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1342,10 +1362,14 @@
         <v>1203.866216443251</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5260</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5260</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1375,11 +1399,19 @@
         <v>1205.754790569785</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5275</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1440,19 @@
         <v>1204.754790569785</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5295</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1481,19 @@
         <v>609.1467905697853</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5280</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1522,19 @@
         <v>612.9276905697852</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5275</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1563,19 @@
         <v>349.0436905697852</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5290</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1604,19 @@
         <v>349.0436905697852</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5270</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1645,19 @@
         <v>349.0436905697852</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5270</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1686,19 @@
         <v>338.9663905697852</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5270</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1727,19 @@
         <v>-377.0341094302148</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5260</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1768,19 @@
         <v>-1647.375209430215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5245</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1809,19 @@
         <v>-1117.282209430215</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5220</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1850,19 @@
         <v>1165.355090569785</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5245</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1894,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1933,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1972,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2011,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2050,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2089,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2128,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2167,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2206,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2245,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2284,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2323,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2362,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2401,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2440,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2479,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2518,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2557,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2596,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2635,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2674,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2710,17 @@
         <v>651.5155444959912</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2749,17 @@
         <v>-319.3923555040088</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2791,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2830,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2869,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2908,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2947,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2986,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3025,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3064,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3103,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3142,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3181,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3220,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3259,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3298,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3337,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3376,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3412,19 @@
         <v>-168.2333555040089</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5280</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3453,19 @@
         <v>-244.9857045606126</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5300</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3497,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3536,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3575,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3614,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3653,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3692,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3731,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3770,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3809,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3848,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3887,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3926,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3965,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4004,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4043,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4082,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4121,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4160,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4199,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4238,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4277,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4316,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4355,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4394,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4433,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4472,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4511,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4550,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4589,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4628,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4667,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4706,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4745,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4784,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4823,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4862,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4898,19 @@
         <v>-434.1963536172164</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>5310</v>
+      </c>
+      <c r="J119" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4939,19 @@
         <v>-422.0831536172164</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>5310</v>
+      </c>
+      <c r="J120" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4983,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +5022,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +5058,19 @@
         <v>-796.7273536172164</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>5305</v>
+      </c>
+      <c r="J123" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +5099,19 @@
         <v>-1036.766553617216</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>5300</v>
+      </c>
+      <c r="J124" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +5140,19 @@
         <v>-1036.766553617216</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5290</v>
+      </c>
+      <c r="J125" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +5181,19 @@
         <v>-1030.414453617216</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>5290</v>
+      </c>
+      <c r="J126" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +5222,19 @@
         <v>-1053.683853617216</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>5305</v>
+      </c>
+      <c r="J127" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +5263,19 @@
         <v>-1039.191653617216</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>5280</v>
+      </c>
+      <c r="J128" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +5304,19 @@
         <v>-1039.191653617216</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>5285</v>
+      </c>
+      <c r="J129" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,15 +5345,19 @@
         <v>-1039.191653617216</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>5285</v>
       </c>
       <c r="J130" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
+        <v>5260</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,15 +5386,17 @@
         <v>-1046.191653617216</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>5285</v>
+      </c>
       <c r="J131" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -4751,17 +5427,17 @@
         <v>-1100.330953617216</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>5275</v>
       </c>
       <c r="J132" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -4792,11 +5468,13 @@
         <v>-1117.330953617216</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>5270</v>
+      </c>
       <c r="J133" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -4831,13 +5509,13 @@
         <v>-921.3309536172164</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>5255</v>
       </c>
       <c r="J134" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -4872,13 +5550,13 @@
         <v>-920.8306536172164</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>5265</v>
       </c>
       <c r="J135" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -4913,13 +5591,13 @@
         <v>-680.3276536172164</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>5270</v>
       </c>
       <c r="J136" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -4954,13 +5632,13 @@
         <v>-725.2126536172163</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>5295</v>
       </c>
       <c r="J137" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -4995,13 +5673,13 @@
         <v>-674.0706536172163</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>5280</v>
       </c>
       <c r="J138" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5036,11 +5714,13 @@
         <v>-674.0706536172163</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>5295</v>
+      </c>
       <c r="J139" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5075,11 +5755,13 @@
         <v>-674.0706536172163</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>5295</v>
+      </c>
       <c r="J140" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5114,11 +5796,13 @@
         <v>-666.8006536172163</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>5295</v>
+      </c>
       <c r="J141" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5153,11 +5837,13 @@
         <v>-666.8006536172163</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>5300</v>
+      </c>
       <c r="J142" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5192,11 +5878,13 @@
         <v>-666.8006536172163</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>5300</v>
+      </c>
       <c r="J143" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5231,11 +5919,13 @@
         <v>-465.8006536172163</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>5300</v>
+      </c>
       <c r="J144" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5270,11 +5960,13 @@
         <v>-465.8006536172163</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>5310</v>
+      </c>
       <c r="J145" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5313,7 +6005,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5352,7 +6044,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5391,7 +6083,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5430,7 +6122,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5469,7 +6161,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5508,7 +6200,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5547,7 +6239,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5582,11 +6274,13 @@
         <v>-865.8014536172163</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>5310</v>
+      </c>
       <c r="J153" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5621,11 +6315,13 @@
         <v>-865.8014536172163</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>5310</v>
+      </c>
       <c r="J154" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5664,7 +6360,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5703,7 +6399,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5738,11 +6434,13 @@
         <v>-663.6184536172163</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>5300</v>
+      </c>
       <c r="J157" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5781,7 +6479,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5820,7 +6518,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5859,7 +6557,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5898,7 +6596,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5937,7 +6635,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5976,7 +6674,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6015,7 +6713,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6054,7 +6752,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6093,7 +6791,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6132,7 +6830,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6171,7 +6869,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6210,7 +6908,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6249,7 +6947,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6288,7 +6986,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6327,7 +7025,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6366,7 +7064,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6405,7 +7103,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6444,7 +7142,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6483,7 +7181,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6522,7 +7220,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6561,7 +7259,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6600,7 +7298,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6635,11 +7333,13 @@
         <v>-777.9554085997851</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>5330</v>
+      </c>
       <c r="J180" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6674,11 +7374,13 @@
         <v>-679.0225085997851</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>5350</v>
+      </c>
       <c r="J181" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6717,7 +7419,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6752,11 +7454,13 @@
         <v>-707.5871085997851</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>5345</v>
+      </c>
       <c r="J183" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6791,11 +7495,13 @@
         <v>-712.6885085997851</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>5340</v>
+      </c>
       <c r="J184" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6830,11 +7536,13 @@
         <v>-704.2812085997851</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>5330</v>
+      </c>
       <c r="J185" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6869,11 +7577,13 @@
         <v>-706.0236085997851</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>5340</v>
+      </c>
       <c r="J186" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6908,11 +7618,13 @@
         <v>-706.0236085997851</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>5335</v>
+      </c>
       <c r="J187" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6947,11 +7659,13 @@
         <v>-706.0236085997851</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>5335</v>
+      </c>
       <c r="J188" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6986,11 +7700,13 @@
         <v>-966.0455085997851</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>5335</v>
+      </c>
       <c r="J189" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7025,11 +7741,13 @@
         <v>-971.0455085997851</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>5330</v>
+      </c>
       <c r="J190" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7064,11 +7782,13 @@
         <v>-971.0455085997851</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>5325</v>
+      </c>
       <c r="J191" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7103,11 +7823,13 @@
         <v>-988.0455085997851</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>5325</v>
+      </c>
       <c r="J192" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7142,11 +7864,13 @@
         <v>-997.0455085997851</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>5320</v>
+      </c>
       <c r="J193" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7181,11 +7905,13 @@
         <v>-984.776708599785</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>5315</v>
+      </c>
       <c r="J194" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7224,7 +7950,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7263,7 +7989,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7302,7 +8028,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7341,7 +8067,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7380,7 +8106,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7419,7 +8145,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7458,7 +8184,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7497,7 +8223,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7536,7 +8262,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7575,7 +8301,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7614,7 +8340,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7653,7 +8379,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7692,7 +8418,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7731,7 +8457,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7770,7 +8496,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7809,7 +8535,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7848,7 +8574,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7887,7 +8613,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7926,7 +8652,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7965,7 +8691,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8000,19 +8726,19 @@
         <v>638.700891400215</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L215" t="n">
-        <v>1.02054399243141</v>
+        <v>1</v>
       </c>
       <c r="M215" t="inlineStr"/>
     </row>
@@ -8042,8 +8768,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8075,8 +8807,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8108,8 +8846,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8141,8 +8885,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8174,8 +8924,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8207,8 +8963,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8237,11 +8999,17 @@
         <v>611.043691400215</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8273,8 +9041,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8306,8 +9080,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8339,8 +9119,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8372,8 +9158,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8405,8 +9197,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8438,8 +9236,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8471,8 +9275,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8504,8 +9314,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8537,8 +9353,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8570,8 +9392,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8603,8 +9431,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8636,8 +9470,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8669,8 +9509,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8702,8 +9548,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8735,8 +9587,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8768,8 +9626,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8801,8 +9665,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8834,8 +9704,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8867,8 +9743,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8900,8 +9782,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8933,8 +9821,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8966,8 +9860,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8999,8 +9899,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9032,8 +9938,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9065,8 +9977,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9098,8 +10016,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9131,8 +10055,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9164,8 +10094,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9197,8 +10133,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9230,8 +10172,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9260,11 +10208,17 @@
         <v>6038.968391400216</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9293,11 +10247,17 @@
         <v>5322.876291400216</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9326,11 +10286,17 @@
         <v>5322.876291400216</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9359,11 +10325,17 @@
         <v>5558.791391400217</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9392,11 +10364,17 @@
         <v>7113.665691400216</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9428,8 +10406,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9461,8 +10445,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9494,8 +10484,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9527,8 +10523,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9557,11 +10559,17 @@
         <v>5982.227191400215</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9590,11 +10598,17 @@
         <v>9994.887791400215</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9623,11 +10637,17 @@
         <v>8573.537191400215</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9656,11 +10676,17 @@
         <v>9467.253791400215</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9689,11 +10715,17 @@
         <v>6821.090791400215</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9722,11 +10754,17 @@
         <v>7785.242591400214</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9758,8 +10796,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9791,8 +10835,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9824,8 +10874,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9857,8 +10913,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9890,8 +10952,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9923,8 +10991,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9956,8 +11030,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9989,8 +11069,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10022,8 +11108,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10055,8 +11147,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10085,11 +11183,17 @@
         <v>10025.95539140021</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10118,11 +11222,17 @@
         <v>10359.19439140021</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10151,11 +11261,17 @@
         <v>11797.85909140021</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10187,8 +11303,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10217,11 +11339,17 @@
         <v>11115.80589140021</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10250,11 +11378,17 @@
         <v>11115.80589140021</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10283,11 +11417,17 @@
         <v>11115.80589140021</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10316,11 +11456,17 @@
         <v>11122.50859140021</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10352,8 +11498,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10385,8 +11537,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10418,8 +11576,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10451,8 +11615,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10484,8 +11654,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10514,11 +11690,17 @@
         <v>11865.48069140021</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10550,8 +11732,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10583,8 +11771,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10613,11 +11807,17 @@
         <v>11517.60601241013</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10646,11 +11846,17 @@
         <v>10817.44411241013</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10679,11 +11885,17 @@
         <v>10712.17361241013</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10712,11 +11924,17 @@
         <v>10883.69691241013</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10745,11 +11963,17 @@
         <v>10883.69691241013</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10778,11 +12002,17 @@
         <v>10882.03611241013</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10814,8 +12044,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10847,8 +12083,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10877,13 +12119,19 @@
         <v>11761.42651241013</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>5260</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L302" t="n">
-        <v>1</v>
+        <v>1.049182509505703</v>
       </c>
       <c r="M302" t="inlineStr"/>
     </row>
@@ -10910,7 +12158,7 @@
         <v>11211.63231241013</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10943,7 +12191,7 @@
         <v>11434.96701241013</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10976,7 +12224,7 @@
         <v>11434.96701241013</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11009,7 +12257,7 @@
         <v>11432.96701241013</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11042,7 +12290,7 @@
         <v>11431.41131241013</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11075,7 +12323,7 @@
         <v>11678.81741241013</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11108,7 +12356,7 @@
         <v>11822.18991241013</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11141,7 +12389,7 @@
         <v>11810.29791241013</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11174,7 +12422,7 @@
         <v>10372.38781241013</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11207,7 +12455,7 @@
         <v>10489.17531241013</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11273,7 +12521,7 @@
         <v>9853.328212410128</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11306,7 +12554,7 @@
         <v>9853.328212410128</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11339,7 +12587,7 @@
         <v>9605.207712410127</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11372,7 +12620,7 @@
         <v>7644.574012410127</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11405,7 +12653,7 @@
         <v>7655.374012410127</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11504,7 +12752,7 @@
         <v>7459.071112410127</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11537,7 +12785,7 @@
         <v>7461.121112410127</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11570,7 +12818,7 @@
         <v>7446.408312410127</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11581,6 +12829,6 @@
       <c r="M323" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest ETC.xlsx
+++ b/BackTest/2019-10-27 BackTest ETC.xlsx
@@ -2761,7 +2761,7 @@
         <v>-111.4796555040089</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -4609,10 +4609,14 @@
         <v>-1039.191653617216</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>5280</v>
+      </c>
+      <c r="J128" t="n">
+        <v>5280</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
@@ -4642,11 +4646,19 @@
         <v>-1039.191653617216</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>5285</v>
+      </c>
+      <c r="J129" t="n">
+        <v>5280</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4687,19 @@
         <v>-1039.191653617216</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>5285</v>
+      </c>
+      <c r="J130" t="n">
+        <v>5280</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5073,9 +5093,11 @@
         <v>-674.0706536172163</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>5295</v>
+      </c>
       <c r="J140" t="n">
         <v>5285</v>
       </c>
@@ -5112,9 +5134,11 @@
         <v>-666.8006536172163</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>5295</v>
+      </c>
       <c r="J141" t="n">
         <v>5285</v>
       </c>
@@ -5151,9 +5175,11 @@
         <v>-666.8006536172163</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>5300</v>
+      </c>
       <c r="J142" t="n">
         <v>5285</v>
       </c>
@@ -5190,9 +5216,11 @@
         <v>-666.8006536172163</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>5300</v>
+      </c>
       <c r="J143" t="n">
         <v>5285</v>
       </c>
@@ -5229,9 +5257,11 @@
         <v>-465.8006536172163</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>5300</v>
+      </c>
       <c r="J144" t="n">
         <v>5285</v>
       </c>
@@ -6204,7 +6234,7 @@
         <v>175.2886315679689</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
@@ -6212,11 +6242,11 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.01581362346263</v>
+        <v>1</v>
       </c>
       <c r="M169" t="inlineStr"/>
     </row>
@@ -6243,11 +6273,17 @@
         <v>175.2886315679689</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6276,11 +6312,17 @@
         <v>175.2886315679689</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6309,11 +6351,17 @@
         <v>180.0773315679689</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6342,11 +6390,17 @@
         <v>180.0773315679689</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6375,11 +6429,17 @@
         <v>78.83353156796889</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6408,11 +6468,17 @@
         <v>78.83353156796889</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6441,11 +6507,17 @@
         <v>82.43819140021493</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6474,11 +6546,17 @@
         <v>82.43819140021493</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6507,11 +6585,17 @@
         <v>-459.7651085997851</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6543,8 +6627,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6573,11 +6663,17 @@
         <v>-777.9554085997851</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6609,8 +6705,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6639,11 +6741,17 @@
         <v>-704.5047085997851</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6672,11 +6780,17 @@
         <v>-707.5871085997851</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6705,11 +6819,17 @@
         <v>-712.6885085997851</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6738,11 +6858,17 @@
         <v>-704.2812085997851</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6771,11 +6897,17 @@
         <v>-706.0236085997851</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6804,11 +6936,17 @@
         <v>-706.0236085997851</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6837,11 +6975,17 @@
         <v>-706.0236085997851</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6870,11 +7014,17 @@
         <v>-966.0455085997851</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6906,8 +7056,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6939,8 +7095,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6972,8 +7134,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7005,8 +7173,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7038,8 +7212,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7071,8 +7251,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7101,11 +7287,17 @@
         <v>-969.630608599785</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7137,8 +7329,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7170,8 +7368,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7203,8 +7407,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7233,11 +7443,17 @@
         <v>-160.200908599785</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7266,11 +7482,17 @@
         <v>-414.949108599785</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7299,11 +7521,17 @@
         <v>-414.949108599785</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7332,11 +7560,17 @@
         <v>-410.949108599785</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7365,11 +7599,17 @@
         <v>-353.690208599785</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7398,11 +7638,17 @@
         <v>-352.633408599785</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7431,11 +7677,17 @@
         <v>-338.085308599785</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7464,11 +7716,17 @@
         <v>-338.085308599785</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7497,11 +7755,17 @@
         <v>-351.607508599785</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7530,11 +7794,17 @@
         <v>-338.230908599785</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7563,11 +7833,17 @@
         <v>300.882091400215</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7596,11 +7872,17 @@
         <v>278.722891400215</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7629,11 +7911,17 @@
         <v>549.627891400215</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7662,11 +7950,17 @@
         <v>526.777491400215</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7698,8 +7992,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7731,8 +8031,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7764,8 +8070,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7797,8 +8109,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7830,8 +8148,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7863,8 +8187,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7896,8 +8226,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7929,8 +8265,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7962,8 +8304,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7995,8 +8343,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8028,8 +8382,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8061,8 +8421,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8094,8 +8460,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8127,8 +8499,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8160,8 +8538,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8193,8 +8577,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8226,8 +8616,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8259,8 +8655,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8292,8 +8694,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8325,8 +8733,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8358,8 +8772,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8391,8 +8811,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8424,8 +8850,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8457,8 +8889,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8490,8 +8928,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8523,8 +8967,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8556,8 +9006,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8589,8 +9045,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8622,8 +9084,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8655,8 +9123,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8688,8 +9162,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8721,8 +9201,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8754,8 +9240,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8787,8 +9279,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8820,8 +9318,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8853,8 +9357,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8886,8 +9396,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8919,8 +9435,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8952,8 +9474,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8985,8 +9513,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9018,8 +9552,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9051,8 +9591,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9084,8 +9630,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9117,8 +9669,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9150,8 +9708,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9183,8 +9747,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9216,8 +9786,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9249,8 +9825,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9282,8 +9864,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9315,8 +9903,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9348,8 +9942,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9381,8 +9981,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9414,8 +10020,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9447,8 +10059,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9480,8 +10098,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9513,8 +10137,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9546,8 +10176,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9579,8 +10215,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9612,8 +10254,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9645,8 +10293,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9678,8 +10332,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9711,8 +10371,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9744,8 +10410,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9777,8 +10449,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9810,8 +10488,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9843,8 +10527,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9876,8 +10566,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9906,13 +10602,19 @@
         <v>11790.22869140021</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L281" t="n">
-        <v>1</v>
+        <v>1.04135761589404</v>
       </c>
       <c r="M281" t="inlineStr"/>
     </row>
@@ -9939,7 +10641,7 @@
         <v>11115.80589140021</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9972,7 +10674,7 @@
         <v>11115.80589140021</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10005,7 +10707,7 @@
         <v>11115.80589140021</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10038,7 +10740,7 @@
         <v>11122.50859140021</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10071,7 +10773,7 @@
         <v>11122.50859140021</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10104,7 +10806,7 @@
         <v>11252.96779140021</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10137,7 +10839,7 @@
         <v>11252.96779140021</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10170,7 +10872,7 @@
         <v>11252.96779140021</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10203,7 +10905,7 @@
         <v>11679.29979140021</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10236,7 +10938,7 @@
         <v>11865.48069140021</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10269,7 +10971,7 @@
         <v>12019.37149140021</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10302,7 +11004,7 @@
         <v>12138.86949140021</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10335,7 +11037,7 @@
         <v>11517.60601241013</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10368,7 +11070,7 @@
         <v>10817.44411241013</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10401,7 +11103,7 @@
         <v>10712.17361241013</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10434,7 +11136,7 @@
         <v>10883.69691241013</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10467,7 +11169,7 @@
         <v>10883.69691241013</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10500,7 +11202,7 @@
         <v>10882.03611241013</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10533,7 +11235,7 @@
         <v>10979.73611241013</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10566,7 +11268,7 @@
         <v>11308.51821241013</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10599,7 +11301,7 @@
         <v>11761.42651241013</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10632,7 +11334,7 @@
         <v>11211.63231241013</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10665,7 +11367,7 @@
         <v>11434.96701241013</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10698,7 +11400,7 @@
         <v>11434.96701241013</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10731,7 +11433,7 @@
         <v>11432.96701241013</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10764,7 +11466,7 @@
         <v>11431.41131241013</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10797,7 +11499,7 @@
         <v>11678.81741241013</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10830,7 +11532,7 @@
         <v>11822.18991241013</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10863,7 +11565,7 @@
         <v>11810.29791241013</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10896,7 +11598,7 @@
         <v>10372.38781241013</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10929,7 +11631,7 @@
         <v>10489.17531241013</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10962,7 +11664,7 @@
         <v>10489.17531241013</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10995,7 +11697,7 @@
         <v>9853.328212410128</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11028,7 +11730,7 @@
         <v>9853.328212410128</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11061,7 +11763,7 @@
         <v>9605.207712410127</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11094,7 +11796,7 @@
         <v>7644.574012410127</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest ETC.xlsx
+++ b/BackTest/2019-10-27 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M323"/>
+  <dimension ref="A1:L323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>7.4</v>
       </c>
       <c r="G2" t="n">
-        <v>4340.6965342723</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>99.81255857544517</v>
       </c>
       <c r="G3" t="n">
-        <v>4440.509092847745</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>0.351123595505618</v>
       </c>
       <c r="G4" t="n">
-        <v>4440.86021644325</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>984.0726</v>
       </c>
       <c r="G5" t="n">
-        <v>3456.78761644325</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>182.5904</v>
       </c>
       <c r="G6" t="n">
-        <v>3274.19721644325</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1147.8301</v>
       </c>
       <c r="G7" t="n">
-        <v>2126.367116443251</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>99.94</v>
       </c>
       <c r="G8" t="n">
-        <v>2226.307116443251</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>140.0934</v>
       </c>
       <c r="G9" t="n">
-        <v>2086.213716443251</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>221.84</v>
       </c>
       <c r="G10" t="n">
-        <v>1864.373716443251</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>5.6032</v>
       </c>
       <c r="G11" t="n">
-        <v>1869.976916443251</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>86.8434</v>
       </c>
       <c r="G12" t="n">
-        <v>1783.133516443251</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>125.8992</v>
       </c>
       <c r="G13" t="n">
-        <v>1909.032716443251</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>404.9384</v>
       </c>
       <c r="G14" t="n">
-        <v>1504.094316443251</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>179.8382</v>
       </c>
       <c r="G15" t="n">
-        <v>1683.932516443251</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>4.89</v>
       </c>
       <c r="G16" t="n">
-        <v>1688.822516443251</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>12.7542</v>
       </c>
       <c r="G17" t="n">
-        <v>1701.576716443251</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>4.1059</v>
       </c>
       <c r="G18" t="n">
-        <v>1705.682616443251</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>781</v>
       </c>
       <c r="G19" t="n">
-        <v>1705.682616443251</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>21.2648</v>
       </c>
       <c r="G20" t="n">
-        <v>1684.417816443251</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>28.1036</v>
       </c>
       <c r="G21" t="n">
-        <v>1712.521416443251</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>264.9019</v>
       </c>
       <c r="G22" t="n">
-        <v>1447.619516443251</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>17.6582</v>
       </c>
       <c r="G23" t="n">
-        <v>1429.961316443251</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>0.8961</v>
       </c>
       <c r="G24" t="n">
-        <v>1429.065216443251</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>0.3613</v>
       </c>
       <c r="G25" t="n">
-        <v>1428.703916443251</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>74.1005</v>
       </c>
       <c r="G26" t="n">
-        <v>1502.804416443251</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>0.5997</v>
       </c>
       <c r="G27" t="n">
-        <v>1503.404116443251</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>300.2991</v>
       </c>
       <c r="G28" t="n">
-        <v>1203.105016443251</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>0.7612</v>
       </c>
       <c r="G29" t="n">
-        <v>1203.866216443251</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1.888574126534466</v>
       </c>
       <c r="G30" t="n">
-        <v>1205.754790569785</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1204.754790569785</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>595.6079999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>609.1467905697853</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>3.7809</v>
       </c>
       <c r="G33" t="n">
-        <v>612.9276905697852</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>263.884</v>
       </c>
       <c r="G34" t="n">
-        <v>349.0436905697852</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>116.3</v>
       </c>
       <c r="G35" t="n">
-        <v>349.0436905697852</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>71.5651</v>
       </c>
       <c r="G36" t="n">
-        <v>349.0436905697852</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>10.0773</v>
       </c>
       <c r="G37" t="n">
-        <v>338.9663905697852</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>716.0005</v>
       </c>
       <c r="G38" t="n">
-        <v>-377.0341094302148</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1270.3411</v>
       </c>
       <c r="G39" t="n">
-        <v>-1647.375209430215</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>530.093</v>
       </c>
       <c r="G40" t="n">
-        <v>-1117.282209430215</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,19 @@
         <v>2282.6373</v>
       </c>
       <c r="G41" t="n">
-        <v>1165.355090569785</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>5245</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5245</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1647,21 @@
         <v>454.7766</v>
       </c>
       <c r="G42" t="n">
-        <v>710.5784905697849</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>5245</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1683,21 @@
         <v>579.3346</v>
       </c>
       <c r="G43" t="n">
-        <v>1289.913090569785</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>5245</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1719,15 @@
         <v>470.8809</v>
       </c>
       <c r="G44" t="n">
-        <v>1760.793990569785</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1749,15 @@
         <v>62.0339</v>
       </c>
       <c r="G45" t="n">
-        <v>1698.760090569785</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1779,15 @@
         <v>392.0501</v>
       </c>
       <c r="G46" t="n">
-        <v>1306.709990569785</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1809,15 @@
         <v>507.9499</v>
       </c>
       <c r="G47" t="n">
-        <v>1306.709990569785</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1839,15 @@
         <v>324.1491</v>
       </c>
       <c r="G48" t="n">
-        <v>1630.859090569785</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1869,15 @@
         <v>790.8591</v>
       </c>
       <c r="G49" t="n">
-        <v>839.9999905697852</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1899,15 @@
         <v>39.4395</v>
       </c>
       <c r="G50" t="n">
-        <v>839.9999905697852</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1929,15 @@
         <v>145.5733</v>
       </c>
       <c r="G51" t="n">
-        <v>839.9999905697852</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1959,15 @@
         <v>208.7939</v>
       </c>
       <c r="G52" t="n">
-        <v>631.2060905697851</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1989,15 @@
         <v>3.7364</v>
       </c>
       <c r="G53" t="n">
-        <v>634.9424905697852</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2019,15 @@
         <v>25.8714</v>
       </c>
       <c r="G54" t="n">
-        <v>609.0710905697852</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2049,15 @@
         <v>0.9990539262062441</v>
       </c>
       <c r="G55" t="n">
-        <v>610.0701444959914</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2079,15 @@
         <v>18.2155</v>
       </c>
       <c r="G56" t="n">
-        <v>591.8546444959914</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2109,15 @@
         <v>12.7316</v>
       </c>
       <c r="G57" t="n">
-        <v>604.5862444959913</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2139,15 @@
         <v>28.2614</v>
       </c>
       <c r="G58" t="n">
-        <v>632.8476444959913</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2169,15 @@
         <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>635.8476444959913</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2199,15 @@
         <v>11.2946</v>
       </c>
       <c r="G60" t="n">
-        <v>647.1422444959912</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2229,15 @@
         <v>11.1575</v>
       </c>
       <c r="G61" t="n">
-        <v>635.9847444959912</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2259,15 @@
         <v>624.5051</v>
       </c>
       <c r="G62" t="n">
-        <v>635.9847444959912</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2289,15 @@
         <v>15.5308</v>
       </c>
       <c r="G63" t="n">
-        <v>651.5155444959912</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2319,15 @@
         <v>970.9079</v>
       </c>
       <c r="G64" t="n">
-        <v>-319.3923555040088</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2349,15 @@
         <v>154.03</v>
       </c>
       <c r="G65" t="n">
-        <v>-165.3623555040088</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2379,15 @@
         <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>-265.3623555040089</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2409,15 @@
         <v>70.6609</v>
       </c>
       <c r="G67" t="n">
-        <v>-194.7014555040089</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2439,15 @@
         <v>1.3517</v>
       </c>
       <c r="G68" t="n">
-        <v>-194.7014555040089</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2469,15 @@
         <v>350.1963</v>
       </c>
       <c r="G69" t="n">
-        <v>155.4948444959911</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2499,15 @@
         <v>153.997</v>
       </c>
       <c r="G70" t="n">
-        <v>1.497844495991131</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2529,15 @@
         <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>-98.50215550400887</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2559,15 @@
         <v>12.9775</v>
       </c>
       <c r="G72" t="n">
-        <v>-111.4796555040089</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2589,15 @@
         <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>-211.4796555040089</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2619,15 @@
         <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>-311.4796555040089</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2649,15 @@
         <v>40.0156</v>
       </c>
       <c r="G75" t="n">
-        <v>-351.4952555040089</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2679,15 @@
         <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>-401.4952555040089</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2709,15 @@
         <v>159.6704</v>
       </c>
       <c r="G77" t="n">
-        <v>-241.8248555040089</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2739,15 @@
         <v>19.0843</v>
       </c>
       <c r="G78" t="n">
-        <v>-260.9091555040089</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2769,15 @@
         <v>1.9955</v>
       </c>
       <c r="G79" t="n">
-        <v>-262.9046555040089</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2799,15 @@
         <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>-262.9046555040089</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2829,15 @@
         <v>94.6713</v>
       </c>
       <c r="G81" t="n">
-        <v>-168.2333555040089</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2859,15 @@
         <v>76.75234905660378</v>
       </c>
       <c r="G82" t="n">
-        <v>-244.9857045606126</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2889,15 @@
         <v>31.2833</v>
       </c>
       <c r="G83" t="n">
-        <v>-213.7024045606126</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2919,15 @@
         <v>165.0746</v>
       </c>
       <c r="G84" t="n">
-        <v>-213.7024045606126</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2949,15 @@
         <v>51.1711</v>
       </c>
       <c r="G85" t="n">
-        <v>-213.7024045606126</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2979,15 @@
         <v>13.4036</v>
       </c>
       <c r="G86" t="n">
-        <v>-227.1060045606127</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3009,15 @@
         <v>2.769350943396226</v>
       </c>
       <c r="G87" t="n">
-        <v>-224.3366536172164</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3039,15 @@
         <v>8.9352</v>
       </c>
       <c r="G88" t="n">
-        <v>-215.4014536172164</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3069,15 @@
         <v>275.8638</v>
       </c>
       <c r="G89" t="n">
-        <v>60.46234638278361</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3099,15 @@
         <v>189.4997</v>
       </c>
       <c r="G90" t="n">
-        <v>-129.0373536172164</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3129,15 @@
         <v>0.679</v>
       </c>
       <c r="G91" t="n">
-        <v>-129.0373536172164</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3159,15 @@
         <v>17.7447</v>
       </c>
       <c r="G92" t="n">
-        <v>-111.2926536172164</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3189,15 @@
         <v>107.7159</v>
       </c>
       <c r="G93" t="n">
-        <v>-219.0085536172164</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3219,15 @@
         <v>199.2137</v>
       </c>
       <c r="G94" t="n">
-        <v>-19.7948536172164</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3249,15 @@
         <v>495.9719</v>
       </c>
       <c r="G95" t="n">
-        <v>-19.7948536172164</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3279,15 @@
         <v>55.6975</v>
       </c>
       <c r="G96" t="n">
-        <v>-19.7948536172164</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3309,15 @@
         <v>20</v>
       </c>
       <c r="G97" t="n">
-        <v>-39.7948536172164</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3339,15 @@
         <v>11.6928</v>
       </c>
       <c r="G98" t="n">
-        <v>-51.4876536172164</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3369,15 @@
         <v>2.0775</v>
       </c>
       <c r="G99" t="n">
-        <v>-51.4876536172164</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3399,15 @@
         <v>342.3492</v>
       </c>
       <c r="G100" t="n">
-        <v>-393.8368536172164</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3429,15 @@
         <v>0.5</v>
       </c>
       <c r="G101" t="n">
-        <v>-393.3368536172164</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3459,15 @@
         <v>43.3528</v>
       </c>
       <c r="G102" t="n">
-        <v>-393.3368536172164</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3489,15 @@
         <v>429.7544</v>
       </c>
       <c r="G103" t="n">
-        <v>-393.3368536172164</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3519,15 @@
         <v>38.8667</v>
       </c>
       <c r="G104" t="n">
-        <v>-354.4701536172164</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3549,15 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>-344.4701536172164</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3579,15 @@
         <v>157.8253</v>
       </c>
       <c r="G106" t="n">
-        <v>-186.6448536172164</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3609,15 @@
         <v>35.3446</v>
       </c>
       <c r="G107" t="n">
-        <v>-221.9894536172164</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3639,15 @@
         <v>178.1657</v>
       </c>
       <c r="G108" t="n">
-        <v>-221.9894536172164</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3669,15 @@
         <v>107</v>
       </c>
       <c r="G109" t="n">
-        <v>-114.9894536172164</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3699,15 @@
         <v>29.535</v>
       </c>
       <c r="G110" t="n">
-        <v>-114.9894536172164</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3729,15 @@
         <v>1.24</v>
       </c>
       <c r="G111" t="n">
-        <v>-116.2294536172164</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3759,15 @@
         <v>31.0939</v>
       </c>
       <c r="G112" t="n">
-        <v>-85.13555361721637</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3789,15 @@
         <v>25.5756</v>
       </c>
       <c r="G113" t="n">
-        <v>-110.7111536172164</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3819,15 @@
         <v>249.4247</v>
       </c>
       <c r="G114" t="n">
-        <v>-360.1358536172164</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3849,15 @@
         <v>59.724</v>
       </c>
       <c r="G115" t="n">
-        <v>-419.8598536172164</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3879,15 @@
         <v>10.9944</v>
       </c>
       <c r="G116" t="n">
-        <v>-419.8598536172164</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3909,15 @@
         <v>19.3076</v>
       </c>
       <c r="G117" t="n">
-        <v>-419.8598536172164</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3939,15 @@
         <v>14.3365</v>
       </c>
       <c r="G118" t="n">
-        <v>-434.1963536172164</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3969,15 @@
         <v>8.102</v>
       </c>
       <c r="G119" t="n">
-        <v>-434.1963536172164</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3999,15 @@
         <v>12.1132</v>
       </c>
       <c r="G120" t="n">
-        <v>-422.0831536172164</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4029,15 @@
         <v>137.4471</v>
       </c>
       <c r="G121" t="n">
-        <v>-559.5302536172164</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4059,15 @@
         <v>99.75</v>
       </c>
       <c r="G122" t="n">
-        <v>-659.2802536172164</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4089,15 @@
         <v>137.4471</v>
       </c>
       <c r="G123" t="n">
-        <v>-796.7273536172164</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4119,15 @@
         <v>240.0392</v>
       </c>
       <c r="G124" t="n">
-        <v>-1036.766553617216</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4149,15 @@
         <v>23.2694</v>
       </c>
       <c r="G125" t="n">
-        <v>-1036.766553617216</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4179,15 @@
         <v>6.3521</v>
       </c>
       <c r="G126" t="n">
-        <v>-1030.414453617216</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4209,15 @@
         <v>23.2694</v>
       </c>
       <c r="G127" t="n">
-        <v>-1053.683853617216</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,22 +4239,15 @@
         <v>14.4922</v>
       </c>
       <c r="G128" t="n">
-        <v>-1039.191653617216</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>5280</v>
-      </c>
-      <c r="J128" t="n">
-        <v>5280</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4643,26 +4269,15 @@
         <v>14.9504</v>
       </c>
       <c r="G129" t="n">
-        <v>-1039.191653617216</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>5285</v>
-      </c>
-      <c r="J129" t="n">
-        <v>5280</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4684,26 +4299,15 @@
         <v>9.6518</v>
       </c>
       <c r="G130" t="n">
-        <v>-1039.191653617216</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>5285</v>
-      </c>
-      <c r="J130" t="n">
-        <v>5280</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4725,22 +4329,15 @@
         <v>7</v>
       </c>
       <c r="G131" t="n">
-        <v>-1046.191653617216</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>5285</v>
-      </c>
-      <c r="J131" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4762,26 +4359,15 @@
         <v>54.1393</v>
       </c>
       <c r="G132" t="n">
-        <v>-1100.330953617216</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>5275</v>
-      </c>
-      <c r="J132" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4803,26 +4389,15 @@
         <v>17</v>
       </c>
       <c r="G133" t="n">
-        <v>-1117.330953617216</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>5270</v>
-      </c>
-      <c r="J133" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4844,26 +4419,15 @@
         <v>196</v>
       </c>
       <c r="G134" t="n">
-        <v>-921.3309536172164</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>5255</v>
-      </c>
-      <c r="J134" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4885,26 +4449,15 @@
         <v>0.5003</v>
       </c>
       <c r="G135" t="n">
-        <v>-920.8306536172164</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>5265</v>
-      </c>
-      <c r="J135" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4926,26 +4479,15 @@
         <v>240.503</v>
       </c>
       <c r="G136" t="n">
-        <v>-680.3276536172164</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>5270</v>
-      </c>
-      <c r="J136" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4967,26 +4509,15 @@
         <v>44.885</v>
       </c>
       <c r="G137" t="n">
-        <v>-725.2126536172163</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>5295</v>
-      </c>
-      <c r="J137" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5008,26 +4539,15 @@
         <v>51.142</v>
       </c>
       <c r="G138" t="n">
-        <v>-674.0706536172163</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>5280</v>
-      </c>
-      <c r="J138" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5049,26 +4569,15 @@
         <v>0.1888</v>
       </c>
       <c r="G139" t="n">
-        <v>-674.0706536172163</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>5295</v>
-      </c>
-      <c r="J139" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5090,26 +4599,15 @@
         <v>13.15</v>
       </c>
       <c r="G140" t="n">
-        <v>-674.0706536172163</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>5295</v>
-      </c>
-      <c r="J140" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5131,26 +4629,15 @@
         <v>7.27</v>
       </c>
       <c r="G141" t="n">
-        <v>-666.8006536172163</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>5295</v>
-      </c>
-      <c r="J141" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5172,26 +4659,15 @@
         <v>8.7387</v>
       </c>
       <c r="G142" t="n">
-        <v>-666.8006536172163</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>5300</v>
-      </c>
-      <c r="J142" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5213,26 +4689,15 @@
         <v>6.7261</v>
       </c>
       <c r="G143" t="n">
-        <v>-666.8006536172163</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>5300</v>
-      </c>
-      <c r="J143" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5254,26 +4719,15 @@
         <v>201</v>
       </c>
       <c r="G144" t="n">
-        <v>-465.8006536172163</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>5300</v>
-      </c>
-      <c r="J144" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5295,24 +4749,15 @@
         <v>10.0572</v>
       </c>
       <c r="G145" t="n">
-        <v>-465.8006536172163</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5334,24 +4779,15 @@
         <v>62.5451</v>
       </c>
       <c r="G146" t="n">
-        <v>-403.2555536172163</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5373,24 +4809,15 @@
         <v>3</v>
       </c>
       <c r="G147" t="n">
-        <v>-400.2555536172163</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5412,24 +4839,15 @@
         <v>56.32</v>
       </c>
       <c r="G148" t="n">
-        <v>-343.9355536172163</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5451,24 +4869,15 @@
         <v>140.5945</v>
       </c>
       <c r="G149" t="n">
-        <v>-484.5300536172164</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5490,24 +4899,15 @@
         <v>93.843</v>
       </c>
       <c r="G150" t="n">
-        <v>-578.3730536172163</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5529,24 +4929,15 @@
         <v>14.74</v>
       </c>
       <c r="G151" t="n">
-        <v>-578.3730536172163</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5568,24 +4959,15 @@
         <v>287.4284</v>
       </c>
       <c r="G152" t="n">
-        <v>-865.8014536172163</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5607,24 +4989,15 @@
         <v>35.1539</v>
       </c>
       <c r="G153" t="n">
-        <v>-865.8014536172163</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5646,24 +5019,15 @@
         <v>54.1932</v>
       </c>
       <c r="G154" t="n">
-        <v>-865.8014536172163</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5685,24 +5049,15 @@
         <v>4.4615</v>
       </c>
       <c r="G155" t="n">
-        <v>-865.8014536172163</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5724,24 +5079,15 @@
         <v>4.4857</v>
       </c>
       <c r="G156" t="n">
-        <v>-870.2871536172163</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5763,24 +5109,15 @@
         <v>206.6687</v>
       </c>
       <c r="G157" t="n">
-        <v>-663.6184536172163</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5802,24 +5139,15 @@
         <v>113.9</v>
       </c>
       <c r="G158" t="n">
-        <v>-549.7184536172164</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5841,24 +5169,15 @@
         <v>25.3043</v>
       </c>
       <c r="G159" t="n">
-        <v>-575.0227536172164</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5880,24 +5199,15 @@
         <v>0.5991</v>
       </c>
       <c r="G160" t="n">
-        <v>-575.0227536172164</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5919,24 +5229,15 @@
         <v>640.1438000000001</v>
       </c>
       <c r="G161" t="n">
-        <v>65.12104638278367</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5958,24 +5259,15 @@
         <v>100</v>
       </c>
       <c r="G162" t="n">
-        <v>65.12104638278367</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5997,24 +5289,15 @@
         <v>1.4419</v>
       </c>
       <c r="G163" t="n">
-        <v>66.56294638278368</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6036,24 +5319,15 @@
         <v>68.9696</v>
       </c>
       <c r="G164" t="n">
-        <v>66.56294638278368</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6075,24 +5349,15 @@
         <v>124.6898</v>
       </c>
       <c r="G165" t="n">
-        <v>191.2527463827837</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6114,24 +5379,15 @@
         <v>0.1851851851851852</v>
       </c>
       <c r="G166" t="n">
-        <v>191.4379315679689</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6153,24 +5409,15 @@
         <v>16.1493</v>
       </c>
       <c r="G167" t="n">
-        <v>175.2886315679689</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6192,24 +5439,15 @@
         <v>21.8251</v>
       </c>
       <c r="G168" t="n">
-        <v>175.2886315679689</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6231,24 +5469,15 @@
         <v>2.8665</v>
       </c>
       <c r="G169" t="n">
-        <v>175.2886315679689</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6270,24 +5499,15 @@
         <v>0.6748</v>
       </c>
       <c r="G170" t="n">
-        <v>175.2886315679689</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6309,24 +5529,15 @@
         <v>27.0905</v>
       </c>
       <c r="G171" t="n">
-        <v>175.2886315679689</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6348,24 +5559,15 @@
         <v>4.7887</v>
       </c>
       <c r="G172" t="n">
-        <v>180.0773315679689</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6387,24 +5589,15 @@
         <v>1.2261</v>
       </c>
       <c r="G173" t="n">
-        <v>180.0773315679689</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6426,24 +5619,15 @@
         <v>101.2438</v>
       </c>
       <c r="G174" t="n">
-        <v>78.83353156796889</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6465,24 +5649,15 @@
         <v>0.1656</v>
       </c>
       <c r="G175" t="n">
-        <v>78.83353156796889</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6504,24 +5679,15 @@
         <v>3.604659832246039</v>
       </c>
       <c r="G176" t="n">
-        <v>82.43819140021493</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6543,24 +5709,15 @@
         <v>0.1726</v>
       </c>
       <c r="G177" t="n">
-        <v>82.43819140021493</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6582,24 +5739,15 @@
         <v>542.2033</v>
       </c>
       <c r="G178" t="n">
-        <v>-459.7651085997851</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6621,24 +5769,15 @@
         <v>338.4602</v>
       </c>
       <c r="G179" t="n">
-        <v>-798.2253085997851</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6660,24 +5799,15 @@
         <v>20.2699</v>
       </c>
       <c r="G180" t="n">
-        <v>-777.9554085997851</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6699,24 +5829,15 @@
         <v>98.9329</v>
       </c>
       <c r="G181" t="n">
-        <v>-679.0225085997851</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6738,24 +5859,15 @@
         <v>25.4822</v>
       </c>
       <c r="G182" t="n">
-        <v>-704.5047085997851</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6777,24 +5889,15 @@
         <v>3.0824</v>
       </c>
       <c r="G183" t="n">
-        <v>-707.5871085997851</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6816,24 +5919,15 @@
         <v>5.1014</v>
       </c>
       <c r="G184" t="n">
-        <v>-712.6885085997851</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6855,24 +5949,15 @@
         <v>8.407299999999999</v>
       </c>
       <c r="G185" t="n">
-        <v>-704.2812085997851</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6894,24 +5979,15 @@
         <v>1.7424</v>
       </c>
       <c r="G186" t="n">
-        <v>-706.0236085997851</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6933,24 +6009,15 @@
         <v>59.0328</v>
       </c>
       <c r="G187" t="n">
-        <v>-706.0236085997851</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6972,24 +6039,15 @@
         <v>15</v>
       </c>
       <c r="G188" t="n">
-        <v>-706.0236085997851</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7011,24 +6069,15 @@
         <v>260.0219</v>
       </c>
       <c r="G189" t="n">
-        <v>-966.0455085997851</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7050,24 +6099,15 @@
         <v>5</v>
       </c>
       <c r="G190" t="n">
-        <v>-971.0455085997851</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7089,24 +6129,15 @@
         <v>98.6855</v>
       </c>
       <c r="G191" t="n">
-        <v>-971.0455085997851</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7128,24 +6159,15 @@
         <v>17</v>
       </c>
       <c r="G192" t="n">
-        <v>-988.0455085997851</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7167,24 +6189,15 @@
         <v>9</v>
       </c>
       <c r="G193" t="n">
-        <v>-997.0455085997851</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7206,24 +6219,15 @@
         <v>12.2688</v>
       </c>
       <c r="G194" t="n">
-        <v>-984.776708599785</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7245,24 +6249,15 @@
         <v>56.0861</v>
       </c>
       <c r="G195" t="n">
-        <v>-1040.862808599785</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7284,24 +6279,15 @@
         <v>71.23220000000001</v>
       </c>
       <c r="G196" t="n">
-        <v>-969.630608599785</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7323,24 +6309,15 @@
         <v>1.5864</v>
       </c>
       <c r="G197" t="n">
-        <v>-969.630608599785</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7362,24 +6339,15 @@
         <v>365.8113</v>
       </c>
       <c r="G198" t="n">
-        <v>-603.819308599785</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7401,24 +6369,15 @@
         <v>443.6184</v>
       </c>
       <c r="G199" t="n">
-        <v>-160.200908599785</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7440,24 +6399,15 @@
         <v>3</v>
       </c>
       <c r="G200" t="n">
-        <v>-160.200908599785</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7479,24 +6429,15 @@
         <v>254.7482</v>
       </c>
       <c r="G201" t="n">
-        <v>-414.949108599785</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7518,24 +6459,15 @@
         <v>91.8155</v>
       </c>
       <c r="G202" t="n">
-        <v>-414.949108599785</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7557,24 +6489,15 @@
         <v>4</v>
       </c>
       <c r="G203" t="n">
-        <v>-410.949108599785</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7596,24 +6519,15 @@
         <v>57.2589</v>
       </c>
       <c r="G204" t="n">
-        <v>-353.690208599785</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7635,24 +6549,15 @@
         <v>1.0568</v>
       </c>
       <c r="G205" t="n">
-        <v>-352.633408599785</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7674,24 +6579,15 @@
         <v>14.5481</v>
       </c>
       <c r="G206" t="n">
-        <v>-338.085308599785</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7713,24 +6609,15 @@
         <v>20.2157</v>
       </c>
       <c r="G207" t="n">
-        <v>-338.085308599785</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7752,24 +6639,15 @@
         <v>13.5222</v>
       </c>
       <c r="G208" t="n">
-        <v>-351.607508599785</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7791,24 +6669,15 @@
         <v>13.3766</v>
       </c>
       <c r="G209" t="n">
-        <v>-338.230908599785</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7830,24 +6699,15 @@
         <v>639.1130000000001</v>
       </c>
       <c r="G210" t="n">
-        <v>300.882091400215</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7869,24 +6729,15 @@
         <v>22.1592</v>
       </c>
       <c r="G211" t="n">
-        <v>278.722891400215</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7908,24 +6759,15 @@
         <v>270.905</v>
       </c>
       <c r="G212" t="n">
-        <v>549.627891400215</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7947,24 +6789,15 @@
         <v>22.8504</v>
       </c>
       <c r="G213" t="n">
-        <v>526.777491400215</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7986,24 +6819,15 @@
         <v>111.9234</v>
       </c>
       <c r="G214" t="n">
-        <v>638.700891400215</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8025,24 +6849,15 @@
         <v>54.1266</v>
       </c>
       <c r="G215" t="n">
-        <v>638.700891400215</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8064,24 +6879,15 @@
         <v>20.2443</v>
       </c>
       <c r="G216" t="n">
-        <v>658.945191400215</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8103,24 +6909,15 @@
         <v>3.24</v>
       </c>
       <c r="G217" t="n">
-        <v>658.945191400215</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8142,24 +6939,15 @@
         <v>0.772</v>
       </c>
       <c r="G218" t="n">
-        <v>659.717191400215</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8181,24 +6969,15 @@
         <v>67.3857</v>
       </c>
       <c r="G219" t="n">
-        <v>592.331491400215</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8220,24 +6999,15 @@
         <v>18.5211</v>
       </c>
       <c r="G220" t="n">
-        <v>610.852591400215</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8259,24 +7029,15 @@
         <v>2</v>
       </c>
       <c r="G221" t="n">
-        <v>608.852591400215</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8298,24 +7059,15 @@
         <v>2.1911</v>
       </c>
       <c r="G222" t="n">
-        <v>611.043691400215</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8337,24 +7089,15 @@
         <v>8.082700000000001</v>
       </c>
       <c r="G223" t="n">
-        <v>602.960991400215</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8376,24 +7119,15 @@
         <v>25.7</v>
       </c>
       <c r="G224" t="n">
-        <v>602.960991400215</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8415,24 +7149,15 @@
         <v>69.937</v>
       </c>
       <c r="G225" t="n">
-        <v>533.023991400215</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8454,24 +7179,15 @@
         <v>42.2542</v>
       </c>
       <c r="G226" t="n">
-        <v>490.769791400215</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8493,24 +7209,15 @@
         <v>3</v>
       </c>
       <c r="G227" t="n">
-        <v>487.769791400215</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8532,24 +7239,15 @@
         <v>65.68000000000001</v>
       </c>
       <c r="G228" t="n">
-        <v>553.449791400215</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8571,24 +7269,15 @@
         <v>16.2187</v>
       </c>
       <c r="G229" t="n">
-        <v>553.449791400215</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8610,24 +7299,15 @@
         <v>6.2167</v>
       </c>
       <c r="G230" t="n">
-        <v>547.233091400215</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8649,24 +7329,15 @@
         <v>87.2607</v>
       </c>
       <c r="G231" t="n">
-        <v>547.233091400215</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8688,24 +7359,15 @@
         <v>69.8032</v>
       </c>
       <c r="G232" t="n">
-        <v>617.0362914002151</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8727,24 +7389,15 @@
         <v>176.6046</v>
       </c>
       <c r="G233" t="n">
-        <v>617.0362914002151</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8766,24 +7419,15 @@
         <v>212.6352</v>
       </c>
       <c r="G234" t="n">
-        <v>829.671491400215</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8805,24 +7449,15 @@
         <v>54.7139</v>
       </c>
       <c r="G235" t="n">
-        <v>884.385391400215</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8844,24 +7479,15 @@
         <v>31.8844</v>
       </c>
       <c r="G236" t="n">
-        <v>852.500991400215</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8883,24 +7509,15 @@
         <v>521.0212</v>
       </c>
       <c r="G237" t="n">
-        <v>852.500991400215</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8922,24 +7539,15 @@
         <v>101</v>
       </c>
       <c r="G238" t="n">
-        <v>953.500991400215</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8961,24 +7569,15 @@
         <v>401.261</v>
       </c>
       <c r="G239" t="n">
-        <v>552.2399914002149</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9000,24 +7599,15 @@
         <v>65.8404</v>
       </c>
       <c r="G240" t="n">
-        <v>618.0803914002149</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9039,24 +7629,15 @@
         <v>0.1396</v>
       </c>
       <c r="G241" t="n">
-        <v>618.0803914002149</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9078,24 +7659,15 @@
         <v>103.1599</v>
       </c>
       <c r="G242" t="n">
-        <v>721.2402914002149</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9117,24 +7689,15 @@
         <v>160</v>
       </c>
       <c r="G243" t="n">
-        <v>561.2402914002149</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9156,24 +7719,15 @@
         <v>83.6371</v>
       </c>
       <c r="G244" t="n">
-        <v>644.8773914002149</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9195,24 +7749,15 @@
         <v>1206.8309</v>
       </c>
       <c r="G245" t="n">
-        <v>1851.708291400215</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9234,24 +7779,15 @@
         <v>303.9124</v>
       </c>
       <c r="G246" t="n">
-        <v>1547.795891400215</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9273,24 +7809,15 @@
         <v>224.7949</v>
       </c>
       <c r="G247" t="n">
-        <v>1547.795891400215</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9312,24 +7839,15 @@
         <v>1826.5839</v>
       </c>
       <c r="G248" t="n">
-        <v>3374.379791400215</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9351,24 +7869,15 @@
         <v>365.5412</v>
       </c>
       <c r="G249" t="n">
-        <v>3739.920991400215</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9390,24 +7899,15 @@
         <v>249.2146</v>
       </c>
       <c r="G250" t="n">
-        <v>3739.920991400215</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9429,24 +7929,15 @@
         <v>1861.7689</v>
       </c>
       <c r="G251" t="n">
-        <v>5601.689891400216</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9468,24 +7959,15 @@
         <v>711.072</v>
       </c>
       <c r="G252" t="n">
-        <v>4890.617891400216</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9507,24 +7989,15 @@
         <v>1148.3505</v>
       </c>
       <c r="G253" t="n">
-        <v>6038.968391400216</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9546,24 +8019,15 @@
         <v>716.0921</v>
       </c>
       <c r="G254" t="n">
-        <v>5322.876291400216</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9585,24 +8049,15 @@
         <v>1089.7531</v>
       </c>
       <c r="G255" t="n">
-        <v>5322.876291400216</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9624,24 +8079,15 @@
         <v>235.9151</v>
       </c>
       <c r="G256" t="n">
-        <v>5558.791391400217</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9663,24 +8109,15 @@
         <v>1554.8743</v>
       </c>
       <c r="G257" t="n">
-        <v>7113.665691400216</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9702,24 +8139,15 @@
         <v>202.9</v>
       </c>
       <c r="G258" t="n">
-        <v>7316.565691400216</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9741,24 +8169,15 @@
         <v>1309.4463</v>
       </c>
       <c r="G259" t="n">
-        <v>8626.011991400215</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9780,24 +8199,15 @@
         <v>1506.8958</v>
       </c>
       <c r="G260" t="n">
-        <v>8626.011991400215</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9819,24 +8229,15 @@
         <v>2988.7337</v>
       </c>
       <c r="G261" t="n">
-        <v>5637.278291400215</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9858,24 +8259,15 @@
         <v>344.9489</v>
       </c>
       <c r="G262" t="n">
-        <v>5982.227191400215</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9897,24 +8289,15 @@
         <v>4012.6606</v>
       </c>
       <c r="G263" t="n">
-        <v>9994.887791400215</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9936,24 +8319,15 @@
         <v>1421.3506</v>
       </c>
       <c r="G264" t="n">
-        <v>8573.537191400215</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9975,24 +8349,15 @@
         <v>893.7166</v>
       </c>
       <c r="G265" t="n">
-        <v>9467.253791400215</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10014,24 +8379,15 @@
         <v>2646.163</v>
       </c>
       <c r="G266" t="n">
-        <v>6821.090791400215</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10053,24 +8409,15 @@
         <v>964.1518</v>
       </c>
       <c r="G267" t="n">
-        <v>7785.242591400214</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10092,24 +8439,15 @@
         <v>1319.8465</v>
       </c>
       <c r="G268" t="n">
-        <v>6465.396091400215</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10131,24 +8469,15 @@
         <v>165.3344</v>
       </c>
       <c r="G269" t="n">
-        <v>6630.730491400214</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10170,24 +8499,15 @@
         <v>4.7446</v>
       </c>
       <c r="G270" t="n">
-        <v>6630.730491400214</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10209,24 +8529,15 @@
         <v>301.8251</v>
       </c>
       <c r="G271" t="n">
-        <v>6932.555591400214</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10248,24 +8559,15 @@
         <v>7.3384</v>
       </c>
       <c r="G272" t="n">
-        <v>6932.555591400214</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10287,24 +8589,15 @@
         <v>421.7991</v>
       </c>
       <c r="G273" t="n">
-        <v>7354.354691400215</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10326,24 +8619,15 @@
         <v>600.5982</v>
       </c>
       <c r="G274" t="n">
-        <v>7954.952891400215</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10365,24 +8649,15 @@
         <v>1162.6211</v>
       </c>
       <c r="G275" t="n">
-        <v>7954.952891400215</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10404,24 +8679,15 @@
         <v>1201.8507</v>
       </c>
       <c r="G276" t="n">
-        <v>9156.803591400214</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10443,24 +8709,15 @@
         <v>869.1518</v>
       </c>
       <c r="G277" t="n">
-        <v>10025.95539140021</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10482,24 +8739,15 @@
         <v>12.8056</v>
       </c>
       <c r="G278" t="n">
-        <v>10025.95539140021</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10521,24 +8769,15 @@
         <v>333.239</v>
       </c>
       <c r="G279" t="n">
-        <v>10359.19439140021</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10560,24 +8799,15 @@
         <v>1438.6647</v>
       </c>
       <c r="G280" t="n">
-        <v>11797.85909140021</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10599,24 +8829,15 @@
         <v>7.6304</v>
       </c>
       <c r="G281" t="n">
-        <v>11790.22869140021</v>
-      </c>
-      <c r="H281" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1.04135761589404</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10638,18 +8859,15 @@
         <v>674.4228000000001</v>
       </c>
       <c r="G282" t="n">
-        <v>11115.80589140021</v>
-      </c>
-      <c r="H282" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10671,18 +8889,15 @@
         <v>459.9784</v>
       </c>
       <c r="G283" t="n">
-        <v>11115.80589140021</v>
-      </c>
-      <c r="H283" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10704,18 +8919,15 @@
         <v>359.465</v>
       </c>
       <c r="G284" t="n">
-        <v>11115.80589140021</v>
-      </c>
-      <c r="H284" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10737,18 +8949,15 @@
         <v>6.7027</v>
       </c>
       <c r="G285" t="n">
-        <v>11122.50859140021</v>
-      </c>
-      <c r="H285" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10770,18 +8979,15 @@
         <v>27.7116</v>
       </c>
       <c r="G286" t="n">
-        <v>11122.50859140021</v>
-      </c>
-      <c r="H286" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10803,18 +9009,15 @@
         <v>130.4592</v>
       </c>
       <c r="G287" t="n">
-        <v>11252.96779140021</v>
-      </c>
-      <c r="H287" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10836,18 +9039,15 @@
         <v>20.4146</v>
       </c>
       <c r="G288" t="n">
-        <v>11252.96779140021</v>
-      </c>
-      <c r="H288" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10869,18 +9069,15 @@
         <v>100.5314</v>
       </c>
       <c r="G289" t="n">
-        <v>11252.96779140021</v>
-      </c>
-      <c r="H289" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10902,18 +9099,15 @@
         <v>426.332</v>
       </c>
       <c r="G290" t="n">
-        <v>11679.29979140021</v>
-      </c>
-      <c r="H290" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10935,18 +9129,15 @@
         <v>186.1809</v>
       </c>
       <c r="G291" t="n">
-        <v>11865.48069140021</v>
-      </c>
-      <c r="H291" t="n">
         <v>2</v>
       </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10968,18 +9159,15 @@
         <v>153.8908</v>
       </c>
       <c r="G292" t="n">
-        <v>12019.37149140021</v>
-      </c>
-      <c r="H292" t="n">
         <v>2</v>
       </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11001,18 +9189,15 @@
         <v>119.498</v>
       </c>
       <c r="G293" t="n">
-        <v>12138.86949140021</v>
-      </c>
-      <c r="H293" t="n">
         <v>2</v>
       </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11034,18 +9219,15 @@
         <v>621.2634789900811</v>
       </c>
       <c r="G294" t="n">
-        <v>11517.60601241013</v>
-      </c>
-      <c r="H294" t="n">
         <v>2</v>
       </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11067,18 +9249,15 @@
         <v>700.1618999999999</v>
       </c>
       <c r="G295" t="n">
-        <v>10817.44411241013</v>
-      </c>
-      <c r="H295" t="n">
         <v>2</v>
       </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11100,18 +9279,15 @@
         <v>105.2705</v>
       </c>
       <c r="G296" t="n">
-        <v>10712.17361241013</v>
-      </c>
-      <c r="H296" t="n">
         <v>2</v>
       </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11133,18 +9309,15 @@
         <v>171.5233</v>
       </c>
       <c r="G297" t="n">
-        <v>10883.69691241013</v>
-      </c>
-      <c r="H297" t="n">
         <v>2</v>
       </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11166,18 +9339,15 @@
         <v>26.8427</v>
       </c>
       <c r="G298" t="n">
-        <v>10883.69691241013</v>
-      </c>
-      <c r="H298" t="n">
         <v>2</v>
       </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11199,18 +9369,15 @@
         <v>1.6608</v>
       </c>
       <c r="G299" t="n">
-        <v>10882.03611241013</v>
-      </c>
-      <c r="H299" t="n">
         <v>2</v>
       </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11232,18 +9399,15 @@
         <v>97.7</v>
       </c>
       <c r="G300" t="n">
-        <v>10979.73611241013</v>
-      </c>
-      <c r="H300" t="n">
         <v>2</v>
       </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11265,18 +9429,15 @@
         <v>328.7821</v>
       </c>
       <c r="G301" t="n">
-        <v>11308.51821241013</v>
-      </c>
-      <c r="H301" t="n">
         <v>2</v>
       </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11298,18 +9459,15 @@
         <v>452.9083</v>
       </c>
       <c r="G302" t="n">
-        <v>11761.42651241013</v>
-      </c>
-      <c r="H302" t="n">
         <v>2</v>
       </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11331,18 +9489,15 @@
         <v>549.7942</v>
       </c>
       <c r="G303" t="n">
-        <v>11211.63231241013</v>
-      </c>
-      <c r="H303" t="n">
         <v>2</v>
       </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11364,18 +9519,15 @@
         <v>223.3347</v>
       </c>
       <c r="G304" t="n">
-        <v>11434.96701241013</v>
-      </c>
-      <c r="H304" t="n">
         <v>2</v>
       </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11397,18 +9549,15 @@
         <v>9.746600000000001</v>
       </c>
       <c r="G305" t="n">
-        <v>11434.96701241013</v>
-      </c>
-      <c r="H305" t="n">
         <v>2</v>
       </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11430,18 +9579,15 @@
         <v>2</v>
       </c>
       <c r="G306" t="n">
-        <v>11432.96701241013</v>
-      </c>
-      <c r="H306" t="n">
         <v>2</v>
       </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11463,18 +9609,15 @@
         <v>1.5557</v>
       </c>
       <c r="G307" t="n">
-        <v>11431.41131241013</v>
-      </c>
-      <c r="H307" t="n">
         <v>2</v>
       </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11496,18 +9639,15 @@
         <v>247.4061</v>
       </c>
       <c r="G308" t="n">
-        <v>11678.81741241013</v>
-      </c>
-      <c r="H308" t="n">
         <v>2</v>
       </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11529,18 +9669,15 @@
         <v>143.3725</v>
       </c>
       <c r="G309" t="n">
-        <v>11822.18991241013</v>
-      </c>
-      <c r="H309" t="n">
         <v>2</v>
       </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11562,18 +9699,15 @@
         <v>11.892</v>
       </c>
       <c r="G310" t="n">
-        <v>11810.29791241013</v>
-      </c>
-      <c r="H310" t="n">
         <v>2</v>
       </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11595,18 +9729,15 @@
         <v>1437.9101</v>
       </c>
       <c r="G311" t="n">
-        <v>10372.38781241013</v>
-      </c>
-      <c r="H311" t="n">
         <v>2</v>
       </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11628,18 +9759,15 @@
         <v>116.7875</v>
       </c>
       <c r="G312" t="n">
-        <v>10489.17531241013</v>
-      </c>
-      <c r="H312" t="n">
         <v>2</v>
       </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11661,18 +9789,15 @@
         <v>122.1293</v>
       </c>
       <c r="G313" t="n">
-        <v>10489.17531241013</v>
-      </c>
-      <c r="H313" t="n">
         <v>2</v>
       </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11694,18 +9819,15 @@
         <v>635.8471</v>
       </c>
       <c r="G314" t="n">
-        <v>9853.328212410128</v>
-      </c>
-      <c r="H314" t="n">
         <v>2</v>
       </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11727,18 +9849,15 @@
         <v>706.1615</v>
       </c>
       <c r="G315" t="n">
-        <v>9853.328212410128</v>
-      </c>
-      <c r="H315" t="n">
         <v>2</v>
       </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11760,18 +9879,15 @@
         <v>248.1205</v>
       </c>
       <c r="G316" t="n">
-        <v>9605.207712410127</v>
-      </c>
-      <c r="H316" t="n">
         <v>2</v>
       </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11793,18 +9909,15 @@
         <v>1960.6337</v>
       </c>
       <c r="G317" t="n">
-        <v>7644.574012410127</v>
-      </c>
-      <c r="H317" t="n">
         <v>2</v>
       </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11826,18 +9939,15 @@
         <v>10.8</v>
       </c>
       <c r="G318" t="n">
-        <v>7655.374012410127</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11859,18 +9969,15 @@
         <v>10.0915</v>
       </c>
       <c r="G319" t="n">
-        <v>7665.465512410127</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11892,18 +9999,15 @@
         <v>12.9439</v>
       </c>
       <c r="G320" t="n">
-        <v>7652.521612410127</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11925,18 +10029,15 @@
         <v>193.4505</v>
       </c>
       <c r="G321" t="n">
-        <v>7459.071112410127</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11958,18 +10059,15 @@
         <v>2.05</v>
       </c>
       <c r="G322" t="n">
-        <v>7461.121112410127</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11991,18 +10089,15 @@
         <v>14.7128</v>
       </c>
       <c r="G323" t="n">
-        <v>7446.408312410127</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
